--- a/config/level_config.xlsx
+++ b/config/level_config.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bin/Documents/JoyCastle/claudeCode/solitaire-tile-bingo/config/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA0FBA-83FF-834B-9247-BE78330BDF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3320" windowWidth="26240" windowHeight="14940" xr2:uid="{7DB06E9D-EEF4-1D44-9005-D77D12AE3C0A}"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="233">
   <si>
     <t>id</t>
   </si>
@@ -85,6 +78,12 @@
   </si>
   <si>
     <t>building_id</t>
+  </si>
+  <si>
+    <t>level_time</t>
+  </si>
+  <si>
+    <t>deduct_time</t>
   </si>
   <si>
     <t>string</t>
@@ -154,6 +153,12 @@
     <t>关卡完成后建造id</t>
   </si>
   <si>
+    <t>本关限定时间</t>
+  </si>
+  <si>
+    <t>非法操作扣除时间</t>
+  </si>
+  <si>
     <t>client,server,stat</t>
   </si>
   <si>
@@ -187,64 +192,558 @@
     <t>string_config</t>
   </si>
   <si>
+    <t>SORT_GAME_LEVE_1_BOARD_1</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[[ASIA_WORD_LANDMASS_10],[DRAWING_WORD_ARTWORKS_211],[SUPPORT_WORD_HELP_183],[NEW_YEAR_WORD_HOLIDAY_163],[SHIRT_PIC_GARMENTS_7],[PANTS_PIC_GARMENTS_7],[GAS_WORD_PHASE_57],[DRESS_PIC_GARMENTS_7],[PAGE_WORD_BOOK_9],[CHESSBOARD_PIC_CHESS_1],[APPLE_PIC_FRUITS_9],[LIQUID_WORD_PHASE_57],[COVER_WORD_BOOK_9],[SKIRT_PIC_GARMENTS_7],[SOLID_WORD_PHASE_57],[EASTER_WORD_HOLIDAY_163],[EUROPE_WORD_LANDMASS_10],[JACKET_PIC_GARMENTS_7],[KNIGHT_PIC_CHESS_1],[COAT_PIC_GARMENTS_7],[AFRICA_WORD_LANDMASS_10],[PAPER_WORD_BOOK_9],[PANTIES_PIC_GARMENTS_7],[GLOVES_PIC_GARMENTS_7],[FLAG_DAY_WORD_HOLIDAY_163]]</t>
+  </si>
+  <si>
+    <t>[WORD_BOOK_9,WORD_PHASE_57,PIC_GARMENTS_7,WORD_LANDMASS_10]</t>
+  </si>
+  <si>
     <t>CONSTRUCTION_1_STORE_REWARD_6_1</t>
   </si>
   <si>
-    <t>[7,8]</t>
-  </si>
-  <si>
-    <t>[[Pizza_Food,Bed_Furniture_1,Beef_Burger_1],[Hamster_Pets,Paper_Book,Drama_Cinema],[Rose_Flowers_1,Week_Calendar,Camera_Arts],[Pig_Animals,Mask_Arts,Palette_Arts],[Fries_Food,Film_Arts,Stage_curtain_Arts],[Sheep_Animals,Sailboat_Aquatics,Checkmark_Icons],[Wardrobe_Furniture_1,Goat_Animals],[Dog_Pets,Monkey_Animals],[Parrot_Pets,Cross_Icons],[Peony_Flowers_1,Arrow_Icons],[Wetsuit_Aquatics,Skeleton_Halloween],[Cat_Pets,Bat_Halloween,Spider_web_Halloween],[Horse_Animals,Heart_Icons],[Chair_Furniture_1,Circle_Icons,Ghost_Halloween],[Diving_mask_Aquatics,Candy_bucket_Halloween,Jack_o_lantern_Halloween],[Hot_dog_Food,Lock_icon_Icons,Rope_Survival],[Kayak_Aquatics,Star_Icons,Butter_Baking],[Surfboard_Aquatics,Envelope_icon_Icons,Chocolate_chips_Baking],[Bear_Animals,Blood_pressure_monitor_Medical],[Table_Furniture_1,Paddleboard_Aquatics],[Life_ring_Aquatics,Life_jacket_Aquatics],[Tulip_Flowers_1,Witch_hat_Halloween],[Sofa_Furniture_1,Syringe_Medical],[Burger_Food,Black_cat_Halloween],[Lily_Flowers_1,Thermometer_Medical]]</t>
-  </si>
-  <si>
-    <t>[Furniture_word,Pets_word,Food_word,Flowers_word,Animals_word,Aquatics,Icons,Halloween]</t>
-  </si>
-  <si>
-    <t>TID_C_248_14_NAME</t>
-  </si>
-  <si>
-    <t>sort_game_level_10_board_1</t>
+    <t>DECK_CLEAN_1</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_1_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_2_BOARD_1</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[[SUPPORT_WORD_HELP_183,ROOK_PIC_CHESS_1,QUEEN_PIC_CHESS_1],[PEACH_PIC_FRUITS_9],[ASSIST_WORD_HELP_183],[DESK_PIC_FURNITURE_3],[APPLE_PIC_FRUITS_9],[KIWI_PIC_FRUITS_9],[NEW_YEAR_WORD_HOLIDAY_163],[PAINTING_WORD_ARTWORKS_211],[BANANA_PIC_FRUITS_9],[HI_WORD_HELLO_295],[PINEAPPLE_PIC_FRUITS_9],[EASTER_WORD_HOLIDAY_163],[FLAG_DAY_WORD_HOLIDAY_163,BISHOP_PIC_CHESS_1],[PASSION_WORD_HEART_344],[FRIES_WORD_FOOD_3],[ORANGE_PIC_FRUITS_9,PAWN_PIC_CHESS_1],[POMEGRANATE_PIC_FRUITS_9],[CHAIR_PIC_FURNITURE_3],[DONATE_WORD_HELP_183],[KNIGHT_PIC_CHESS_1],[WATERMELON_PIC_FRUITS_9],[PHOTO_WORD_ARTWORKS_211],[CONSENT_WORD_OK_SIGN_301],[ROMANCE_WORD_HEART_344],[DRAWING_WORD_ARTWORKS_211]]</t>
+  </si>
+  <si>
+    <t>[WORD_ARTWORKS_211,WORD_HOLIDAY_163,PIC_FRUITS_9,WORD_HELP_183]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_2</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_2_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_3_BOARD_1</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[[THIS_WORD_POINTING_379,CODE_WORD_SECRET_471],[CONSENT_WORD_OK_SIGN_301],[HI_WORD_HELLO_295],[YES_WORD_OK_SIGN_301],[NOW_WORD_PRESENT_470],[CHESSBOARD_PIC_CHESS_1],[KNIGHT_PIC_CHESS_1],[QUEEN_PIC_CHESS_1],[OKAY_WORD_OK_SIGN_301],[BOXING_PIC_SPORTS_2],[DINNER_WORD_MEALS_444],[OILY_WORD_SKIN_380],[PASSION_WORD_HEART_344],[COUPLE_WORD_HEART_344],[PAWN_PIC_CHESS_1],[ROOK_PIC_CHESS_1],[TEXT_WORD_MESSAGE_407],[BISHOP_PIC_CHESS_1],[CHESS_CLOCK_PIC_CHESS_1],[ROMANCE_WORD_HEART_344],[HEY_WORD_HELLO_295],[FORCE_WORD_STRENGTH_401],[HOWDY_WORD_HELLO_295],[CHAIR_PIC_FURNITURE_3],[KING_PIC_CHESS_1]]</t>
+  </si>
+  <si>
+    <t>[WORD_HELLO_295,WORD_HEART_344,WORD_OK_SIGN_301,PIC_CHESS_1]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_3</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_3_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_4_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,8]</t>
+  </si>
+  <si>
+    <t>[[HOCKEY_PIC_SPORTS_2,TENNIS_PIC_SPORTS_2],[SOFA_PIC_FURNITURE_3,CELLO_PIC_PLAY_12],[FORCE_WORD_STRENGTH_401],[CURRENT_WORD_PRESENT_470,TRAFFIC_WORD_DRIVING_49],[ORGAN_PIC_PLAY_12,VICTORY_WORD_WREATH_544],[THAT_WORD_POINTING_379],[DRY_WORD_SKIN_380],[POWER_WORD_STRENGTH_401],[FRIES_WORD_FOOD_3,MIGHT_WORD_STRENGTH_401],[DESK_PIC_FURNITURE_3],[FAX_WORD_MESSAGE_407],[TABLE_PIC_FURNITURE_3],[CHAIR_PIC_FURNITURE_3],[FLUTE_PIC_PLAY_12],[THOSE_WORD_POINTING_379],[SUCCESS_WORD_WREATH_544],[ESSAY_WORD_ARTICLES_147],[BURGER_WORD_FOOD_3],[DRUM_PIC_PLAY_12],[OILY_WORD_SKIN_380],[PIZZA_WORD_FOOD_3],[THIS_WORD_POINTING_379],[HOT_DOG_WORD_FOOD_3],[NORMAL_WORD_SKIN_380],[KICK_WORD_MOVEMENT_52]]</t>
+  </si>
+  <si>
+    <t>[WORD_FOOD_3,WORD_POINTING_379,WORD_SKIN_380,PIC_FURNITURE_3,WORD_STRENGTH_401]</t>
+  </si>
+  <si>
+    <t>BIG_SCREEN</t>
+  </si>
+  <si>
+    <t>TID_BUILD_LIST_FIX_BIG_SCREEN</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_5_BOARD_1</t>
+  </si>
+  <si>
+    <t>[4,10]</t>
+  </si>
+  <si>
+    <t>[[SUPPER_WORD_MEALS_444,CELLO_PIC_PLAY_12],[TODAY_WORD_PRESENT_470,SIGN_WORD_DRIVING_49],[CURLING_PIC_SPORTS_2,JUMP_WORD_MOVEMENT_52],[COUPLE_WORD_DATE_87,OPINION_WORD_ARTICLES_147],[SOCCER_PIC_SPORTS_2,EMAIL_WORD_MESSAGE_407],[FLOWERS_WORD_DATE_87,SOMBRERO_PIC_HATS_11],[TRIUMPH_WORD_WREATH_544,PANAMA_HAT_PIC_HATS_11],[BERET_PIC_HATS_11,AUTUMN_WORD_SEASONS_18],[CAP_PIC_HATS_11,TUXEDO_WORD_DATE_87],[RUGBY_PIC_SPORTS_2,CODE_WORD_SECRET_471],[TENNIS_PIC_SPORTS_2,ICEBERG_WORD_SNOW_77],[WINTER_WORD_SEASONS_18,BOBBER_WORD_FISHING_20],[LETTER_WORD_MESSAGE_407],[WALK_WORD_MOVEMENT_52],[CURRENT_WORD_PRESENT_470,TEXT_WORD_MESSAGE_407],[LUNCH_WORD_MEALS_444,WORD_WORD_SECRET_471],[BOXING_PIC_SPORTS_2],[TABLE_TENNIS_PIC_SPORTS_2],[HOCKEY_PIC_SPORTS_2,AGENT_WORD_SECRET_471],[GOLF_PIC_SPORTS_2],[NOW_WORD_PRESENT_470],[TURBAN_PIC_HATS_11],[SUMMER_WORD_SEASONS_18],[FAX_WORD_MESSAGE_407],[DINNER_WORD_MEALS_444]]</t>
+  </si>
+  <si>
+    <t>[PIC_SPORTS_2,WORD_PRESENT_470,WORD_MEALS_444,WORD_MESSAGE_407,WORD_SECRET_471]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_4</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_5_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_6_BOARD_1</t>
+  </si>
+  <si>
+    <t>[[UKULELE_PIC_PLAY_12,CAP_PIC_HATS_11],[TRIUMPH_WORD_WREATH_544,BOBBER_WORD_FISHING_20],[TRAFFIC_WORD_DRIVING_49,ROAD_WORD_DRIVING_49],[WALK_WORD_MOVEMENT_52,PRINTER_WORD_DEVICE_38],[SIGN_WORD_DRIVING_49,CLOUDS_WORD_RAINY_100],[ROD_WORD_FISHING_20],[VIOLIN_PIC_PLAY_12],[SUCCESS_WORD_WREATH_544],[OPINION_WORD_ARTICLES_147],[PUDDLES_WORD_RAINY_100],[CUSHION_PIC_CHAIR_10],[TUXEDO_WORD_DATE_87],[CAR_WORD_DRIVING_49],[PANAMA_HAT_PIC_HATS_11],[REVIEW_WORD_ARTICLES_147],[VICTORY_WORD_WREATH_544],[CELLO_PIC_PLAY_12],[GUITAR_PIC_PLAY_12],[JUMP_WORD_MOVEMENT_52],[PIANO_PIC_PLAY_12,KEPI_PIC_HATS_11],[ESSAY_WORD_ARTICLES_147],[FLUTE_PIC_PLAY_12],[ORGAN_PIC_PLAY_12],[DRUM_PIC_PLAY_12],[KICK_WORD_MOVEMENT_52,BERET_PIC_HATS_11]]</t>
+  </si>
+  <si>
+    <t>[WORD_WREATH_544,WORD_ARTICLES_147,WORD_DRIVING_49,PIC_PLAY_12,WORD_MOVEMENT_52]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_5</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_6_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_7_BOARD_1</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[[TUXEDO_WORD_DATE_87,THRONE_PIC_CHAIR_10],[SUMMER_WORD_SEASONS_18,BEANBAG_PIC_CHAIR_10],[RENOWN_WORD_FAME_161,GLASS_WORD_MATERIAL_27],[ROD_WORD_FISHING_20],[TURBAN_PIC_HATS_11,LIME_WORD_CITRUS_173],[KEPI_PIC_HATS_11,DUSTER_PIC_CLEANING_13],[AUTUMN_WORD_SEASONS_18,SPEEDWAY_WORD_RACING_182],[CAP_PIC_HATS_11,HAMMOCK_WORD_CAMPING_221],[FLAKE_WORD_SNOW_77],[WINTER_WORD_SEASONS_18,TENT_WORD_CAMPING_221],[ICEBERG_WORD_SNOW_77],[BROOM_PIC_CLEANING_13],[HEATER_WORD_DEVICE_38],[VISOR_PIC_HATS_11],[POPULAR_WORD_FAME_161],[SPRING_WORD_SEASONS_18],[BAIT_WORD_FISHING_20],[SOMBRERO_PIC_HATS_11],[HAT_PIC_HATS_11,PANAMA_HAT_PIC_HATS_11],[DRYER_WORD_DEVICE_38],[BERET_PIC_HATS_11],[SLEET_WORD_SNOW_77],[COUPLE_WORD_DATE_87],[FLOWERS_WORD_DATE_87],[BOBBER_WORD_FISHING_20,CUSHION_PIC_CHAIR_10]]</t>
+  </si>
+  <si>
+    <t>[WORD_SEASONS_18,WORD_FISHING_20,WORD_DATE_87,WORD_SNOW_77,PIC_HATS_11]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_6</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_7_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_8_BOARD_1</t>
+  </si>
+  <si>
+    <t>[9,13]</t>
+  </si>
+  <si>
+    <t>[[THRONE_PIC_CHAIR_10],[POMELO_WORD_CITRUS_173,RENOWN_WORD_FAME_161],[KUNG_FU_WORD_COMBAT_121,PATROL_WORD_DEFENSE_277],[RECLINER_PIC_CHAIR_10,PRINTER_WORD_DEVICE_38],[FAX_WORD_DEVICE_38,BEACH_WORD_COAST_969],[PUDDLES_WORD_RAINY_100,PIT_STOP_WORD_RACING_182],[BIN_PIC_CLEANING_13,EMPEROR_WORD_CROWN_194],[GUARD_WORD_DEFENSE_277,KARATE_WORD_COMBAT_121],[CUSHION_PIC_CHAIR_10,SURF_WORD_COAST_969],[GLASS_WORD_MATERIAL_27,SILAT_WORD_COMBAT_121],[STOOL_PIC_CHAIR_10,LUGE_WORD_SLIDING_339],[SHOWERS_WORD_RAINY_100,JEWELRY_WORD_LUXURY_133],[PLASTIC_WORD_MATERIAL_27,SCALES_WORD_JUSTICE_310],[OTTOMAN_PIC_CHAIR_10],[QUEEN_HEARTS_PIC_DECK_4,AIR_BIKE_WORD_GYM_164],[FINISH_WORD_RACING_182],[HEATER_WORD_DEVICE_38],[LIME_WORD_CITRUS_173],[BEANBAG_PIC_CHAIR_10,DRYER_WORD_DEVICE_38],[METAL_WORD_MATERIAL_27],[CLOUDS_WORD_RAINY_100],[LEMON_WORD_CITRUS_173,BROOM_PIC_CLEANING_13],[STONE_WORD_MATERIAL_27],[LOVESEAT_PIC_CHAIR_10],[ARMCHAIR_PIC_CHAIR_10,CLIFF_WORD_COAST_969]]</t>
+  </si>
+  <si>
+    <t>[WORD_RAINY_100,WORD_MATERIAL_27,WORD_CITRUS_173,WORD_DEVICE_38,PIC_CHAIR_10,WORD_COAST_969]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_7</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_8_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_9_BOARD_1</t>
+  </si>
+  <si>
+    <t>[1,12]</t>
+  </si>
+  <si>
+    <t>[[RENOWN_WORD_FAME_161,SPEEDWAY_WORD_RACING_182],[DUSTPAN_PIC_CLEANING_13,PATROL_WORD_DEFENSE_277],[BROOM_PIC_CLEANING_13],[DUSTER_PIC_CLEANING_13,GUARD_WORD_DEFENSE_277],[SPONGE_PIC_CLEANING_13,FINISH_WORD_RACING_182],[FAMOUS_WORD_FAME_161,SUMO_WORD_COMBAT_121],[BIN_PIC_CLEANING_13,JUDO_WORD_COMBAT_121],[SNOWY_OWL_WORD_ARCTIC_180,KUNG_FU_WORD_COMBAT_121],[CAMPFIRE_WORD_CAMPING_221,PIT_STOP_WORD_RACING_182],[MOP_PIC_CLEANING_13,SAVATE_WORD_COMBAT_121],[KING_WORD_CROWN_194,KARATE_WORD_COMBAT_121],[KEROSENE_WORD_FUELS_190,SLEDDING_WORD_SLIDING_339],[EMPEROR_WORD_CROWN_194,SECURITY_WORD_DEFENSE_277],[POPULAR_WORD_FAME_161,SKATING_WORD_SLIDING_339],[SNUG_WORD_COZY_58,SKELETON_WORD_SLIDING_339],[ARIES_PIC_ZODIAC_5,LAW_WORD_JUSTICE_310],[TENT_WORD_CAMPING_221,CCTV_WORD_DEFENSE_277],[ICONIC_WORD_FAME_161,COURT_WORD_JUSTICE_310],[VACUUM_PIC_CLEANING_13,DUMBBELL_WORD_GYM_164],[BARBELL_WORD_GYM_164,AIR_BIKE_WORD_GYM_164],[MAHARAJA_WORD_CROWN_194],[BUCKET_PIC_CLEANING_13,GASOLINE_WORD_FUELS_190],[WALRUS_WORD_ARCTIC_180,YOGURT_WORD_DAIRY_30],[HAMMOCK_WORD_CAMPING_221],[COAL_WORD_FUELS_190]]</t>
+  </si>
+  <si>
+    <t>[WORD_CAMPING_221,WORD_FAME_161,PIC_CLEANING_13,WORD_CROWN_194,WORD_DEFENSE_277,WORD_RACING_182]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_8</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_9_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_10_BOARD_1</t>
+  </si>
+  <si>
+    <t>[5,7]</t>
+  </si>
+  <si>
+    <t>[[UNION_WORD_UNITE_126,GASOLINE_WORD_FUELS_190],[SKIING_WORD_SLIDING_339,KUNG_FU_WORD_COMBAT_121],[YACHT_WORD_LUXURY_133,DIESEL_WORD_FUELS_190],[GEMINI_PIC_ZODIAC_5,REINDEER_WORD_ARCTIC_180],[ACE_OF_HEARTS_PIC_DECK_4,SNOWY_OWL_WORD_ARCTIC_180],[QUEEN_HEARTS_PIC_DECK_4,WALRUS_WORD_ARCTIC_180],[JEWELRY_WORD_LUXURY_133,JUDO_WORD_COMBAT_121],[BARBELL_WORD_GYM_164,BIKE_WORD_STREET_768],[CORNER_WORD_STREET_768,ARIES_PIC_ZODIAC_5],[DUMBBELL_WORD_GYM_164,FABLE_WORD_LEGENDS_291],[EPIC_WORD_LEGENDS_291,SAGA_WORD_LEGENDS_291],[AIR_BIKE_WORD_GYM_164,LAW_WORD_JUSTICE_310],[DRIVER_WORD_STREET_768,ADHESIVE_TAPE_PIC_TOOLBOX_6],[SAVATE_WORD_COMBAT_121,DRILL_PIC_TOOLBOX_6],[SILAT_WORD_COMBAT_121,MISLEAD_WORD_LIE_492],[KARATE_WORD_COMBAT_121,FALSIFY_WORD_LIE_492],[WARM_WORD_COZY_58,SLEDDING_WORD_SLIDING_339],[SNUG_WORD_COZY_58,ALLIANCE_WORD_UNITE_126],[CAVIAR_WORD_LUXURY_133,POTATO_PIC_VEGGIE_8],[POLAR_BEAR_WORD_ARCTIC_180,CABBAGE_PIC_VEGGIE_8],[KING_HEARTS_PIC_DECK_4,LUGE_WORD_SLIDING_339],[WATCH_WORD_LUXURY_133,GAVEL_WORD_JUSTICE_310],[SUMO_WORD_COMBAT_121,COURT_WORD_JUSTICE_310],[COMFY_WORD_COZY_58,SCALES_WORD_JUSTICE_310],[SKATING_WORD_SLIDING_339,SKELETON_WORD_SLIDING_339]]</t>
+  </si>
+  <si>
+    <t>[WORD_GYM_164,WORD_COZY_58,WORD_COMBAT_121,WORD_LUXURY_133,PIC_DECK_4,WORD_SLIDING_339,WORD_JUSTICE_310]</t>
   </si>
   <si>
     <t>DECK_CLEAN_COMMON</t>
   </si>
   <si>
-    <t>level_time</t>
-  </si>
-  <si>
-    <t>deduct_time</t>
-  </si>
-  <si>
-    <t>本关限定时间</t>
-  </si>
-  <si>
-    <t>非法操作扣除时间</t>
-  </si>
-  <si>
-    <t>sort_game_level_9_board_1</t>
-  </si>
-  <si>
-    <t>TASK_FIX_FLOOR_SCREEN</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[[Bear_Animals,Chair_Furniture_1],[Fries_Food],[Burger_Food,Star_Icons,Jack_o_lantern_Halloween],[Sailboat_Aquatics,Candy_bucket_Halloween],[Lily_Flowers_1,Cross_Icons],[Wardrobe_Furniture_1,Envelope_icon_Icons],[Parrot_Pets],[Rose_Flowers_1],[Diving_mask_Aquatics,Life_jacket_Aquatics],[Wetsuit_Aquatics,Witch_hat_Halloween],[Peony_Flowers_1],[Cat_Pets,Ghost_Halloween],[Sheep_Animals,Goat_Animals,Black_cat_Halloween],[Hot_dog_Food,Paddleboard_Aquatics],[Pig_Animals],[Pizza_Food,Horse_Animals],[Bed_Furniture_1,Spider_web_Halloween],[Hamster_Pets,Kayak_Aquatics],[Tulip_Flowers_1,Skeleton_Halloween],[Life_ring_Aquatics],[Dog_Pets],[Sofa_Furniture_1],[Table_Furniture_1],[Surfboard_Aquatics],[Monkey_Animals,Bat_Halloween]]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_8</t>
+    <t>TID_SORT_GAME_LEVEL_DEFAULT_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_11_BOARD_1</t>
+  </si>
+  <si>
+    <t>[[FRACTURE_WORD_INJURIES_249,DRILL_PIC_TOOLBOX_6],[SNOWY_OWL_WORD_ARCTIC_180,ADHESIVE_TAPE_PIC_TOOLBOX_6],[POLAR_BEAR_WORD_ARCTIC_180,MISLEAD_WORD_LIE_492],[ARIES_PIC_ZODIAC_5],[BIKE_WORD_STREET_768,LEAGUE_WORD_UNITE_126],[YOGA_WORD_FITNESS_110,UNION_WORD_UNITE_126],[CORNER_WORD_STREET_768,CABBAGE_PIC_VEGGIE_8],[OXFORDS_PIC_SHOES_14,HUBCAP_WORD_WHEEL_890],[BRICK_WORD_STREET_768],[BUTTER_WORD_DAIRY_30,STEER_WORD_WHEEL_890],[YOGURT_WORD_DAIRY_30,FORTUNE_WORD_WHEEL_890],[KEROSENE_WORD_FUELS_190,DIWALI_WORD_FESTIVAL_270],[TALE_WORD_LEGENDS_291],[GASOLINE_WORD_FUELS_190],[SEXTANT_WORD_NAVIGATE_230],[COAL_WORD_FUELS_190,FABLE_WORD_LEGENDS_291],[DRIVER_WORD_STREET_768],[DIESEL_WORD_FUELS_190],[PROPANE_WORD_FUELS_190,REINDEER_WORD_ARCTIC_180],[GEMINI_PIC_ZODIAC_5],[EPIC_WORD_LEGENDS_291],[TIRE_WORD_WHEEL_890],[SPRAIN_WORD_INJURIES_249],[TAURUS_PIC_ZODIAC_5,WALRUS_WORD_ARCTIC_180],[CREAM_WORD_DAIRY_30]]</t>
+  </si>
+  <si>
+    <t>[WORD_DAIRY_30,WORD_STREET_768,WORD_FUELS_190,PIC_ZODIAC_5,WORD_ARCTIC_180]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_12_BOARD_1</t>
+  </si>
+  <si>
+    <t>[8,9]</t>
+  </si>
+  <si>
+    <t>[[SPRAIN_WORD_INJURIES_249,GYM_WORD_FITNESS_110],[YOSEMITE_WORD_WATER_152,WORKOUT_WORD_FITNESS_110],[TALE_WORD_LEGENDS_291,UNION_WORD_UNITE_126],[ADHESIVE_TAPE_PIC_TOOLBOX_6,BROCCOLI_PIC_VEGGIE_8],[BOOTS_PIC_SHOES_14,HUBCAP_WORD_WHEEL_890],[EPIC_WORD_LEGENDS_291,AXLE_WORD_WHEEL_890],[VICTORIA_WORD_WATER_152,WOUND_WORD_INJURIES_249],[DELUDE_WORD_LIE_492],[FABLE_WORD_LEGENDS_291],[HAVASU_WORD_WATER_152,BRUISE_WORD_INJURIES_249],[INDIA_PIC_MAP_15,PERSEUS_WORD_PATTERN_188],[YOGA_WORD_FITNESS_110,TULIP_WORD_FLOWERS_4],[COMPASS_WORD_NAVIGATE_230,LEAGUE_WORD_UNITE_126],[FALSIFY_WORD_LIE_492],[OXFORDS_PIC_SHOES_14,LILY_WORD_FLOWERS_4],[SEXTANT_WORD_NAVIGATE_230,PURSUIT_WORD_QUEST_680],[WRENCH_PIC_TOOLBOX_6,INQUIRY_WORD_QUEST_680],[PLIERS_PIC_TOOLBOX_6],[MISLEAD_WORD_LIE_492,CABBAGE_PIC_VEGGIE_8],[MYTH_WORD_LEGENDS_291],[DECEIVE_WORD_LIE_492],[SAGA_WORD_LEGENDS_291],[DRILL_PIC_TOOLBOX_6,POTATO_PIC_VEGGIE_8],[SIGNPOST_WORD_NAVIGATE_230,ALLIANCE_WORD_UNITE_126],[PILATES_WORD_FITNESS_110]]</t>
+  </si>
+  <si>
+    <t>[WORD_NAVIGATE_230,WORD_LIE_492,PIC_TOOLBOX_6,WORD_LEGENDS_291,PIC_VEGGIE_8,WORD_UNITE_126]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_13_BOARD_1</t>
+  </si>
+  <si>
+    <t>[6,8]</t>
+  </si>
+  <si>
+    <t>[[ITALY_PIC_MAP_15],[HARLEM_WORD_NEW_YORK_287,HAMMER_WORD_AUCTION_215],[BRUISE_WORD_INJURIES_249,CARDIO_WORD_FITNESS_110],[YOSEMITE_WORD_WATER_152,DRACO_WORD_PATTERN_188],[MUSSEL_PIC_SEAFOOD_17,SCORPIUS_WORD_PATTERN_188],[WOUND_WORD_INJURIES_249,STEER_WORD_WHEEL_890],[INDIA_PIC_MAP_15,TULIP_WORD_FLOWERS_4],[AUSTRALIA_PIC_MAP_15,AXLE_WORD_WHEEL_890],[SERPENS_WORD_PATTERN_188,LILY_WORD_FLOWERS_4],[STATE_WORD_DIVISION_242,PILOT_WORD_JOBS_42],[FRACTURE_WORD_INJURIES_249,DIWALI_WORD_FESTIVAL_270],[YOGA_WORD_FITNESS_110,PLUMBER_WORD_JOBS_42],[SPRAIN_WORD_INJURIES_249,FLATS_PIC_SHOES_14],[PRICE_WORD_AUCTION_215,QUEENS_WORD_NEW_YORK_287],[HOLI_WORD_FESTIVAL_270,SOHO_WORD_NEW_YORK_287],[GYM_WORD_FITNESS_110,OXFORDS_PIC_SHOES_14],[VICTORIA_WORD_WATER_152,TERRIER_PIC_DOGS_18],[JOGGING_WORD_FITNESS_110,HEELS_PIC_SHOES_14],[PILATES_WORD_FITNESS_110,CITY_WORD_DIVISION_242],[SONGKRAN_WORD_FESTIVAL_270,COUNTRY_WORD_DIVISION_242],[FORTUNE_WORD_WHEEL_890],[ASTORIA_WORD_NEW_YORK_287,PREACHER_WORD_PRIEST_1019],[HUBCAP_WORD_WHEEL_890,BOOTS_PIC_SHOES_14],[TIRE_WORD_WHEEL_890,CACTUS_WORD_SPIKY_78],[WORKOUT_WORD_FITNESS_110]]</t>
+  </si>
+  <si>
+    <t>[WORD_FITNESS_110,PIC_MAP_15,WORD_WHEEL_890,WORD_INJURIES_249,WORD_FESTIVAL_270,PIC_SHOES_14]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_14_BOARD_1</t>
+  </si>
+  <si>
+    <t>[1,10]</t>
+  </si>
+  <si>
+    <t>[[ROSE_WORD_FLOWERS_4,BIDDER_WORD_AUCTION_215],[MUSSEL_PIC_SEAFOOD_17,CATALOG_WORD_AUCTION_215],[TULIP_WORD_FLOWERS_4,PURSUIT_WORD_QUEST_680],[PERSEUS_WORD_PATTERN_188,HAMMER_WORD_AUCTION_215],[BID_WORD_AUCTION_215,LOBSTER_PIC_SEAFOOD_17],[HAVASU_WORD_WATER_152,WELDER_WORD_JOBS_42,PILOT_WORD_JOBS_42],[PEONY_WORD_FLOWERS_4,PLUMBER_WORD_JOBS_42,ENGINEER_WORD_JOBS_42],[SCORPIUS_WORD_PATTERN_188,SOHO_WORD_NEW_YORK_287,BRONX_WORD_NEW_YORK_287],[DOCTOR_WORD_JOBS_42,SPANIEL_PIC_DOGS_18,HUSKY_PIC_DOGS_18],[YOSEMITE_WORD_WATER_152,PRICE_WORD_AUCTION_215],[VICTORIA_WORD_WATER_152,POODLE_PIC_DOGS_18],[TERRIER_PIC_DOGS_18,STATE_WORD_DIVISION_242],[NURSE_WORD_JOBS_42,MULBERRY_WORD_BERRY_116],[COMEDY_WORD_CINEMA_6,DURIAN_WORD_SPIKY_78],[LILY_WORD_FLOWERS_4,EAGLE_PIC_BIRD_16],[ACTOR_WORD_JOBS_42,CACTUS_WORD_SPIKY_78],[INQUIRY_WORD_QUEST_680,WESTERN_WORD_CINEMA_6],[SERPENS_WORD_PATTERN_188,CARAVEL_WORD_SHIP_62],[DRACO_WORD_PATTERN_188,ABS_WORD_MUSCLES_112],[ORION_WORD_PATTERN_188,LOT_WORD_AUCTION_215],[HORROR_WORD_CINEMA_6,MANTRA_WORD_MEDITATE_160],[CYGNUS_WORD_PATTERN_188,PEACE_WORD_MEDITATE_160],[NIAGARA_WORD_WATER_152,COMMUNE_WORD_HIPPIE_349],[OYSTER_PIC_SEAFOOD_17,RUNWAY_WORD_AIRPORT_29],[HUNT_WORD_QUEST_680,SWAN_PIC_BIRD_16,DOVE_PIC_BIRD_16]]</t>
+  </si>
+  <si>
+    <t>[WORD_FLOWERS_4,WORD_AUCTION_215,WORD_QUEST_680,WORD_PATTERN_188,WORD_WATER_152,PIC_SEAFOOD_17,PIC_BIRD_16]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_15_BOARD_1</t>
+  </si>
+  <si>
+    <t>[8,11]</t>
+  </si>
+  <si>
+    <t>[[ENGINEER_WORD_JOBS_42,DOCTOR_WORD_JOBS_42,CITY_WORD_DIVISION_242],[SPANIEL_PIC_DOGS_18,HORROR_WORD_CINEMA_6,COMEDY_WORD_CINEMA_6],[BIBLE_WORD_PRIEST_1019,ASTORIA_WORD_NEW_YORK_287],[BARBERRY_WORD_BERRY_116,DRAMA_WORD_CINEMA_6,GALLEON_WORD_SHIP_62],[POPCORN_WORD_CINEMA_6,TANKER_WORD_SHIP_62,TUGBOAT_WORD_SHIP_62],[CACTUS_WORD_SPIKY_78,BICEPS_WORD_MUSCLES_112,ABS_WORD_MUSCLES_112],[SOHO_WORD_NEW_YORK_287,STATE_WORD_DIVISION_242,MAILMAN_WORD_JOBS_42],[POODLE_PIC_DOGS_18,QUEENS_WORD_NEW_YORK_287],[MULBERRY_WORD_BERRY_116,TRICEPS_WORD_MUSCLES_112,MANTRA_WORD_MEDITATE_160],[SAINT_WORD_PRIEST_1019,PEACE_WORD_MEDITATE_160,FREEDOM_WORD_HIPPIE_349],[VANS_WORD_HIPPIE_349,FRIES_PIC_EATS_19,SCHOOL_BUILDING_PIC_BUILD_20],[TERRIER_PIC_DOGS_18,FACTORY_PIC_BUILD_20,CLOGS_WORD_FOOTWEAR_46],[HARLEM_WORD_NEW_YORK_287,REGION_WORD_DIVISION_242],[TERMINAL_WORD_AIRPORT_29,LOAFERS_WORD_FOOTWEAR_46],[BRONX_WORD_NEW_YORK_287,BIG_BEN_WORD_LANDMARK_948],[BEAGLE_PIC_DOGS_18,PYRAMIDS_WORD_LANDMARK_948],[PREACHER_WORD_PRIEST_1019,ROOK_WORD_CHESS_17],[DURIAN_WORD_SPIKY_78,ACTOR_WORD_JOBS_42],[COUNTRY_WORD_DIVISION_242,NURSE_WORD_JOBS_42,TRIBECA_WORD_NEW_YORK_287],[SLIPPERS_WORD_FOOTWEAR_46,LOZENGES_WORD_PILLS_99],[BILBERRY_WORD_BERRY_116,MAGELLAN_WORD_EXPLORER_51],[HUSKY_PIC_DOGS_18,VESPUCCI_WORD_EXPLORER_51],[CLERIC_WORD_PRIEST_1019,PILOT_WORD_JOBS_42],[MUSEUM_PIC_BUILD_20,GOBLIN_PIC_FOLKLORE_21],[HEDGEHOG_WORD_SPIKY_78,WELDER_WORD_JOBS_42,PLUMBER_WORD_JOBS_42]]</t>
+  </si>
+  <si>
+    <t>[WORD_NEW_YORK_287,WORD_JOBS_42,WORD_DIVISION_242,WORD_PRIEST_1019,PIC_DOGS_18,WORD_SPIKY_78,WORD_BERRY_116]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_16_BOARD_1</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[[BICEPS_WORD_MUSCLES_112,TUGBOAT_WORD_SHIP_62],[ZEN_WORD_MEDITATE_160,LIBRARY_PIC_BUILD_20],[TACO_PIC_EATS_19,MALL_PIC_BUILD_20],[TICKET_WORD_CINEMA_6,STADIUM_PIC_BUILD_20],[CARAVEL_WORD_SHIP_62,BRIG_WORD_SHIP_62],[MANTRA_WORD_MEDITATE_160,MUSEUM_PIC_BUILD_20],[FRIES_PIC_EATS_19,SANDALS_WORD_FOOTWEAR_46],[FREEDOM_WORD_HIPPIE_349,SLIPPERS_WORD_FOOTWEAR_46],[ABS_WORD_MUSCLES_112,UGGS_WORD_FOOTWEAR_46],[FRIGATE_WORD_SHIP_62,LOAFERS_WORD_FOOTWEAR_46],[TRICEPS_WORD_MUSCLES_112,SPHINX_WORD_LANDMARK_948],[COMMUNE_WORD_HIPPIE_349,CAPSULES_WORD_PILLS_99],[VANS_WORD_HIPPIE_349,CRETE_WORD_ISLANDS_21],[BREATH_WORD_MEDITATE_160,HAWAII_WORD_ISLANDS_21],[DELTOIDS_WORD_MUSCLES_112,PIER_WORD_HARBOR_764],[TERMINAL_WORD_AIRPORT_29,WORM_WORD_NO_BONES_289],[POPCORN_WORD_CINEMA_6,BARNACLE_WORD_NO_BONES_289],[WESTERN_WORD_CINEMA_6,APRICOT_PIC_DRUPES_22],[PEACE_WORD_MEDITATE_160,BLANKET_PIC_PICNIC_23],[DRAMA_WORD_CINEMA_6,BASKET_PIC_PICNIC_23],[GATE_WORD_AIRPORT_29,PIZZA_PIC_EATS_19],[RUNWAY_WORD_AIRPORT_29,TUTU_WORD_BALLET_125],[COMEDY_WORD_CINEMA_6,FLOOD_WORD_DISASTER_148],[HORROR_WORD_CINEMA_6,TORNADO_WORD_DISASTER_148],[TANKER_WORD_SHIP_62,GALLEON_WORD_SHIP_62]]</t>
+  </si>
+  <si>
+    <t>[WORD_MEDITATE_160,WORD_CINEMA_6,WORD_AIRPORT_29,WORD_MUSCLES_112,WORD_SHIP_62,PIC_EATS_19,WORD_HIPPIE_349]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_17_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,10]</t>
+  </si>
+  <si>
+    <t>[[LIBRARY_PIC_BUILD_20,CRETE_WORD_ISLANDS_21,HAWAII_WORD_ISLANDS_21],[CAPSULES_WORD_PILLS_99,BAY_WORD_HARBOR_764,VESSEL_WORD_HARBOR_764],[BISHOP_WORD_CHESS_17,SPIDER_WORD_NO_BONES_289,APRICOT_PIC_DRUPES_22],[VESPUCCI_WORD_EXPLORER_51,BLANKET_PIC_PICNIC_23,BARRE_WORD_BALLET_125],[TROLL_PIC_FOLKLORE_21,BIG_BEN_WORD_LANDMARK_948],[FACTORY_PIC_BUILD_20,LINCOLN_WORD_LEADER_196],[ROOK_WORD_CHESS_17,KENNEDY_WORD_LEADER_196],[QUEEN_WORD_CHESS_17,OBAMA_WORD_LEADER_196],[STADIUM_PIC_BUILD_20,BIDEN_WORD_LEADER_196],[PAWN_WORD_CHESS_17,LOAFERS_WORD_FOOTWEAR_46],[LOZENGES_WORD_PILLS_99,COLOSSEUM_WORD_LANDMARK_948],[SCHOOL_BUILDING_PIC_BUILD_20,UGGS_WORD_FOOTWEAR_46,SANDALS_WORD_FOOTWEAR_46],[OGRE_PIC_FOLKLORE_21,CLOGS_WORD_FOOTWEAR_46],[MUSEUM_PIC_BUILD_20,PYRAMIDS_WORD_LANDMARK_948],[HOSPITAL_PIC_BUILD_20,SPHINX_WORD_LANDMARK_948],[COLUMBUS_WORD_EXPLORER_51,PALETTE_WORD_MAKEUP_120],[CAKE_PIC_PASTRY_24,SERUM_WORD_MAKEUP_120],[MALL_PIC_BUILD_20,SAMURAI_WORD_WARRIORS_491],[HOTEL_PIC_BUILD_20,PAELLA_WORD_RICE_342],[TABLETS_WORD_PILLS_99,SNEAKERS_WORD_FOOTWEAR_46],[MAGELLAN_WORD_EXPLORER_51,CONGEE_WORD_RICE_342],[SANDWICH_PIC_PICNIC_23,BUST_WORD_SCULPT_64],[PIER_WORD_HARBOR_764,THESIS_WORD_PHD_296],[RISOTTO_WORD_RICE_342,DEGREE_WORD_PHD_296],[GOBLIN_PIC_FOLKLORE_21,SLIPPERS_WORD_FOOTWEAR_46]]</t>
+  </si>
+  <si>
+    <t>[WORD_PILLS_99,WORD_EXPLORER_51,PIC_FOLKLORE_21,PIC_BUILD_20,WORD_CHESS_17,WORD_LANDMARK_948,WORD_FOOTWEAR_46]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_18_BOARD_1</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[[POINTE_WORD_BALLET_125,COAST_WORD_HARBOR_764],[BAY_WORD_HARBOR_764,PIER_WORD_HARBOR_764],[SICILY_WORD_ISLANDS_21,BARNACLE_WORD_NO_BONES_289],[TSUNAMI_WORD_DISASTER_148,SQUID_WORD_NO_BONES_289,APRICOT_PIC_DRUPES_22],[ICELAND_WORD_ISLANDS_21,SPIDER_WORD_NO_BONES_289],[VESSEL_WORD_HARBOR_764,SANDWICH_PIC_PICNIC_23,PEACH_PIC_DRUPES_22],[TORNADO_WORD_DISASTER_148,WHARF_WORD_HARBOR_764],[JAMAICA_WORD_ISLANDS_21,PLUM_PIC_DRUPES_22,BLANKET_PIC_PICNIC_23],[BARBADOS_WORD_ISLANDS_21,BASKET_PIC_PICNIC_23],[CRETE_WORD_ISLANDS_21,CHERRY_PIC_DRUPES_22,ANTS_PIC_PICNIC_23],[TUNA_WORD_FISH_31,LINCOLN_WORD_LEADER_196,BLUSH_WORD_MAKEUP_120],[MARINA_WORD_HARBOR_764,POWDER_WORD_MAKEUP_120,PALETTE_WORD_MAKEUP_120],[TUTU_WORD_BALLET_125,SHINOBI_WORD_WARRIORS_491,ASSASSIN_WORD_WARRIORS_491],[SUEDE_WORD_LEATHER_480,NINJA_WORD_WARRIORS_491,RISOTTO_WORD_RICE_342],[DEGREE_WORD_PHD_296,MONUMENT_WORD_SCULPT_64,STATUE_WORD_SCULPT_64],[BALI_WORD_ISLANDS_21,PIE_PIC_PASTRY_24,BUGLE_PIC_WIND_25],[FLOOD_WORD_DISASTER_148,PAPER_BAG_PIC_MALL_26,FITTING_ROOM_PIC_MALL_26],[IBIZA_WORD_ISLANDS_21,JANITOR_PIC_MALL_26,CASH_PIC_MALL_26],[CORTEX_WORD_BRAIN_106,MARLIN_WORD_FISH_31],[HAWAII_WORD_ISLANDS_21,GROUPER_WORD_FISH_31],[GOLDFISH_WORD_FISH_31,NUTRIA_WORD_RODENTS_141],[WORM_WORD_NO_BONES_289,VIOLA_PIC_STRINGS_27],[BARRE_WORD_BALLET_125,CELLO_PIC_STRINGS_27],[GYRUS_WORD_BRAIN_106,SMOG_WORD_FOG_76],[STARFISH_WORD_NO_BONES_289,COWHIDE_WORD_LEATHER_480]]</t>
+  </si>
+  <si>
+    <t>[WORD_DISASTER_148,WORD_HARBOR_764,WORD_ISLANDS_21,WORD_BALLET_125,WORD_NO_BONES_289,PIC_DRUPES_22,PIC_PICNIC_23]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_19_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,11]</t>
+  </si>
+  <si>
+    <t>[[DEGREE_WORD_PHD_296,REAGAN_WORD_LEADER_196],[SERUM_WORD_MAKEUP_120,PAPER_BAG_PIC_MALL_26,PHARMACY_PIC_MALL_26],[THESIS_WORD_PHD_296,JANITOR_PIC_MALL_26,BOOKSTORE_PIC_MALL_26],[PROFITEROLE_PIC_PASTRY_24,SARDINE_WORD_FISH_31,PERCH_WORD_FISH_31],[PALETTE_WORD_MAKEUP_120,EEL_WORD_FISH_31,BEAVER_WORD_RODENTS_141],[RESEARCH_WORD_PHD_296,NUTRIA_WORD_RODENTS_141,RAT_WORD_RODENTS_141],[SUSHI_WORD_RICE_342,BIDEN_WORD_LEADER_196,CLINTON_WORD_LEADER_196],[CELLO_WORD_PLAY_223,VIOLIN_PIC_STRINGS_27,GUITAR_PIC_STRINGS_27],[BLUSH_WORD_MAKEUP_120,SMOG_WORD_FOG_76,VAPOR_WORD_FOG_76],[SPONGE_WORD_MAKEUP_120,GYRUS_WORD_BRAIN_106,MELODY_WORD_SYMPHONY_210],[LINCOLN_WORD_LEADER_196,OBAMA_WORD_LEADER_196,FLUTE_PIC_WIND_25],[KENNEDY_WORD_LEADER_196,CAKE_PIC_PASTRY_24],[MONUMENT_WORD_SCULPT_64,ASSASSIN_WORD_WARRIORS_491,NINJA_WORD_WARRIORS_491],[BUST_WORD_SCULPT_64,SAMURAI_WORD_WARRIORS_491],[STATUE_WORD_SCULPT_64,BUSH_WORD_LEADER_196,TUBA_PIC_WIND_25],[SECURITY_PIC_MALL_26,VIOLIN_WORD_PLAY_223,EARRING_PIC_JEWELRY_28],[HAZE_WORD_FOG_76,ANKLET_PIC_JEWELRY_28,LOCKET_PIC_JEWELRY_28],[PAELLA_WORD_RICE_342,FRESCO_WORD_PAINTING_340,CAMPAIGN_WORD_ELECT_193],[PEEL_WORD_MAKEUP_120,BUGLE_PIC_WIND_25,RONIN_WORD_WARRIORS_491],[LOBE_WORD_BRAIN_106,VOTER_WORD_ELECT_193],[PIE_PIC_PASTRY_24,PHARAOH_WORD_EGYPT_114],[POWDER_WORD_MAKEUP_120,PAPYRUS_WORD_EGYPT_114],[CONGEE_WORD_RICE_342,SATIRE_WORD_MEMES_620],[RISOTTO_WORD_RICE_342,AIRPLANE_WORD_AIRCRAFT_174],[FIGURINE_WORD_SCULPT_64,ADAMS_WORD_LEADER_196,SHINOBI_WORD_WARRIORS_491]]</t>
+  </si>
+  <si>
+    <t>[WORD_SCULPT_64,WORD_RICE_342,WORD_PHD_296,WORD_LEADER_196,WORD_MAKEUP_120,PIC_PASTRY_24,PIC_WIND_25,WORD_WARRIORS_491]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_20_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,4,12]</t>
+  </si>
+  <si>
+    <t>[[GUITAR_PIC_STRINGS_27,GUITAR_WORD_PLAY_223,ORGAN_WORD_PLAY_223],[ALLIGATOR_PIC_REPTILES_30,UKULELE_WORD_PLAY_223,LOCKET_PIC_JEWELRY_28],[MACHINE_WORD_ROBOT_354,GOUACHE_WORD_PAINTING_340,TEMPERA_WORD_PAINTING_340],[ALTO_WORD_VOICES_439,FRESCO_WORD_PAINTING_340,VOTER_WORD_ELECT_193],[MELODY_WORD_SYMPHONY_210,NUBUCK_WORD_LEATHER_480,CORTEX_WORD_BRAIN_106],[GOLDFISH_WORD_FISH_31,GROUPER_WORD_FISH_31,PAPER_BAG_PIC_MALL_26],[HARMONY_WORD_SYMPHONY_210,MARLIN_WORD_FISH_31,BOOKSTORE_PIC_MALL_26],[VIOLIN_PIC_STRINGS_27,PHARMACY_PIC_MALL_26,SQUIRREL_WORD_RODENTS_141],[CELLO_PIC_STRINGS_27,COWHIDE_WORD_LEATHER_480,CAPYBARA_WORD_RODENTS_141],[HAZE_WORD_FOG_76,MARMOT_WORD_RODENTS_141,NUTRIA_WORD_RODENTS_141],[CYBORG_WORD_ROBOT_354,CAMPAIGN_WORD_ELECT_193,PYRAMID_WORD_EGYPT_114],[VAPOR_WORD_FOG_76,SCARAB_WORD_EGYPT_114,PHARAOH_WORD_EGYPT_114],[OVERTURE_WORD_SYMPHONY_210,TUNA_WORD_FISH_31,CASH_PIC_MALL_26],[LIZARD_PIC_REPTILES_30,CYPRUS_WORD_MAP_32,FRANCE_WORD_MAP_32],[BASS_WORD_VOICES_439,ROBOVAC_WORD_ROBOT_354,BARITONE_WORD_VOICES_439],[SMOG_WORD_FOG_76,SARDINE_WORD_FISH_31],[PERCH_WORD_FISH_31,RAT_WORD_RODENTS_141,BEAVER_WORD_RODENTS_141],[MACKEREL_WORD_FISH_31,GYRUS_WORD_BRAIN_106,CREDIT_CARD_PIC_MALL_26],[MIST_WORD_FOG_76,SECURITY_PIC_MALL_26,JANITOR_PIC_MALL_26],[SUEDE_WORD_LEATHER_480,VIOLA_PIC_STRINGS_27,FITTING_ROOM_PIC_MALL_26],[EEL_WORD_FISH_31,LOBE_WORD_BRAIN_106],[JAPAN_WORD_MAP_32,SOPRANO_WORD_VOICES_439,ROME_WORD_ITALY_376],[JETLINER_WORD_AIRCRAFT_174,MILAN_WORD_ITALY_376,LILY_PIC_FLOWERS_29],[DRUM_WORD_PLAY_223,DAISY_PIC_FLOWERS_29,SIGMA_WORD_GREECE_359],[FLORENCE_WORD_ITALY_376,SNAKE_PIC_REPTILES_30]]</t>
+  </si>
+  <si>
+    <t>[WORD_FOG_76,WORD_SYMPHONY_210,WORD_FISH_31,WORD_LEATHER_480,PIC_STRINGS_27,WORD_BRAIN_106,WORD_RODENTS_141,PIC_MALL_26]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_21_BOARD_1</t>
+  </si>
+  <si>
+    <t>[9,12]</t>
+  </si>
+  <si>
+    <t>[[GUITAR_WORD_PLAY_223,FRANCE_WORD_MAP_32,INDIA_WORD_MAP_32],[JETLINER_WORD_AIRCRAFT_174,CYBORG_WORD_ROBOT_354,ALTO_WORD_VOICES_439],[MOTH_PIC_INSECTS_32,BASS_WORD_VOICES_439,TENOR_WORD_VOICES_439],[FLUTE_WORD_PLAY_223,PHARAOH_WORD_EGYPT_114,ORGAN_WORD_PLAY_223],[SCARAB_WORD_EGYPT_114,PAPYRUS_WORD_EGYPT_114,UKULELE_WORD_PLAY_223],[HUDSON_WORD_RIVERS_959,MILAN_WORD_ITALY_376,ROME_WORD_ITALY_376],[ACRYLIC_WORD_PAINTING_340,SCORE_WORD_GAMER_36,STRATEGY_WORD_GAMER_36],[AMAZON_WORD_RIVERS_959,SHOOTER_WORD_GAMER_36,SIGMA_WORD_GREECE_359],[BRACELET_PIC_JEWELRY_28,DIAMOND_RING_PIC_JEWELRY_28],[BARITONE_WORD_VOICES_439,DELTA_WORD_GREECE_359,KAPPA_WORD_GREECE_359],[CAMPAIGN_WORD_ELECT_193,SURFING_WORD_COASTAL_882,BREEZE_WORD_COASTAL_882],[ANKLET_PIC_JEWELRY_28,SAND_WORD_COASTAL_882,WASP_WORD_INSECTS_25],[VOTER_WORD_ELECT_193,EARRING_PIC_JEWELRY_28,PIANO_WORD_PLAY_223],[SATIRE_WORD_MEMES_620,CELLO_WORD_PLAY_223],[PYRAMID_WORD_EGYPT_114,MOSQUITO_WORD_INSECTS_25,ONTARIO_WORD_LAKES_365],[DAISY_PIC_FLOWERS_29,GOAL_WORD_HOCKEY_86],[TROLLING_WORD_MEMES_620,OIL_WORD_PAINTING_340,TEMPERA_WORD_PAINTING_340],[GLIDER_WORD_AIRCRAFT_174,PENALTY_WORD_HOCKEY_86],[VIOLIN_WORD_PLAY_223,NECKLACE_PIC_JEWELRY_28],[TURNOUT_WORD_ELECT_193,RIFFS_WORD_GUITAR_122],[PARODY_WORD_MEMES_620,FRESCO_WORD_PAINTING_340,GOUACHE_WORD_PAINTING_340],[BALLOT_WORD_ELECT_193,PICKUPS_WORD_GUITAR_122],[LOCKET_PIC_JEWELRY_28,DIAMOND_PIC_GEMSTONE_31],[AIRPLANE_WORD_AIRCRAFT_174,DRUM_WORD_PLAY_223],[JETTY_WORD_COASTAL_882,LADYBUG_PIC_INSECTS_32]]</t>
+  </si>
+  <si>
+    <t>[WORD_MEMES_620,PIC_JEWELRY_28,WORD_AIRCRAFT_174,WORD_ELECT_193,WORD_EGYPT_114,WORD_PLAY_223,WORD_PAINTING_340]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_22_BOARD_1</t>
+  </si>
+  <si>
+    <t>[5,11]</t>
+  </si>
+  <si>
+    <t>[[MACHINE_WORD_ROBOT_354,DRONE_WORD_ROBOT_354,TENOR_WORD_VOICES_439],[NUTRIA_PIC_RODENTS_33,SHINGLE_WORD_COASTAL_882,CREST_WORD_COASTAL_882],[INDIA_WORD_MAP_32,SAND_WORD_COASTAL_882,BREEZE_WORD_COASTAL_882],[STRINGS_WORD_GUITAR_122,DRAGONFLY_WORD_INSECTS_25,TITICACA_WORD_LAKES_365],[ITALY_WORD_MAP_32,HURON_WORD_LAKES_365,ONTARIO_WORD_LAKES_365],[UK_WORD_MAP_32,GOAL_WORD_HOCKEY_86,PENALTY_WORD_HOCKEY_86],[CYBORG_WORD_ROBOT_354,FRANCE_WORD_MAP_32,SCORE_WORD_GAMER_36],[LIZARD_PIC_REPTILES_30,RIFFS_WORD_GUITAR_122,PICKUPS_WORD_GUITAR_122],[KAPPA_WORD_GREECE_359,RUBY_PIC_GEMSTONE_31,DIAMOND_PIC_GEMSTONE_31],[AUSTRALIA_WORD_MAP_32,AMAZON_WORD_RIVERS_959,NILE_WORD_RIVERS_959],[NANOBOT_WORD_ROBOT_354,MOTH_PIC_INSECTS_32,PITT_WORD_ACTOR_89],[GRAMMAR_WORD_LINGUIST_162,EASTWOOD_WORD_ACTOR_89,COLONEL_WORD_ARMY_156],[MILAN_WORD_ITALY_376,VENICE_WORD_ITALY_376,ARCADE_WORD_GAMER_36],[SNAKE_PIC_REPTILES_30,CAPTAIN_WORD_ARMY_156,PRIVATE_WORD_ARMY_156],[ALLIGATOR_PIC_REPTILES_30,SHUTTER_WORD_CAMERA_73],[HUDSON_WORD_RIVERS_959,POLYGLOT_WORD_LINGUIST_162],[TULIP_PIC_FLOWERS_29,SCHOLAR_WORD_LINGUIST_162],[SHOOTER_WORD_GAMER_36,TUNDRA_WORD_BIOMES_135],[SOPRANO_WORD_VOICES_439,FLORENCE_WORD_ITALY_376],[ROBOVAC_WORD_ROBOT_354,COWBOY_HAT_PIC_WESTERN_34],[USA_WORD_MAP_32,CYPRUS_WORD_MAP_32,ALTO_WORD_VOICES_439],[SIGMA_WORD_GREECE_359,JAPAN_WORD_MAP_32,DAISY_PIC_FLOWERS_29],[ANDROID_WORD_ROBOT_354,LILY_PIC_FLOWERS_29],[DELTA_WORD_GREECE_359,BASS_WORD_VOICES_439],[ROME_WORD_ITALY_376,STRATEGY_WORD_GAMER_36,BARITONE_WORD_VOICES_439]]</t>
+  </si>
+  <si>
+    <t>[WORD_GREECE_359,PIC_REPTILES_30,WORD_MAP_32,WORD_ROBOT_354,WORD_ITALY_376,PIC_FLOWERS_29,WORD_GAMER_36,WORD_VOICES_439]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_23_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
+    <t>[[MOTH_WORD_INSECTS_25,WAHLBERG_WORD_ACTOR_89,CRUISE_WORD_ACTOR_89],[PUCK_WORD_HOCKEY_86,PRIVATE_WORD_ARMY_156,SERGEANT_WORD_ARMY_156],[AMAZON_WORD_RIVERS_959,LENS_WORD_CAMERA_73,SYNTAX_WORD_LINGUIST_162],[EXPOSURE_WORD_CAMERA_73,SQUIRREL_PIC_RODENTS_33,BEAVER_PIC_RODENTS_33],[MOTH_PIC_INSECTS_32,NIHILISM_WORD_VIEWS_410,SAVANNA_WORD_BIOMES_135],[ANT_WORD_INSECTS_25,HURON_WORD_LAKES_365,BREEZE_WORD_COASTAL_882],[MOSQUITO_WORD_INSECTS_25,BAIKAL_WORD_LAKES_365,JETTY_WORD_COASTAL_882],[LADYBUG_WORD_INSECTS_25,GROYNE_WORD_COASTAL_882],[TITICACA_WORD_LAKES_365,CREST_WORD_COASTAL_882,PICKUPS_WORD_GUITAR_122],[DRAGONFLY_WORD_INSECTS_25,SURFING_WORD_COASTAL_882,SAND_WORD_COASTAL_882],[WOODEN_SHIP_S_WHEEL_PIC_PIRATE_35,TUNDRA_WORD_BIOMES_135,COWBOY_BOOTS_PIC_WESTERN_34],[MOSQUITO_PIC_INSECTS_32,LASSO_PIC_WESTERN_34,CUTLASS_PIC_PIRATE_35],[HAIKU_WORD_POETRY_440,JOLLY_ROGER_PIC_PIRATE_35,BAY_PIC_BEACH_36],[GOAL_WORD_HOCKEY_86,WAVES_PIC_BEACH_36,BEACH_CHAIR_PIC_BEACH_36],[PITT_WORD_ACTOR_89,BEACH_UMBRELLA_PIC_BEACH_36,MUSTANG_WORD_EQUIDAE_475],[HUDSON_WORD_RIVERS_959,CHORDS_WORD_GUITAR_122,STRINGS_WORD_GUITAR_122],[SUPERIOR_WORD_LAKES_365,SAPPHIRE_PIC_GEMSTONE_31,SHINGLE_WORD_COASTAL_882],[WASP_WORD_INSECTS_25,ONTARIO_WORD_LAKES_365],[MICHIGAN_WORD_LAKES_365,RIFFS_WORD_GUITAR_122,DIAMOND_PIC_GEMSTONE_31],[LADYBUG_PIC_INSECTS_32,TIDE_WORD_COASTAL_882,RUBY_PIC_GEMSTONE_31],[NILE_WORD_RIVERS_959,ZEBRA_WORD_EQUIDAE_475,DONKEY_WORD_EQUIDAE_475],[SAND_PIC_BEACH_36,MULE_WORD_EQUIDAE_475,PUNCH_WORD_RAP_151],[RINK_WORD_HOCKEY_86,EXCELSA_WORD_BEANS_219,GOAT_WORD_CHIMERA_795],[PENALTY_WORD_HOCKEY_86,SERPENT_WORD_CHIMERA_795,NEUTRON_WORD_PARTICLE_281],[ODE_WORD_POETRY_440,ATOM_WORD_PARTICLE_281]]</t>
+  </si>
+  <si>
+    <t>[WORD_HOCKEY_86,WORD_INSECTS_25,WORD_RIVERS_959,PIC_INSECTS_32,WORD_LAKES_365,PIC_GEMSTONE_31,WORD_COASTAL_882,WORD_GUITAR_122]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_24_BOARD_1</t>
+  </si>
+  <si>
+    <t>[5,9,10]</t>
+  </si>
+  <si>
+    <t>[[SALSA_WORD_DANCES_24,WOODEN_SHIP_S_WHEEL_PIC_PIRATE_35,CANNON_PIC_PIRATE_35],[MINE_WORD_SHAFT_331,TREASURE_CHEST_PIC_PIRATE_35,JOLLY_ROGER_PIC_PIRATE_35],[SAMBA_WORD_DANCES_24,SEAGULL_PIC_BEACH_36,WAVES_PIC_BEACH_36],[CRUISE_WORD_ACTOR_89,WAHLBERG_WORD_ACTOR_89,FILTER_WORD_CAMERA_73],[GENERAL_WORD_ARMY_156,NIHILISM_WORD_VIEWS_410,CORPORAL_WORD_ARMY_156],[ANALYZE_WORD_EVALUATE_651,SAND_PIC_BEACH_36,ODE_WORD_POETRY_440],[MATE_WORD_ANAGRAM_511,PUNCH_WORD_RAP_151,RHYME_WORD_RAP_151],[HAIKU_WORD_POETRY_440,EXCELSA_WORD_BEANS_219,LION_WORD_CHIMERA_795],[TAIGA_WORD_BIOMES_135,CAPTAIN_WORD_ARMY_156,STOICISM_WORD_VIEWS_410],[PRIVATE_WORD_ARMY_156,SERGEANT_WORD_ARMY_156,LENS_WORD_CAMERA_73],[BEACH_CHAIR_PIC_BEACH_36,ATOM_WORD_PARTICLE_281,NEUTRON_WORD_PARTICLE_281],[TREASURE_MAP_PIC_PIRATE_35,HARVEST_WORD_FARMING_333,GRAIN_WORD_FARMING_333],[UFO_PIC_SPACE_38,COMPOST_WORD_FARMING_333,TOPSOIL_WORD_FARMING_333],[PITT_WORD_ACTOR_89,MAJOR_WORD_ARMY_156,COWBOY_BOOTS_PIC_WESTERN_34],[CROWE_WORD_ACTOR_89,NUTRIA_PIC_RODENTS_33,ZOOM_WORD_CAMERA_73],[TANGO_WORD_DANCES_24,PYRAMID_PIC_EGYPT_37,NILE_RIVER_PIC_EGYPT_37],[SPHINX_PIC_EGYPT_37,WALTZ_WORD_DANCES_24,IMPORT_WORD_CUSTOMS_592],[SONNET_WORD_POETRY_440,BORDER_WORD_CUSTOMS_592,ALIEN_PIC_SPACE_38],[EASTWOOD_WORD_ACTOR_89,SYNTAX_WORD_LINGUIST_162,SQUIRREL_PIC_RODENTS_33],[TUNDRA_WORD_BIOMES_135,EXPOSURE_WORD_CAMERA_73,LASSO_PIC_WESTERN_34],[OLDMAN_WORD_ACTOR_89,COWBOY_HAT_PIC_WESTERN_34,MARMOT_PIC_RODENTS_33],[RANK_WORD_ARMY_156,DUALISM_WORD_VIEWS_410,POLYGLOT_WORD_LINGUIST_162],[DICAPRIO_WORD_ACTOR_89,FLASH_WORD_CAMERA_73,SCHOLAR_WORD_LINGUIST_162],[SAVANNA_WORD_BIOMES_135,COLONEL_WORD_ARMY_156,GRAMMAR_WORD_LINGUIST_162],[HANKS_WORD_ACTOR_89,SHUTTER_WORD_CAMERA_73,BEAVER_PIC_RODENTS_33]]</t>
+  </si>
+  <si>
+    <t>[WORD_BIOMES_135,WORD_ARMY_156,WORD_ACTOR_89,WORD_VIEWS_410,PIC_RODENTS_33,WORD_CAMERA_73,WORD_LINGUIST_162,PIC_WESTERN_34]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_25_BOARD_1</t>
+  </si>
+  <si>
+    <t>[4,8,12]</t>
+  </si>
+  <si>
+    <t>[[HARVEST_WORD_FARMING_333,CROP_WORD_FARMING_333,TOPSOIL_WORD_FARMING_333,FALLOW_WORD_FARMING_333],[SEATBELT_WORD_PLANE_139,COMPOST_WORD_FARMING_333,MUMMY_PIC_EGYPT_37,SPHINX_PIC_EGYPT_37],[HORSE_WORD_EQUIDAE_475,ACROSTIC_WORD_POETRY_440,LYRICS_WORD_RAP_151],[NEUTRON_WORD_PARTICLE_281,SAMBA_WORD_DANCES_24,FLAMENCO_WORD_DANCES_24,TANGO_WORD_DANCES_24],[MUSTANG_WORD_EQUIDAE_475,ODE_WORD_POETRY_440,CANNON_PIC_PIRATE_35],[SCARAB_PIC_EGYPT_37,RUMBA_WORD_DANCES_24,IMPORT_WORD_CUSTOMS_592],[ASSESS_WORD_EVALUATE_651,EXPORT_WORD_CUSTOMS_592,ALIEN_PIC_SPACE_38],[MULE_WORD_EQUIDAE_475,RHYME_WORD_RAP_151,CUTLASS_PIC_PIRATE_35,TREASURE_CHEST_PIC_PIRATE_35],[SERPENT_WORD_CHIMERA_795,PUNCH_WORD_RAP_151,TREASURE_MAP_PIC_PIRATE_35],[SOLAR_WORD_ENERGY_145,ROCKET_PIC_SPACE_38,UFO_PIC_SPACE_38],[FLY_WORD_PLANE_139,ASTRONAUT_PIC_SPACE_38,TUNA_PIC_SEA_FISH_39],[PHARAOH_S_MASK_PIC_EGYPT_37,STINGRAY_PIC_SEA_FISH_39,SHARK_PIC_SEA_FISH_39],[GOAT_WORD_CHIMERA_795,WOODEN_SHIP_S_WHEEL_PIC_PIRATE_35,EXCELSA_WORD_BEANS_219],[RUDDER_WORD_PLANE_139,AILERON_WORD_PLANE_139,FUSELAGE_WORD_PLANE_139],[ZEBRA_WORD_EQUIDAE_475,BIRTHDAY_HAT_PIC_BIRTHDAY_40,CANDLE_PIC_BIRTHDAY_40],[ATOM_WORD_PARTICLE_281,PARROT_PIC_PIRATE_35,WAVES_PIC_BEACH_36],[HAIKU_WORD_POETRY_440,ROBUSTA_WORD_BEANS_219,JOLLY_ROGER_PIC_PIRATE_35],[BALLAD_WORD_POETRY_440,BUOY_PIC_BEACH_36,ARABICA_WORD_BEANS_219,SEAGULL_PIC_BEACH_36],[PONY_WORD_EQUIDAE_475,SAND_PIC_BEACH_36,BAY_PIC_BEACH_36],[DONKEY_WORD_EQUIDAE_475,VERSE_WORD_RAP_151,RUM_PIC_PIRATE_35],[ELECTRON_WORD_PARTICLE_281,LIBERICA_WORD_BEANS_219,SHELLS_PIC_BEACH_36],[DUTY_WORD_CUSTOMS_592,MONOCLE_WORD_OPTICS_229,GLASSES_WORD_OPTICS_229],[LION_WORD_CHIMERA_795,BEACH_CHAIR_PIC_BEACH_36,BEACH_UMBRELLA_PIC_BEACH_36],[SONNET_WORD_POETRY_440,RINZAI_WORD_ZEN_549,MOTION_WORD_DYNAMICS_360],[LENS_WORD_OPTICS_229,GOATEE_WORD_BEARDS_681,BALBO_WORD_BEARDS_681]]</t>
+  </si>
+  <si>
+    <t>[WORD_POETRY_440,WORD_EQUIDAE_475,WORD_PARTICLE_281,WORD_CHIMERA_795,WORD_RAP_151,PIC_BEACH_36,PIC_PIRATE_35,WORD_BEANS_219]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_26_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,5]</t>
+  </si>
+  <si>
+    <t>[[WALTZ_WORD_DANCES_24,SAWFISH_PIC_SEA_FISH_39,COD_PIC_SEA_FISH_39],[CROP_WORD_FARMING_333,SHARK_PIC_SEA_FISH_39,STINGRAY_PIC_SEA_FISH_39],[PYRAMID_PIC_EGYPT_37,MARLIN_PIC_SEA_FISH_39,CLOWNFISH_PIC_SEA_FISH_39],[SALSA_WORD_DANCES_24,FUSELAGE_WORD_PLANE_139,COCKPIT_WORD_PLANE_139],[AILERON_WORD_PLANE_139,SEATBELT_WORD_PLANE_139,RUDDER_WORD_PLANE_139],[COMPOST_WORD_FARMING_333,BOX_PIC_BIRTHDAY_40,CAKE_PIC_BIRTHDAY_40],[GOATEE_WORD_BEARDS_681,GLASSES_WORD_OPTICS_229,SOLAR_WORD_ENERGY_145],[MONARCHY_WORD_POLICIES_394,NUCLEAR_WORD_ENERGY_145,MOTION_WORD_DYNAMICS_360],[IMPORT_WORD_CUSTOMS_592,DUCKTAIL_WORD_BEARDS_681,TEMPEST_WORD_WILLIAM_165],[MONOCLE_WORD_OPTICS_229,ELECTRIC_TOOTHBRUSH_PIC_CHARGER_41,LAPTOP_PIC_CHARGER_41],[SCARAB_PIC_EGYPT_37,ESTIMATE_WORD_EVALUATE_651],[SPHINX_PIC_EGYPT_37,HARVEST_WORD_FARMING_333],[TANGO_WORD_DANCES_24,PADDOCK_WORD_FARMING_333,ROCKET_PIC_SPACE_38],[FLAMENCO_WORD_DANCES_24,MUMMY_PIC_EGYPT_37,ANALYZE_WORD_EVALUATE_651],[SAMBA_WORD_DANCES_24,PHARAOH_S_MASK_PIC_EGYPT_37,MEAT_WORD_ANAGRAM_511],[EXPORT_WORD_CUSTOMS_592,BLUETOOTH_HEADPHONES_PIC_CHARGER_41,ARMOR_WORD_KNIGHT_34],[BORDER_WORD_CUSTOMS_592,WEAPON_WORD_KNIGHT_34,HELMET_WORD_KNIGHT_34],[DESTRIER_WORD_KNIGHT_34,BENGAL_WORD_BREEDS_940],[RINZAI_WORD_ZEN_549,TRAIN_PIC_TRANSPORT_42],[TOPSOIL_WORD_FARMING_333,HELICOPTER_PIC_TRANSPORT_42],[RUMBA_WORD_DANCES_24,FALLOW_WORD_FARMING_333,MINE_WORD_SHAFT_331],[HAY_WORD_FARMING_333,PICKAXE_WORD_SHAFT_331,TEAM_WORD_ANAGRAM_511],[NILE_RIVER_PIC_EGYPT_37,ASSESS_WORD_EVALUATE_651,UFO_PIC_SPACE_38],[GRAIN_WORD_FARMING_333,ASTRONAUT_PIC_SPACE_38,CART_WORD_SHAFT_331],[DUTY_WORD_CUSTOMS_592,MATE_WORD_ANAGRAM_511,ALIEN_PIC_SPACE_38]]</t>
+  </si>
+  <si>
+    <t>[WORD_CUSTOMS_592,WORD_DANCES_24,WORD_FARMING_333,PIC_EGYPT_37,WORD_EVALUATE_651,PIC_SPACE_38,WORD_ANAGRAM_511,WORD_SHAFT_331]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_27_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,13]</t>
+  </si>
+  <si>
+    <t>[[BOX_PIC_BIRTHDAY_40,INERTIA_WORD_DYNAMICS_360,COCKPIT_WORD_PLANE_139],[DECODE_WORD_CIPHER_208,DRONE_PIC_CHARGER_41,LAPTOP_PIC_CHARGER_41],[STINGRAY_PIC_SEA_FISH_39,WEAPON_WORD_KNIGHT_34,CHIVALRY_WORD_KNIGHT_34],[COD_PIC_SEA_FISH_39,DESTRIER_WORD_KNIGHT_34,SIAMESE_WORD_BREEDS_940],[THERMAL_WORD_ENERGY_145,RINZAI_WORD_ZEN_549,SHARK_PIC_SEA_FISH_39],[DUCKTAIL_WORD_BEARDS_681,SOLAR_WORD_ENERGY_145,TUNA_PIC_SEA_FISH_39],[BIRTHDAY_HAT_PIC_BIRTHDAY_40,SAWFISH_PIC_SEA_FISH_39,MARLIN_PIC_SEA_FISH_39],[GOATEE_WORD_BEARDS_681,SARDINE_PIC_SEA_FISH_39,FLY_WORD_PLANE_139],[DHARMA_WORD_ZEN_549,FUSELAGE_WORD_PLANE_139,SEATBELT_WORD_PLANE_139],[MONOCLE_WORD_OPTICS_229,ENGINE_WORD_PLANE_139,RUDDER_WORD_PLANE_139],[CONFETTI_PIC_BIRTHDAY_40,SPHYNX_WORD_BREEDS_940,BIRMAN_WORD_BREEDS_940],[KINETIC_WORD_ENERGY_145,ACT_WORD_OPERA_760,TYRANNY_WORD_POLICIES_394],[VELOCITY_WORD_DYNAMICS_360,MONARCHY_WORD_POLICIES_394,ANARCHY_WORD_POLICIES_394],[X_RAYS_WORD_RADIATE_257,LION_PIC_WHISKERS_43,CATFISH_PIC_WHISKERS_43],[BALLOON_PIC_BIRTHDAY_40,DOG_PIC_WHISKERS_43,SQUIRREL_PIC_WHISKERS_43],[BALBO_WORD_BEARDS_681,HYDROGEN_WORD_ELEMENTS_107,CARBON_WORD_ELEMENTS_107],[PLANE_PIC_TRANSPORT_42,NITROGEN_WORD_ELEMENTS_107,BEEF_PIC_BURGER_44],[YOGA_WORD_ZEN_549,TASTE_WORD_FOODIE_726,HEDONISM_WORD_FOODIE_726],[GLASSES_WORD_OPTICS_229,EPICURE_WORD_FOODIE_726,GOURMET_WORD_FOODIE_726],[CANDLE_PIC_BIRTHDAY_40,DECAY_WORD_RADIATE_257,GASTRIN_WORD_HORMONES_259],[LENS_WORD_OPTICS_229,MOTION_WORD_DYNAMICS_360,WINGS_WORD_PLANE_139],[SPYGLASS_WORD_OPTICS_229,CORTISOL_WORD_HORMONES_259,GLUCAGON_WORD_HORMONES_259],[BENGAL_WORD_BREEDS_940,INSULIN_WORD_HORMONES_259,RATE_WORD_MORTGAGE_595],[CAKE_PIC_BIRTHDAY_40,CAULDRON_WORD_ALCHEMY_445,DUALITY_WORD_YINYANG_721],[NUCLEAR_WORD_ENERGY_145,CLOWNFISH_PIC_SEA_FISH_39,AILERON_WORD_PLANE_139]]</t>
+  </si>
+  <si>
+    <t>[WORD_ZEN_549,PIC_BIRTHDAY_40,WORD_BEARDS_681,WORD_DYNAMICS_360,WORD_ENERGY_145,WORD_OPTICS_229,PIC_SEA_FISH_39,WORD_PLANE_139]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_28_BOARD_1</t>
+  </si>
+  <si>
+    <t>[1,2,9]</t>
+  </si>
+  <si>
+    <t>[[DECODE_WORD_CIPHER_208,MONARCHY_WORD_POLICIES_394,SHIELD_WORD_KNIGHT_34],[HELICOPTER_PIC_TRANSPORT_42,DIGITAL_CAMERA_PIC_CHARGER_41,JULIET_WORD_WILLIAM_165],[SIAMESE_WORD_BREEDS_940,ENCODE_WORD_CIPHER_208,PERICLES_WORD_WILLIAM_165],[ANARCHY_WORD_POLICIES_394,ELECTRIC_TOOTHBRUSH_PIC_CHARGER_41,ACT_WORD_OPERA_760,HELMET_WORD_KNIGHT_34],[KEYWORD_WORD_CIPHER_208,LAPTOP_PIC_CHARGER_41,ARMOR_WORD_KNIGHT_34,CHIVALRY_WORD_KNIGHT_34],[SPHYNX_WORD_BREEDS_940,TYRANNY_WORD_POLICIES_394,DRONE_PIC_CHARGER_41],[PASSWORD_WORD_CIPHER_208,BLUETOOTH_HEADPHONES_PIC_CHARGER_41,ELECTRIC_CAR_PIC_CHARGER_41],[TAXI_PIC_TRANSPORT_42,TEMPEST_WORD_WILLIAM_165,SMARTWATCH_PIC_CHARGER_41],[ANGORA_WORD_BREEDS_940,ROMEO_WORD_WILLIAM_165,POWER_BANK_PIC_CHARGER_41],[TRAIN_PIC_TRANSPORT_42,ROLE_WORD_OPERA_760,HAMLET_WORD_WILLIAM_165],[GENOME_WORD_GENETICS_1060,CAT_PIC_WHISKERS_43,SQUIRREL_PIC_WHISKERS_43,SULFUR_WORD_ELEMENTS_107],[TIMBRE_WORD_SINGING_1054,HYDROGEN_WORD_ELEMENTS_107,CHEESE_PIC_BURGER_44,TOMATO_PIC_BURGER_44],[TOTEM_WORD_ARTIFACT_276,EPICURE_WORD_FOODIE_726,DISHES_WORD_FOODIE_726,X_RAYS_WORD_RADIATE_257],[PLANE_PIC_TRANSPORT_42,DESTRIER_WORD_KNIGHT_34,OTHELLO_WORD_WILLIAM_165],[SODIUM_WORD_ELEMENTS_107,CORTISOL_WORD_HORMONES_259,GLUCAGON_WORD_HORMONES_259],[LION_PIC_WHISKERS_43,SONG_WORD_SINGING_1054,ARIA_WORD_SINGING_1054],[SYNERGY_WORD_YINYANG_721,HUMMING_WORD_SINGING_1054,MELODY_WORD_SINGING_1054],[BUN_PIC_BURGER_44,SWAN_WORD_BIRDS_80,VULTURE_WORD_BIRDS_80],[BIRMAN_WORD_BREEDS_940,WEAPON_WORD_KNIGHT_34,DIVA_WORD_OPERA_760],[DECAY_WORD_RADIATE_257,OWL_WORD_BIRDS_80,SERUM_WORD_SKINCARE_984],[LEMONADE_PIC_DRINKS_45,TONER_WORD_SKINCARE_984,INSIGNIA_WORD_ARTIFACT_276],[BLEMISH_WORD_SKINCARE_984,VASE_WORD_ARTIFACT_276,RELIC_WORD_ARTIFACT_276],[CURIE_WORD_RADIATE_257,KNIGHT_WORD_MEDIEVAL_228,VILLA_WORD_HOUSE_40],[BENGAL_WORD_BREEDS_940,HENRY_V_WORD_WILLIAM_165,MACBETH_WORD_WILLIAM_165],[TEXTURE_WORD_SKINCARE_984,PALACE_WORD_HOUSE_40,MANSION_WORD_HOUSE_40]]</t>
+  </si>
+  <si>
+    <t>[PIC_TRANSPORT_42,WORD_BREEDS_940,WORD_POLICIES_394,WORD_CIPHER_208,PIC_CHARGER_41,WORD_WILLIAM_165,WORD_OPERA_760,WORD_KNIGHT_34]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_29_BOARD_1</t>
+  </si>
+  <si>
+    <t>[4,11,13]</t>
+  </si>
+  <si>
+    <t>[[SYNERGY_WORD_YINYANG_721,CURIE_WORD_RADIATE_257,SODIUM_WORD_ELEMENTS_107],[CORTISOL_WORD_HORMONES_259,ARIA_WORD_SINGING_1054,HUMMING_WORD_SINGING_1054,SONG_WORD_SINGING_1054],[EPICURE_WORD_FOODIE_726,PITCH_WORD_SINGING_1054,VULTURE_WORD_BIRDS_80,EAGLE_WORD_BIRDS_80],[FINCH_WORD_BIRDS_80,PEPTIDES_WORD_SKINCARE_984,TONER_WORD_SKINCARE_984,TEXTURE_WORD_SKINCARE_984],[GASTRIN_WORD_HORMONES_259,NITROGEN_WORD_ELEMENTS_107,TASTE_WORD_FOODIE_726,SYBARITE_WORD_FOODIE_726],[WALRUS_PIC_WHISKERS_43,RELIC_WORD_ARTIFACT_276,INSIGNIA_WORD_ARTIFACT_276,AMULET_WORD_ARTIFACT_276],[PAYMENT_WORD_MORTGAGE_595,SULFUR_WORD_ELEMENTS_107,X_RAYS_WORD_RADIATE_257,SEAL_PIC_WHISKERS_43],[SILICON_WORD_ELEMENTS_107,ESPRESSO_PIC_DRINKS_45,KNIGHT_WORD_MEDIEVAL_228,GENE_WORD_GENETICS_1060],[RETINOL_WORD_SKINCARE_984,MANSION_WORD_HOUSE_40,SQUARE_PIC_SHAPES_46,KIDNEY_WORD_ORGANS_412],[TIMBRE_WORD_SINGING_1054,HEART_WORD_ORGANS_412,LUNGS_WORD_ORGANS_412,HISTORY_WORD_LESSONS_94],[SIGIL_WORD_ARTIFACT_276,BIOLOGY_WORD_LESSONS_94,GEOMETRY_WORD_LESSONS_94],[INTEREST_WORD_MORTGAGE_595,ALGEBRA_WORD_LESSONS_94,CALCULUS_WORD_LESSONS_94],[DUALITY_WORD_YINYANG_721,CAULDRON_WORD_ALCHEMY_445,LETTUCE_PIC_BURGER_44,IODINE_WORD_ELEMENTS_107],[CAT_PIC_WHISKERS_43,WATCH_PIC_LUXURY_47,SUPERCAR_PIC_LUXURY_47],[LIVER_WORD_ORGANS_412,YACHT_PIC_LUXURY_47,RAMSES_WORD_PYRAMIDS_330],[DECAY_WORD_RADIATE_257,DISHES_WORD_FOODIE_726,LION_PIC_WHISKERS_43],[FALLOUT_WORD_RADIATE_257,ELIXIR_WORD_ALCHEMY_445,OXYGEN_WORD_ELEMENTS_107],[GLUCAGON_WORD_HORMONES_259,TOMATO_PIC_BURGER_44,BEEF_PIC_BURGER_44,HEDONISM_WORD_FOODIE_726],[HARMONY_WORD_YINYANG_721,CARBON_WORD_ELEMENTS_107,HYDROGEN_WORD_ELEMENTS_107],[INSULIN_WORD_HORMONES_259,SQUIRREL_PIC_WHISKERS_43,OTTER_PIC_WHISKERS_43],[RATE_WORD_MORTGAGE_595,SAUCE_PIC_BURGER_44,CATFISH_PIC_WHISKERS_43],[JEWELRY_PIC_LUXURY_47,RA_WORD_PYRAMIDS_330,EMPRESS_PIC_TAROT_48],[PANCREAS_WORD_ORGANS_412,GALLOP_WORD_GAITS_810,COACHMAN_WORD_CARRIAGE_800],[POTION_WORD_ALCHEMY_445,MANTLE_WORD_EARTH_831,CRUST_WORD_EARTH_831],[BUN_PIC_BURGER_44,DOG_PIC_WHISKERS_43,CHEESE_PIC_BURGER_44,GOURMET_WORD_FOODIE_726]]</t>
+  </si>
+  <si>
+    <t>[WORD_RADIATE_257,WORD_ALCHEMY_445,WORD_MORTGAGE_595,WORD_YINYANG_721,WORD_ELEMENTS_107,PIC_BURGER_44,PIC_WHISKERS_43,WORD_HORMONES_259,WORD_FOODIE_726]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_30_BOARD_1</t>
+  </si>
+  <si>
+    <t>[7,10,13]</t>
+  </si>
+  <si>
+    <t>[[EAGLE_WORD_BIRDS_80,MELODY_WORD_SINGING_1054,TEXTURE_WORD_SKINCARE_984,VASE_WORD_ARTIFACT_276],[CASTLE_WORD_MEDIEVAL_228,OWL_WORD_BIRDS_80,DOVE_WORD_BIRDS_80,BLEMISH_WORD_SKINCARE_984],[STORM_PIC_SAILOR_50,PANCREAS_WORD_ORGANS_412,STOMACH_WORD_ORGANS_412,SPLEEN_WORD_ORGANS_412],[JEWELRY_PIC_LUXURY_47,LUNGS_WORD_ORGANS_412,LIVER_WORD_ORGANS_412,GEOMETRY_WORD_LESSONS_94],[OVAL_PIC_SHAPES_46,SWAN_WORD_BIRDS_80,GENE_WORD_GENETICS_1060],[RAMPART_WORD_CASTLE_485,YACHT_PIC_LUXURY_47,PRIVATE_JET_PIC_LUXURY_47,CLASSIC_HANDBAG_PIC_LUXURY_47],[JUICE_PIC_DRINKS_45,ARIA_WORD_SINGING_1054,INSIGNIA_WORD_ARTIFACT_276],[KINGDOM_WORD_MEDIEVAL_228,RAMSES_WORD_PYRAMIDS_330,FOOL_PIC_TAROT_48,MOON_PIC_TAROT_48],[MAGICIAN_PIC_TAROT_48,TROT_WORD_GAITS_810,CANTER_WORD_GAITS_810,GALLOP_WORD_GAITS_810],[SODA_PIC_DRINKS_45,AMULET_WORD_ARTIFACT_276,SIGIL_WORD_ARTIFACT_276,CLEANSER_WORD_SKINCARE_984],[KNIGHT_WORD_MEDIEVAL_228,HARNESS_WORD_CARRIAGE_800,CORE_WORD_EARTH_831,DUNGEON_WORD_CASTLE_485],[HERON_WORD_BIRDS_80,SOLOIST_WORD_SINGING_1054,DNA_WORD_GENETICS_1060],[SQUARE_PIC_SHAPES_46,TOWER_WORD_CASTLE_485,TURRET_WORD_CASTLE_485,BASTION_WORD_CASTLE_485],[TEETH_WORD_SAW_88,CITADEL_WORD_CASTLE_485,STROLLER_PIC_BABIES_49,CAR_SEAT_PIC_BABIES_49],[SONG_WORD_SINGING_1054,TONER_WORD_SKINCARE_984,VILLA_WORD_HOUSE_40],[BLADE_WORD_SAW_88,CRIB_PIC_BABIES_49,WOLF_WORD_CANINES_168],[ROBIN_WORD_BIRDS_80,FINCH_WORD_BIRDS_80,HUMMING_WORD_SINGING_1054,PEPTIDES_WORD_SKINCARE_984],[LORD_WORD_MEDIEVAL_228,DHOLE_WORD_CANINES_168,FOX_WORD_CANINES_168],[CALCULUS_WORD_LESSONS_94,PROTON_WORD_NUCLEAR_366,ROPE_PIC_SAILOR_50],[VULTURE_WORD_BIRDS_80,TOTEM_WORD_ARTIFACT_276,TIMBRE_WORD_SINGING_1054],[LEMONADE_PIC_DRINKS_45,MANSION_WORD_HOUSE_40,PALACE_WORD_HOUSE_40,PORES_WORD_SKINCARE_984],[CIRCLE_PIC_SHAPES_46,GENOME_WORD_GENETICS_1060,PITCH_WORD_SINGING_1054,RETINOL_WORD_SKINCARE_984],[KNOT_PIC_SAILOR_50,PAGANINI_WORD_VIOLINS_845,LUTHIER_WORD_VIOLINS_845],[BIOLOGY_WORD_LESSONS_94,TROWEL_WORD_CONCRETE_601,NOTCH_WORD_SAW_88],[ESPRESSO_PIC_DRINKS_45,CHOIR_WORD_SINGING_1054,RELIC_WORD_ARTIFACT_276,SERUM_WORD_SKINCARE_984]]</t>
+  </si>
+  <si>
+    <t>[WORD_SINGING_1054,PIC_SHAPES_46,WORD_MEDIEVAL_228,WORD_BIRDS_80,PIC_DRINKS_45,WORD_HOUSE_40,WORD_GENETICS_1060,WORD_SKINCARE_984,WORD_ARTIFACT_276]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_31_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,6]</t>
+  </si>
+  <si>
+    <t>[[CORE_WORD_EARTH_831,HARNESS_WORD_CARRIAGE_800,SUPERCAR_PIC_LUXURY_47],[PHYSICS_WORD_LESSONS_94,BASTION_WORD_CASTLE_485,CITADEL_WORD_CASTLE_485],[GEOMETRY_WORD_LESSONS_94,PARAPET_WORD_CASTLE_485,RAMPART_WORD_CASTLE_485],[TROT_WORD_GAITS_810,BOTTLE_PIC_BABIES_49,DIAPER_PIC_BABIES_49],[LUNGS_WORD_ORGANS_412,JACKAL_WORD_CANINES_168,COYOTE_WORD_CANINES_168],[JEWELRY_PIC_LUXURY_47,EMPRESS_PIC_TAROT_48,STOMACH_WORD_ORGANS_412],[MIX_WORD_CONCRETE_601,FOX_WORD_CANINES_168,ATOM_WORD_NUCLEAR_366],[MOON_PIC_TAROT_48,NEUTRON_WORD_NUCLEAR_366,ELECTRON_WORD_NUCLEAR_366],[ALGEBRA_WORD_LESSONS_94,KNOT_PIC_SAILOR_50,FRET_WORD_VIOLINS_845],[SERVER_WORD_NETWORK_588,NOTCH_WORD_SAW_88,SIMIAN_WORD_PRIMATES_149],[COACHMAN_WORD_CARRIAGE_800,FOOL_PIC_TAROT_48,HEART_WORD_ORGANS_412],[CANTER_WORD_GAITS_810,SPLEEN_WORD_ORGANS_412,HISTORY_WORD_LESSONS_94],[CRUST_WORD_EARTH_831,CALCULUS_WORD_LESSONS_94],[OSIRIS_WORD_PYRAMIDS_330,BIOLOGY_WORD_LESSONS_94,PRIVATE_JET_PIC_LUXURY_47],[PANCREAS_WORD_ORGANS_412,YACHT_PIC_LUXURY_47,WATCH_PIC_LUXURY_47],[RA_WORD_PYRAMIDS_330,MAGICIAN_PIC_TAROT_48,CLASSIC_HANDBAG_PIC_LUXURY_47],[LIVER_WORD_ORGANS_412,MACAQUE_WORD_PRIMATES_149,LEMUR_WORD_PRIMATES_149],[CAR_SEAT_PIC_BABIES_49,RUBY_WORD_CODING_150,BUGS_WORD_CODING_150],[FLAG_PIC_SAILOR_50,PYTHON_WORD_CODING_150,SOCRATES_WORD_MINDS_82],[BLADDER_WORD_ORGANS_412,KANT_WORD_MINDS_82,PLATO_WORD_MINDS_82],[ANUBIS_WORD_PYRAMIDS_330,KIDNEY_WORD_ORGANS_412],[REINS_WORD_CARRIAGE_800,GATEWAY_WORD_NETWORK_588,PACKET_WORD_NETWORK_588],[GALLOP_WORD_GAITS_810,ROUTER_WORD_NETWORK_588],[MANTLE_WORD_EARTH_831,EXPENSE_WORD_FINANCE_227],[RAMSES_WORD_PYRAMIDS_330,VERB_WORD_GRAMMAR_861]]</t>
+  </si>
+  <si>
+    <t>[WORD_CARRIAGE_800,WORD_PYRAMIDS_330,WORD_EARTH_831,WORD_GAITS_810,PIC_TAROT_48,WORD_ORGANS_412,PIC_LUXURY_47,WORD_LESSONS_94]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_32_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,3,8]</t>
+  </si>
+  <si>
+    <t>[[WASABI_WORD_SPICY_136,BABOON_WORD_PRIMATES_149,RUBY_WORD_CODING_150],[DANTE_WORD_MINDS_82,PHP_WORD_CODING_150,PYTHON_WORD_CODING_150],[ELECTRON_WORD_NUCLEAR_366,CAR_SEAT_PIC_BABIES_49,MOAT_WORD_CASTLE_485],[KANT_WORD_MINDS_82,SARTRE_WORD_MINDS_82,SERVER_WORD_NETWORK_588],[MONEY_WORD_FINANCE_227,ETHERNET_WORD_NETWORK_588,GATEWAY_WORD_NETWORK_588],[NOTCH_WORD_SAW_88,RAMPART_WORD_CASTLE_485,ROPE_PIC_SAILOR_50],[ATOM_WORD_NUCLEAR_366,DUNGEON_WORD_CASTLE_485,FOX_WORD_CANINES_168],[LUTHIER_WORD_VIOLINS_845,CRIB_PIC_BABIES_49,BASTION_WORD_CASTLE_485],[BLADE_WORD_SAW_88,DHOLE_WORD_CANINES_168,WOLF_WORD_CANINES_168],[TEETH_WORD_SAW_88,JACKAL_WORD_CANINES_168,STORM_PIC_SAILOR_50],[SCREED_WORD_CONCRETE_601,FLAG_PIC_SAILOR_50,DIAPER_PIC_BABIES_49],[PROTON_WORD_NUCLEAR_366,BABY_BOWL_AND_SOFT_TIP_SPOON_PIC_BABIES_49,DINGO_WORD_CANINES_168],[PAGANINI_WORD_VIOLINS_845,KNOT_PIC_SAILOR_50,RATTLE_PIC_BABIES_49],[TROWEL_WORD_CONCRETE_601,STROLLER_PIC_BABIES_49,PARAPET_WORD_CASTLE_485],[MIX_WORD_CONCRETE_601,PACIFIER_PIC_BABIES_49,TURRET_WORD_CASTLE_485],[OXFORD_WORD_STUDIES_169,LOLLIPOP_PIC_CANDY_51,GUM_PIC_CANDY_51],[SORBONNE_WORD_STUDIES_169,FUDGE_PIC_CANDY_51,ADVERB_WORD_GRAMMAR_861],[NEUTRON_WORD_NUCLEAR_366,COYOTE_WORD_CANINES_168,TOWER_WORD_CASTLE_485],[GIBBON_WORD_PRIMATES_149,PADLOCK_PIC_KEYS_52,GARDENING_GLOVES_PIC_LAWN_53],[DOLL_WORD_TOYS_154,SPRINKLER_PIC_LAWN_53,FOCACCIA_WORD_BREADS_102],[BAGUETTE_WORD_BREADS_102,PITA_WORD_BREADS_102,AREPA_WORD_BREADS_102],[PACKET_WORD_NETWORK_588,IDOL_WORD_PAGANISM_469,ALTAR_WORD_PAGANISM_469],[FRET_WORD_VIOLINS_845,BOTTLE_PIC_BABIES_49,CITADEL_WORD_CASTLE_485],[MACAQUE_WORD_PRIMATES_149,FOOL_WORD_TAROT_417,MOON_WORD_TAROT_417],[JAVA_WORD_CODING_150,CUBE_PIC_3D_54,SRIRACHA_WORD_SPICY_136]]</t>
+  </si>
+  <si>
+    <t>[WORD_SAW_88,WORD_VIOLINS_845,WORD_CONCRETE_601,WORD_NUCLEAR_366,WORD_CASTLE_485,PIC_BABIES_49,PIC_SAILOR_50,WORD_CANINES_168]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_33_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,5,10]</t>
+  </si>
+  <si>
+    <t>[[CONE_PIC_3D_54,LEAF_RAKE_PIC_LAWN_53,GRASS_PIC_LAWN_53,BRIOCHE_WORD_BREADS_102],[OXFORD_WORD_STUDIES_169,TORTILLA_WORD_BREADS_102,CHALLAH_WORD_BREADS_102,LASSO_WORD_WESTERN_317],[ALTAR_WORD_PAGANISM_469,SHERIFF_WORD_WESTERN_317,SORBONNE_WORD_STUDIES_169,YALE_WORD_STUDIES_169],[CUBE_PIC_3D_54,FOOL_WORD_TAROT_417,SRIRACHA_WORD_SPICY_136],[CAR_PIC_KEYS_52,FUDGE_PIC_CANDY_51,ADVERB_WORD_GRAMMAR_861],[BAGUETTE_WORD_BREADS_102,SCORPIO_WORD_ZODIAC_59,OVINE_WORD_FAMILIES_234],[LEO_WORD_ZODIAC_59,QUARTZ_WORD_MINERALS_253,AZURITE_WORD_MINERALS_253],[FELINE_WORD_FAMILIES_234,MARBLE_WORD_MINERALS_253,RIESLING_WORD_GRAPE_177],[EQUINE_WORD_FAMILIES_234,MERLOT_WORD_GRAPE_177,ETHANE_WORD_ALKANES_641],[TARSIER_WORD_PRIMATES_149,INCOME_WORD_FINANCE_227,PYTHON_WORD_CODING_150],[GORILLA_WORD_PRIMATES_149,PADLOCK_PIC_KEYS_52,ETHERNET_WORD_NETWORK_588],[MACAQUE_WORD_PRIMATES_149,NOUN_WORD_GRAMMAR_861,BANK_WORD_FINANCE_227],[BABOON_WORD_PRIMATES_149,VERB_WORD_GRAMMAR_861,JAVA_WORD_CODING_150],[SIMIAN_WORD_PRIMATES_149,GALILEO_WORD_MINDS_82,ROUTER_WORD_NETWORK_588],[DOOR_PIC_KEYS_52,PLATO_WORD_MINDS_82,SWIFT_WORD_CODING_150,DANTE_WORD_MINDS_82],[GRENACHE_WORD_GRAPE_177,FANGS_PIC_VAMPIRE_55,COFFIN_PIC_VAMPIRE_55],[SAUSAGE_WORD_HOT_DOG_201,COLOSSEUM_PIC_LANDMARK_56,STATUE_OF_LIBERTY_PIC_LANDMARK_56],[SHIRAZ_WORD_GRAPE_177,BIG_BEN_PIC_LANDMARK_56,KETCHUP_WORD_HOT_DOG_201],[GYPSUM_WORD_MINERALS_253,MEGA_WORD_PREFIX_922,DECA_WORD_PREFIX_922],[GUM_PIC_CANDY_51,SQL_WORD_CODING_150,SCRIPT_WORD_CODING_150],[MONEY_WORD_FINANCE_227,GATEWAY_WORD_NETWORK_588,SERVER_WORD_NETWORK_588,BUGS_WORD_CODING_150],[CHOCO_PIC_CANDY_51,EXPENSE_WORD_FINANCE_227,SOCRATES_WORD_MINDS_82],[GIBBON_WORD_PRIMATES_149,LOLLIPOP_PIC_CANDY_51,KANT_WORD_MINDS_82],[LEMUR_WORD_PRIMATES_149,PACKET_WORD_NETWORK_588,PHP_WORD_CODING_150],[MANDRILL_WORD_PRIMATES_149,RUBY_WORD_CODING_150,SARTRE_WORD_MINDS_82]]</t>
+  </si>
+  <si>
+    <t>[PIC_CANDY_51,WORD_PRIMATES_149,PIC_KEYS_52,WORD_FINANCE_227,WORD_GRAMMAR_861,WORD_MINDS_82,WORD_NETWORK_588,WORD_CODING_150]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_34_BOARD_1</t>
+  </si>
+  <si>
+    <t>[4,7,8]</t>
+  </si>
+  <si>
+    <t>[[SHIITAKE_WORD_MUSHROOM_178,LEO_WORD_ZODIAC_59,PORCINE_WORD_FAMILIES_234,CANINE_WORD_FAMILIES_234],[CHALLAH_WORD_BREADS_102,LEAF_RAKE_PIC_LAWN_53,LASSO_WORD_WESTERN_317],[HABANERO_WORD_SPICY_136,BAGUETTE_WORD_BREADS_102,SHERIFF_WORD_WESTERN_317],[LEGO_PIC_TOYS_58,CAPRINE_WORD_FAMILIES_234,BERYL_WORD_MINERALS_253,QUARTZ_WORD_MINERALS_253],[MEGA_WORD_PREFIX_922,AZURITE_WORD_MINERALS_253,LIME_WORD_MINERALS_253,RIESLING_WORD_GRAPE_177],[BOVINE_WORD_FAMILIES_234,PROPANE_WORD_ALKANES_641,COFFIN_PIC_VAMPIRE_55,BIG_BEN_PIC_LANDMARK_56],[TORTILLA_WORD_BREADS_102,MOON_WORD_TAROT_417,GARDENING_GLOVES_PIC_LAWN_53],[BRIOCHE_WORD_BREADS_102,SPINNER_WORD_TOYS_154,GAMBLER_WORD_WESTERN_317,GRASS_PIC_LAWN_53],[FLUTE_WORD_VIOLIN_508,STATUE_OF_LIBERTY_PIC_LANDMARK_56,COLOSSEUM_PIC_LANDMARK_56,SOFT_BUN_WORD_HOT_DOG_201],[CACTI_PIC_DESERT_57,SCHOOL_BUILDING_WORD_BUILD_384,LIBRARY_WORD_BUILD_384,FACTORY_WORD_BUILD_384],[CELLO_WORD_VIOLIN_508,MUSEUM_WORD_BUILD_384,HOSPITAL_WORD_BUILD_384],[CIABATTA_WORD_BREADS_102,SPRINKLER_PIC_LAWN_53,OXFORD_WORD_STUDIES_169,STANFORD_WORD_STUDIES_169],[EMPRESS_WORD_TAROT_417,CONE_PIC_3D_54,DOLL_WORD_TOYS_154,RODEO_WORD_WESTERN_317],[MURINE_WORD_FAMILIES_234,AMANITA_WORD_MUSHROOM_178,PORCINI_WORD_MUSHROOM_178],[SHIRAZ_WORD_GRAPE_177,ROMANS_WORD_CULTURES_487,VIKINGS_WORD_CULTURES_487],[WASABI_WORD_SPICY_136,FRISBEE_PIC_LAWN_53,PICNIC_BLANKET_PIC_LAWN_53],[SPHERE_PIC_3D_54,SRIRACHA_WORD_SPICY_136,RITUAL_WORD_PAGANISM_469,IDOL_WORD_PAGANISM_469],[AREPA_WORD_BREADS_102,ALTAR_WORD_PAGANISM_469,TOTEM_WORD_PAGANISM_469],[FOOL_WORD_TAROT_417,YO_YO_WORD_TOYS_154,MIT_WORD_STUDIES_169],[MAGICIAN_WORD_TAROT_417,HARVARD_WORD_STUDIES_169,COWBOY_WORD_WESTERN_317,FOUR_LEAF_CLOVER_PIC_LAWN_53],[DECA_WORD_PREFIX_922,CELTS_WORD_CULTURES_487,CLARINET_WORD_VIOLIN_508],[FOCACCIA_WORD_BREADS_102,CUBE_PIC_3D_54,MOWER_PIC_LAWN_53],[PITA_WORD_BREADS_102,SORBONNE_WORD_STUDIES_169,SALOON_WORD_WESTERN_317,YALE_WORD_STUDIES_169],[MAYANS_WORD_CULTURES_487,KITE_PIC_TOYS_58,STEEL_WORD_INDUSTRY_921],[BUTANE_WORD_ALKANES_641,PRODUCE_WORD_INDUSTRY_921,NAP_TIME_WORD_TODDLER_231]]</t>
+  </si>
+  <si>
+    <t>[WORD_TOYS_154,PIC_LAWN_53,WORD_BREADS_102,PIC_3D_54,WORD_TAROT_417,WORD_WESTERN_317,WORD_SPICY_136,WORD_PAGANISM_469,WORD_STUDIES_169]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_35_BOARD_1</t>
+  </si>
+  <si>
+    <t>[1,2,12]</t>
+  </si>
+  <si>
+    <t>[[QUARTZ_WORD_MINERALS_253,CALCITE_WORD_MINERALS_253,SAUSAGE_WORD_HOT_DOG_201,BOVINE_WORD_FAMILIES_234],[MICA_WORD_MINERALS_253,MERLOT_WORD_GRAPE_177,VIRGO_WORD_ZODIAC_59,TAURUS_WORD_ZODIAC_59],[BERYL_WORD_MINERALS_253,BIG_BEN_PIC_LANDMARK_56,FANGS_PIC_VAMPIRE_55],[SHIRAZ_WORD_GRAPE_177,RIESLING_WORD_GRAPE_177,COLOSSEUM_PIC_LANDMARK_56,PISCES_WORD_ZODIAC_59],[MEGA_WORD_PREFIX_922,COFFIN_PIC_VAMPIRE_55,PROPANE_WORD_ALKANES_641],[GYPSUM_WORD_MINERALS_253,LEO_WORD_ZODIAC_59,BATS_PIC_VAMPIRE_55,ARIES_WORD_ZODIAC_59],[MARBLE_WORD_MINERALS_253,GARLIC_PIC_VAMPIRE_55,BUTANE_WORD_ALKANES_641,MURINE_WORD_FAMILIES_234],[LIME_WORD_MINERALS_253,OVINE_WORD_FAMILIES_234,METHANE_WORD_ALKANES_641],[NANO_WORD_PREFIX_922,PORCINE_WORD_FAMILIES_234,FELINE_WORD_FAMILIES_234,CANINE_WORD_FAMILIES_234],[MUSCAT_WORD_GRAPE_177,SOFT_BUN_WORD_HOT_DOG_201,CAPRINE_WORD_FAMILIES_234],[PORCINI_WORD_MUSHROOM_178,STADIUM_WORD_BUILD_384,MALL_WORD_BUILD_384,MUSEUM_WORD_BUILD_384],[PILLS_WORD_FLU_251,SCHOOL_BUILDING_WORD_BUILD_384,SHIITAKE_WORD_MUSHROOM_178,RUSSULA_WORD_MUSHROOM_178],[DECA_WORD_PREFIX_922,GEMINI_WORD_ZODIAC_59,KETCHUP_WORD_HOT_DOG_201],[ROMANS_WORD_CULTURES_487,AZTECS_WORD_CULTURES_487,VIKINGS_WORD_CULTURES_487,CELLO_WORD_VIOLIN_508],[WAVY_WORD_HAIR_245,LEGO_PIC_TOYS_58,GOODS_WORD_INDUSTRY_921,STEEL_WORD_INDUSTRY_921],[AMANITA_WORD_MUSHROOM_178,PACIFIER_WORD_TODDLER_231,TERRAIN_WORD_MAPS_1022,LANDMARK_WORD_MAPS_1022],[GRENACHE_WORD_GRAPE_177,ETHANE_WORD_ALKANES_641,LIBRA_WORD_ZODIAC_59,SCORPIO_WORD_ZODIAC_59],[SCALE_WORD_MAPS_1022,GLOBE_WORD_MAPS_1022,JOURNEY_WORD_MAPS_1022,ATLAS_WORD_MAPS_1022],[ENOKI_WORD_MUSHROOM_178,BORDER_WORD_MAPS_1022,GOUDA_WORD_CHEESE_108,DORBLU_WORD_CHEESE_108],[MALBEC_WORD_GRAPE_177,SEAL_WORD_MAILMAN_63,ENVELOPE_WORD_MAILMAN_63,LAVENDER_PIC_PURPLE_59],[AZURITE_WORD_MINERALS_253,STATUE_OF_LIBERTY_PIC_LANDMARK_56,EQUINE_WORD_FAMILIES_234],[BRIE_WORD_CHEESE_108,EGGPLANT_PIC_PURPLE_59,CHEESE_PIC_YELLOW_60],[MAYANS_WORD_CULTURES_487,GOLD_PIC_YELLOW_60,DEBATE_WORD_SPEAK_244],[VIOLET_PIC_PURPLE_59,ARGUMENT_WORD_SPEAK_244,DIALOGUE_WORD_SPEAK_244],[RICOTTA_WORD_CHEESE_108,CURLY_WORD_HAIR_245,HEADACHE_WORD_FLU_251]]</t>
+  </si>
+  <si>
+    <t>[WORD_MINERALS_253,WORD_PREFIX_922,WORD_GRAPE_177,PIC_VAMPIRE_55,PIC_LANDMARK_56,WORD_ZODIAC_59,WORD_FAMILIES_234,WORD_ALKANES_641,WORD_HOT_DOG_201]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_36_BOARD_1</t>
+  </si>
+  <si>
+    <t>[1,8,11]</t>
+  </si>
+  <si>
+    <t>[[KITE_PIC_TOYS_58,SHIITAKE_WORD_MUSHROOM_178],[ENOKI_WORD_MUSHROOM_178,CELTS_WORD_CULTURES_487],[TRUFFLE_WORD_MUSHROOM_178,PLAYPEN_WORD_TODDLER_231,STEEL_WORD_INDUSTRY_921],[PORCINI_WORD_MUSHROOM_178,HOSPITAL_WORD_BUILD_384,GREEKS_WORD_CULTURES_487],[CELLO_WORD_VIOLIN_508,LIBRARY_WORD_BUILD_384,DUNES_PIC_DESERT_57],[EDAM_WORD_CHEESE_108,JOURNEY_WORD_MAPS_1022,FETA_WORD_CHEESE_108],[TEDDY_BEAR_PIC_TOYS_58,STADIUM_WORD_BUILD_384,PRODUCE_WORD_INDUSTRY_921],[AMANITA_WORD_MUSHROOM_178,GOODS_WORD_INDUSTRY_921,AZTECS_WORD_CULTURES_487],[SEAL_WORD_MAILMAN_63,BRIE_WORD_CHEESE_108,PARMESAN_WORD_CHEESE_108],[ENGLISH_WORD_LANGUAGE_70,MAIL_WORD_MAILMAN_63,ENVELOPE_WORD_MAILMAN_63],[OBOE_WORD_VIOLIN_508,EGGPLANT_PIC_PURPLE_59,VIOLET_PIC_PURPLE_59],[HOTEL_WORD_BUILD_384,CORN_PIC_YELLOW_60,ARGUMENT_WORD_SPEAK_244],[FACTORY_WORD_BUILD_384,CAMEL_PIC_DESERT_57,NAP_TIME_WORD_TODDLER_231],[RAINCOAT_PIC_RAIN_61,COILY_WORD_HAIR_245,PILLS_WORD_FLU_251],[LEGO_PIC_TOYS_58,HEADACHE_WORD_FLU_251,COUGH_WORD_FLU_251],[ROME_WORD_CAPITALS_119,ITALIAN_WORD_LANGUAGE_70,HINDI_WORD_LANGUAGE_70],[PLUM_PIC_PURPLE_59,OTTAWA_WORD_CAPITALS_119,ATHENS_WORD_CAPITALS_119],[MALL_WORD_BUILD_384,OASIS_PIC_DESERT_57],[FLUTE_WORD_VIOLIN_508,MAYANS_WORD_CULTURES_487,CACTI_PIC_DESERT_57],[DEBATE_WORD_SPEAK_244,UMBRELLA_PIC_RAIN_61,PUDDLE_PIC_RAIN_61],[BARBELL_PIC_GYM_62,AIR_BIKE_PIC_GYM_62,BONGO_WORD_DRUM_518],[MUSEUM_WORD_BUILD_384,DJEMBE_WORD_DRUM_518],[CLARINET_WORD_VIOLIN_508,SCHOOL_BUILDING_WORD_BUILD_384,ROMANS_WORD_CULTURES_487],[INK_WORD_MAILMAN_63,IRIS_WORD_EYE_260],[RUSSULA_WORD_MUSHROOM_178,VIKINGS_WORD_CULTURES_487,PACIFIER_WORD_TODDLER_231]]</t>
+  </si>
+  <si>
+    <t>[WORD_VIOLIN_508,PIC_TOYS_58,WORD_MUSHROOM_178,WORD_BUILD_384,WORD_TODDLER_231,WORD_CULTURES_487,WORD_INDUSTRY_921,PIC_DESERT_57]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_37_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,7,8]</t>
+  </si>
+  <si>
+    <t>[[TUNGSTEN_WORD_ALLOY_264,ITALIAN_WORD_LANGUAGE_70,DANISH_WORD_LANGUAGE_70],[WAVY_WORD_HAIR_245,COILY_WORD_HAIR_245,SEAL_WORD_MAILMAN_63],[LANDMARK_WORD_MAPS_1022,LETTER_WORD_MAILMAN_63,CURLY_WORD_HAIR_245],[TOPAZ_WORD_GEMSTONE_186,ENGLISH_WORD_LANGUAGE_70,OSLO_WORD_CAPITALS_119],[MATRIX_WORD_AI_238,MADRID_WORD_CAPITALS_119,PRAGUE_WORD_CAPITALS_119],[ASHIKO_WORD_DRUM_518,RAINCOAT_PIC_RAIN_61,CLOUD_PIC_RAIN_61],[PARMESAN_WORD_CHEESE_108,HEADACHE_WORD_FLU_251,BORDER_WORD_MAPS_1022],[GLOBE_WORD_MAPS_1022,INK_WORD_MAILMAN_63,ARGUMENT_WORD_SPEAK_244],[CHATBOT_WORD_AI_238,UMBRELLA_PIC_RAIN_61,AIR_BIKE_PIC_GYM_62],[BARBELL_PIC_GYM_62,KETTLEBELL_PIC_GYM_62,KENNEDY_WORD_DYNASTY_991],[RICOTTA_WORD_CHEESE_108,SCALE_WORD_MAPS_1022,BRIE_WORD_CHEESE_108],[EDAM_WORD_CHEESE_108,JOURNEY_WORD_MAPS_1022,CHEESE_PIC_YELLOW_60],[FETA_WORD_CHEESE_108,GOLD_PIC_YELLOW_60,TERRAIN_WORD_MAPS_1022],[PILLS_WORD_FLU_251,GOUDA_WORD_CHEESE_108,PLUM_PIC_PURPLE_59],[DORBLU_WORD_CHEESE_108,DIALOGUE_WORD_SPEAK_244,CORN_PIC_YELLOW_60],[PUDDLE_PIC_RAIN_61,BOURBON_WORD_DYNASTY_991,DIG_WORD_SHOVEL_261],[CONTOUR_WORD_MAPS_1022,ATLAS_WORD_MAPS_1022,EGGPLANT_PIC_PURPLE_59],[ENVELOPE_WORD_MAILMAN_63,VIOLET_PIC_PURPLE_59,DEBATE_WORD_SPEAK_244],[RETINA_WORD_EYE_260,NICHROME_WORD_ALLOY_264,NITINOL_WORD_ALLOY_264],[BEEF_WORD_BURGER_8,DIAMOND_WORD_GEMSTONE_186,AGENT_WORD_AI_238],[RUBY_WORD_GEMSTONE_186,AMOLED_WORD_DISPLAY_486,OLED_WORD_DISPLAY_486],[COUGH_WORD_FLU_251,STAMP_WORD_MAILMAN_63,LAVENDER_PIC_PURPLE_59],[MAIL_WORD_MAILMAN_63,CHEDDAR_WORD_CHEESE_108,BANANA_PIC_YELLOW_60],[FELON_WORD_PRISONER_312,LCD_WORD_DISPLAY_486,SAUCE_WORD_BURGER_8],[ROMANOV_WORD_DYNASTY_991,TWINS_PIC_PAIRS_63,HAMMOCK_PIC_CAMPING_64]]</t>
+  </si>
+  <si>
+    <t>[WORD_MAILMAN_63,WORD_FLU_251,WORD_MAPS_1022,WORD_HAIR_245,WORD_CHEESE_108,PIC_PURPLE_59,WORD_SPEAK_244,PIC_YELLOW_60]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_38_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,4,11]</t>
+  </si>
+  <si>
+    <t>[[DIG_WORD_SHOVEL_261,CAIRO_WORD_CAPITALS_119,DJEMBE_WORD_DRUM_518,OSLO_WORD_CAPITALS_119],[SAPPHIRE_WORD_GEMSTONE_186,BRONZE_WORD_ALLOY_264,TOPAZ_WORD_GEMSTONE_186,DATASET_WORD_AI_238],[METEOR_WORD_SPACE_314,AMOLED_WORD_DISPLAY_486,CRT_WORD_DISPLAY_486,DOG_WORD_PETS_2],[AGENT_WORD_AI_238,SKIS_PIC_PAIRS_63,SOCKS_PIC_PAIRS_63,CAMPFIRE_PIC_CAMPING_64],[DIAMOND_WORD_GEMSTONE_186,FELON_WORD_PRISONER_312,MARS_WORD_PLANET_90],[BARBELL_PIC_GYM_62,ATHENS_WORD_CAPITALS_119,ROMANOV_WORD_DYNASTY_991],[IRIS_WORD_EYE_260,CLOUD_PIC_RAIN_61,TABLA_WORD_DRUM_518],[KETTLEBELL_PIC_GYM_62,RAINCOAT_PIC_RAIN_61,BONGO_WORD_DRUM_518],[TREADMILL_PIC_GYM_62,TUDOR_WORD_DYNASTY_991,OTTAWA_WORD_CAPITALS_119],[UNEARTH_WORD_SHOVEL_261,ASHIKO_WORD_DRUM_518,DANISH_WORD_LANGUAGE_70],[NICHROME_WORD_ALLOY_264,JUPITER_WORD_PLANET_90,SATURN_WORD_PLANET_90],[POLARIS_WORD_STARS_236,NEBULA_WORD_SPACE_314,AURORA_WORD_SPACE_314],[AIR_BIKE_PIC_GYM_62,UMBRELLA_PIC_RAIN_61,ENGLISH_WORD_LANGUAGE_70],[NEPTUNE_WORD_PLANET_90,QUASAR_WORD_SPACE_314,THULIUM_WORD_METAL_272],[RHODIUM_WORD_METAL_272,LUTETIUM_WORD_METAL_272,ERBIUM_WORD_METAL_272],[RETINA_WORD_EYE_260,ROME_WORD_CAPITALS_119,POLISH_WORD_LANGUAGE_70],[LIGHTNING_PIC_RAIN_61,MADRID_WORD_CAPITALS_119,PRAGUE_WORD_CAPITALS_119],[DUMBBELL_PIC_GYM_62,JAPANESE_WORD_LANGUAGE_70,KENNEDY_WORD_DYNASTY_991],[PUDDLE_PIC_RAIN_61,HINDI_WORD_LANGUAGE_70,ITALIAN_WORD_LANGUAGE_70,BOURBON_WORD_DYNASTY_991],[PUPIL_WORD_EYE_260,RAIN_BOOTS_PIC_RAIN_61,HEBREW_WORD_LANGUAGE_70],[VENUS_WORD_PLANET_90,YTTRIUM_WORD_METAL_272,RIGEL_WORD_STARS_236],[NOVA_WORD_SPACE_314,VEGA_WORD_STARS_236,SIRIUS_WORD_STARS_236],[CHRISTMAS_STOCKING_PIC_XMAS_65,SODA_WORD_DRINKS_16,JUICE_WORD_DRINKS_16],[CHRISTMAS_TREE_PIC_XMAS_65,TRUSTY_WORD_LOCK_321,STAMP_PIC_MAIL_66],[EXCAVATE_WORD_SHOVEL_261,RIYADH_WORD_CAPITALS_119,LATIN_WORD_LANGUAGE_70]]</t>
+  </si>
+  <si>
+    <t>[WORD_SHOVEL_261,WORD_EYE_260,PIC_GYM_62,PIC_RAIN_61,WORD_CAPITALS_119,WORD_DRUM_518,WORD_DYNASTY_991,WORD_LANGUAGE_70]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_39_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,8,12]</t>
+  </si>
+  <si>
+    <t>[[RAINCOAT_PIC_RAIN_61,MARS_WORD_PLANET_90,NEPTUNE_WORD_PLANET_90,JUPITER_WORD_PLANET_90],[PULSAR_WORD_SPACE_314,ECLIPSE_WORD_SPACE_314,NEBULA_WORD_SPACE_314,ASTEROID_WORD_SPACE_314],[FELON_WORD_PRISONER_312,DATASET_WORD_AI_238,RUBY_WORD_GEMSTONE_186,CRT_WORD_DISPLAY_486],[ASHIKO_WORD_DRUM_518,YTTRIUM_WORD_METAL_272,SIRIUS_WORD_STARS_236,ALTAIR_WORD_STARS_236],[CAMPFIRE_PIC_CAMPING_64,LED_WORD_DISPLAY_486,DOG_WORD_PETS_2],[JUICE_WORD_DRINKS_16,ESPRESSO_WORD_DRINKS_16,SODA_WORD_DRINKS_16,CANDY_CANE_PIC_XMAS_65],[LIGHTNING_PIC_RAIN_61,SANTA_PIC_XMAS_65,SECURE_WORD_LOCK_321,KNEE_WORD_LEGS_322],[CORTEX_WORD_AI_238,BRASS_WORD_ALLOY_264,DIAMOND_WORD_GEMSTONE_186],[HAMSTER_WORD_PETS_2,PARROT_WORD_PETS_2,TWINS_PIC_PAIRS_63],[STAMP_PIC_MAIL_66,PARCEL_PIC_MAIL_66,JAPANESE_WORD_LANGUAGE_70,ITALIAN_WORD_LANGUAGE_70],[BRONZE_WORD_ALLOY_264,LCD_WORD_DISPLAY_486,AMOLED_WORD_DISPLAY_486,AGATE_WORD_GEMSTONE_186],[PLASMA_WORD_DISPLAY_486,NITINOL_WORD_ALLOY_264,AMALGAM_WORD_ALLOY_264],[HAMMOCK_PIC_CAMPING_64,MATRIX_WORD_AI_238,STELLITE_WORD_ALLOY_264],[TUNGSTEN_WORD_ALLOY_264,BUN_WORD_BURGER_8,SOCKS_PIC_PAIRS_63],[INMATE_WORD_PRISONER_312,NICHROME_WORD_ALLOY_264,SKIS_PIC_PAIRS_63,GARNET_WORD_GEMSTONE_186],[KETTLEBELL_PIC_GYM_62,PRAGUE_WORD_CAPITALS_119,CLOUD_PIC_RAIN_61],[CAT_WORD_PETS_2,ALNICO_WORD_ALLOY_264,SAUCE_WORD_BURGER_8,ONYX_WORD_GEMSTONE_186],[TENT_PIC_CAMPING_64,CHATBOT_WORD_AI_238,TOPAZ_WORD_GEMSTONE_186,OPAL_WORD_GEMSTONE_186],[OSLO_WORD_CAPITALS_119,PUDDLE_PIC_RAIN_61,RAIN_BOOTS_PIC_RAIN_61],[TUDOR_WORD_DYNASTY_991,AIR_BIKE_PIC_GYM_62,BARBELL_PIC_GYM_62],[NEURAL_WORD_AI_238,AGENT_WORD_AI_238,CHEESE_WORD_BURGER_8],[POLARIS_WORD_STARS_236,KENNEDY_WORD_DYNASTY_991,IRIS_WORD_EYE_260],[DETAINEE_WORD_PRISONER_312,OLED_WORD_DISPLAY_486,BEEF_WORD_BURGER_8,SAPPHIRE_WORD_GEMSTONE_186],[THULIUM_WORD_METAL_272,PUPIL_WORD_EYE_260,RETINA_WORD_EYE_260],[CHRISTMAS_TREE_PIC_XMAS_65,DIG_WORD_SHOVEL_261,EXCAVATE_WORD_SHOVEL_261]]</t>
+  </si>
+  <si>
+    <t>[WORD_ALLOY_264,WORD_DISPLAY_486,WORD_PRISONER_312,WORD_AI_238,WORD_PETS_2,PIC_CAMPING_64,PIC_PAIRS_63,WORD_BURGER_8,WORD_GEMSTONE_186]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_40_BOARD_1</t>
+  </si>
+  <si>
+    <t>[6,7,11]</t>
+  </si>
+  <si>
+    <t>[[JUPITER_WORD_PLANET_90,POLARIS_WORD_STARS_236,NEBULA_WORD_SPACE_314,NOVA_WORD_SPACE_314],[SODA_WORD_DRINKS_16,MERCURY_WORD_PLANET_90,PARCEL_PIC_MAIL_66,LUTETIUM_WORD_METAL_272],[CRT_WORD_DISPLAY_486,STELLITE_WORD_ALLOY_264,SAPPHIRE_WORD_GEMSTONE_186,DIAMOND_WORD_GEMSTONE_186],[DUMBBELL_PIC_GYM_62,DATASET_WORD_AI_238,CORTEX_WORD_AI_238,NEURAL_WORD_AI_238],[BONGO_WORD_DRUM_518,AGENT_WORD_AI_238,LED_WORD_DISPLAY_486,LCD_WORD_DISPLAY_486],[JUICE_WORD_DRINKS_16,SATURN_WORD_PLANET_90,EARTH_WORD_PLANET_90],[ANKLE_WORD_LEGS_322,RIGEL_WORD_STARS_236,ECLIPSE_WORD_SPACE_314],[ROMANOV_WORD_DYNASTY_991,DOG_WORD_PETS_2,PARROT_WORD_PETS_2,CHEESE_WORD_BURGER_8],[URANUS_WORD_PLANET_90,BEEF_WORD_BURGER_8,SKIS_PIC_PAIRS_63,TWINS_PIC_PAIRS_63],[CAT_WORD_PETS_2,INMATE_WORD_PRISONER_312,DETAINEE_WORD_PRISONER_312,ENGLISH_WORD_LANGUAGE_70],[ALTAIR_WORD_STARS_236,CHRISTMAS_TREE_PIC_XMAS_65,METEOR_WORD_SPACE_314,YTTRIUM_WORD_METAL_272],[KNEE_WORD_LEGS_322,STURDY_WORD_LOCK_321,TRUSTY_WORD_LOCK_321,RHODIUM_WORD_METAL_272],[ALKAID_WORD_STARS_236,HOLMIUM_WORD_METAL_272,PULSAR_WORD_SPACE_314],[PUDDLE_PIC_RAIN_61,HINDI_WORD_LANGUAGE_70,HEBREW_WORD_LANGUAGE_70,POLISH_WORD_LANGUAGE_70],[AGATE_WORD_GEMSTONE_186,CAIRO_WORD_CAPITALS_119,PRAGUE_WORD_CAPITALS_119,UMBRELLA_PIC_RAIN_61],[ESPRESSO_WORD_DRINKS_16,NEPTUNE_WORD_PLANET_90,SECURE_WORD_LOCK_321,AURORA_WORD_SPACE_314],[SIRIUS_WORD_STARS_236,VENUS_WORD_PLANET_90,LETTER_PIC_MAIL_66],[RUBY_WORD_GEMSTONE_186,BARBELL_PIC_GYM_62,AIR_BIKE_PIC_GYM_62],[THIGH_WORD_LEGS_322,STAMP_PIC_MAIL_66,MARS_WORD_PLANET_90],[CHATBOT_WORD_AI_238,KENNEDY_WORD_DYNASTY_991,BOURBON_WORD_DYNASTY_991],[CANDY_CANE_PIC_XMAS_65,SANTA_PIC_XMAS_65,ASTEROID_WORD_SPACE_314,ERBIUM_WORD_METAL_272],[LEMONADE_WORD_DRINKS_16,QUASAR_WORD_SPACE_314,CHRISTMAS_STOCKING_PIC_XMAS_65],[RAINCOAT_PIC_RAIN_61,ASHIKO_WORD_DRUM_518,TABLA_WORD_DRUM_518],[TREADMILL_PIC_GYM_62,PUPIL_WORD_EYE_260,UNEARTH_WORD_SHOVEL_261],[VEGA_WORD_STARS_236,EUROPIUM_WORD_METAL_272,IRIDIUM_WORD_METAL_272,THULIUM_WORD_METAL_272]]</t>
+  </si>
+  <si>
+    <t>[WORD_DRINKS_16,WORD_STARS_236,WORD_LEGS_322,PIC_XMAS_65,WORD_PLANET_90,WORD_LOCK_321,WORD_METAL_272,PIC_MAIL_66,WORD_SPACE_314]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -253,38 +752,368 @@
       <sz val="10"/>
       <color rgb="FF980000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -292,16 +1121,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -311,21 +1385,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -374,7 +1492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -407,26 +1525,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -459,23 +1560,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,384 +1701,2150 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2FC260-BBBF-9442-A55F-1BAE7B626E79}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>58</v>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="46" spans="1:19">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="1">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="1">
+        <v>100</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="1">
+        <v>95</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="1">
+        <v>95</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="1">
+        <v>105</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="1">
+        <v>105</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="1">
+        <v>105</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="1">
+        <v>120</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="1">
+        <v>120</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1">
+        <v>135</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1">
+        <v>90</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1">
+        <v>100</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1">
+        <v>115</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1">
+        <v>130</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1">
+        <v>150</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="1">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1">
+        <v>130</v>
+      </c>
+      <c r="S21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1">
+        <v>130</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1">
+        <v>140</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="1">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1">
+        <v>155</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="1">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="42">
-      <c r="A3" s="2" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1">
+        <v>165</v>
+      </c>
+      <c r="S25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="1">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1">
+        <v>140</v>
+      </c>
+      <c r="S26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="1">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1">
+        <v>145</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="1">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1">
+        <v>150</v>
+      </c>
+      <c r="S28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1">
+        <v>155</v>
+      </c>
+      <c r="S29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="1">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1">
+        <v>165</v>
+      </c>
+      <c r="S30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="1">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1">
+        <v>150</v>
+      </c>
+      <c r="S31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="1">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1">
+        <v>135</v>
+      </c>
+      <c r="S32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="1">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="1">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1">
+        <v>145</v>
+      </c>
+      <c r="S33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="1">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1">
+        <v>160</v>
+      </c>
+      <c r="S34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1">
+        <v>165</v>
+      </c>
+      <c r="S35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="1">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1">
+        <v>130</v>
+      </c>
+      <c r="S36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="1">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1">
+        <v>135</v>
+      </c>
+      <c r="S37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="1">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
         <v>34</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1">
+        <v>145</v>
+      </c>
+      <c r="S38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="1">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
         <v>35</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>3</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1">
+        <v>135</v>
+      </c>
+      <c r="S39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="1">
+        <v>35</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
         <v>36</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1">
+        <v>140</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="1">
+        <v>36</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
         <v>37</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" s="1">
+        <v>3</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1">
+        <v>110</v>
+      </c>
+      <c r="S41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="1">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
         <v>38</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" s="1">
+        <v>4</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1">
+        <v>115</v>
+      </c>
+      <c r="S42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="1">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
         <v>39</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="1">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1">
+        <v>125</v>
+      </c>
+      <c r="S43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="1">
+        <v>39</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1">
+        <v>135</v>
+      </c>
+      <c r="S44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
+      <c r="A45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K45" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="L45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1">
+        <v>140</v>
+      </c>
+      <c r="S45" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/level_config.xlsx
+++ b/config/level_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12800"/>
+    <workbookView windowWidth="29400" windowHeight="12740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -195,13 +195,13 @@
     <t>SORT_GAME_LEVE_1_BOARD_1</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[[PANTS_PIC_GARMENTS_7],[AFRICA_WORD_LANDMASS_10],[ASIA_WORD_LANDMASS_10],[GLOVES_PIC_GARMENTS_7],[LIQUID_WORD_PHASE_57],[SOLID_WORD_PHASE_57],[PAPER_WORD_BOOK_9],[SKIRT_PIC_GARMENTS_7],[ORANGE_PIC_FRUITS_9],[JACKET_PIC_GARMENTS_7],[GAS_WORD_PHASE_57],[NEW_YEAR_WORD_HOLIDAY_163],[EUROPE_WORD_LANDMASS_10],[KIWI_PIC_FRUITS_9],[SHIRT_PIC_GARMENTS_7,BANANA_PIC_FRUITS_9],[CONSENT_WORD_OK_SIGN_301],[COAT_PIC_GARMENTS_7],[DRESS_PIC_GARMENTS_7],[DRAWING_WORD_ARTWORKS_211],[COVER_WORD_BOOK_9],[FLAG_DAY_WORD_HOLIDAY_163],[PAGE_WORD_BOOK_9],[PASSION_WORD_HEART_344],[OKAY_WORD_OK_SIGN_301],[PANTIES_PIC_GARMENTS_7]]</t>
-  </si>
-  <si>
-    <t>[WORD_BOOK_9,WORD_PHASE_57,PIC_GARMENTS_7,WORD_LANDMASS_10]</t>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[[PROPANE_WORD_FUELS_190],[ASIA_WORD_LANDMASS_10,PANTS_PIC_GARMENTS_7],[HOWDY_WORD_HELLO_295],[BIKE_WORD_STREET_768],[WALRUS_WORD_ARCTIC_180],[HEY_WORD_HELLO_295],[AFRICA_WORD_LANDMASS_10,GLOVES_PIC_GARMENTS_7],[SNOWY_OWL_WORD_ARCTIC_180],[COUPLE_WORD_HEART_344],[DIESEL_WORD_FUELS_190],[GASOLINE_WORD_FUELS_190],[SHIRT_PIC_GARMENTS_7],[CORNER_WORD_STREET_768],[HI_WORD_HELLO_295],[OKAY_WORD_OK_SIGN_301],[BUTTER_WORD_DAIRY_30],[DRESS_PIC_GARMENTS_7],[DRIVER_WORD_STREET_768],[YOGURT_WORD_DAIRY_30],[KEROSENE_WORD_FUELS_190],[COAL_WORD_FUELS_190],[EUROPE_WORD_LANDMASS_10],[POLAR_BEAR_WORD_ARCTIC_180],[ROMANCE_WORD_HEART_344],[CREAM_WORD_DAIRY_30]]</t>
+  </si>
+  <si>
+    <t>[WORD_LANDMASS_10,PIC_GARMENTS_7]</t>
   </si>
   <si>
     <t>CONSTRUCTION_1_STORE_REWARD_6_1</t>
@@ -216,301 +216,289 @@
     <t>SORT_GAME_LEVE_2_BOARD_1</t>
   </si>
   <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[[THOSE_WORD_POINTING_379,FABLE_WORD_LEGENDS_291],[MYTH_WORD_LEGENDS_291,UNION_WORD_UNITE_126],[OILY_WORD_SKIN_380],[NORMAL_WORD_SKIN_380],[SUPPORT_WORD_HELP_183],[BURGER_WORD_FOOD_3],[BANANA_PIC_FRUITS_9],[NEW_YEAR_WORD_HOLIDAY_163],[FLAG_DAY_WORD_HOLIDAY_163],[SIGNPOST_WORD_NAVIGATE_230],[FORCE_WORD_STRENGTH_401],[DONATE_WORD_HELP_183],[ASSIST_WORD_HELP_183],[ORANGE_PIC_FRUITS_9],[FALSIFY_WORD_LIE_492],[THAT_WORD_POINTING_379],[APPLE_PIC_FRUITS_9],[EASTER_WORD_HOLIDAY_163],[HOT_DOG_WORD_FOOD_3],[LEAGUE_WORD_UNITE_126],[KIWI_PIC_FRUITS_9],[PIZZA_WORD_FOOD_3],[THIS_WORD_POINTING_379],[TALE_WORD_LEGENDS_291],[FRIES_WORD_FOOD_3]]</t>
+  </si>
+  <si>
+    <t>[WORD_HOLIDAY_163,WORD_HELP_183,PIC_FRUITS_9]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_2</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_2_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_3_BOARD_1</t>
+  </si>
+  <si>
     <t>[10]</t>
   </si>
   <si>
-    <t>[[POMEGRANATE_PIC_FRUITS_9],[OILY_WORD_SKIN_380],[DONATE_WORD_HELP_183],[PEACH_PIC_FRUITS_9],[ASSIST_WORD_HELP_183],[KING_PIC_CHESS_1],[SUPPORT_WORD_HELP_183],[PHOTO_WORD_ARTWORKS_211],[HEY_WORD_HELLO_295],[KIWI_PIC_FRUITS_9],[DRAWING_WORD_ARTWORKS_211],[FRIES_WORD_FOOD_3],[BANANA_PIC_FRUITS_9],[BURGER_WORD_FOOD_3],[NEW_YEAR_WORD_HOLIDAY_163],[FLAG_DAY_WORD_HOLIDAY_163],[PAWN_PIC_CHESS_1],[CONSENT_WORD_OK_SIGN_301],[PINEAPPLE_PIC_FRUITS_9,KNIGHT_PIC_CHESS_1],[WATERMELON_PIC_FRUITS_9],[ORANGE_PIC_FRUITS_9,BISHOP_PIC_CHESS_1],[PAINTING_WORD_ARTWORKS_211],[APPLE_PIC_FRUITS_9],[ROOK_PIC_CHESS_1],[EASTER_WORD_HOLIDAY_163]]</t>
-  </si>
-  <si>
-    <t>[WORD_ARTWORKS_211,WORD_HOLIDAY_163,PIC_FRUITS_9,WORD_HELP_183]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_2</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_2_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_3_BOARD_1</t>
+    <t>[[NOW_WORD_PRESENT_470,BURGER_WORD_FOOD_3],[DRY_WORD_SKIN_380],[PAWN_PIC_CHESS_1],[NORMAL_WORD_SKIN_380],[ROOK_PIC_CHESS_1],[KNIGHT_PIC_CHESS_1],[CONSENT_WORD_OK_SIGN_301],[COUPLE_WORD_HEART_344],[CODE_WORD_SECRET_471],[ROMANCE_WORD_HEART_344],[HOWDY_WORD_HELLO_295],[THIS_WORD_POINTING_379],[BISHOP_PIC_CHESS_1],[LUNCH_WORD_MEALS_444],[HEY_WORD_HELLO_295],[MIGHT_WORD_STRENGTH_401],[LETTER_WORD_MESSAGE_407],[WORD_WORD_SECRET_471],[FRIES_WORD_FOOD_3],[PASSION_WORD_HEART_344],[THOSE_WORD_POINTING_379],[HI_WORD_HELLO_295],[YES_WORD_OK_SIGN_301],[TEXT_WORD_MESSAGE_407],[OKAY_WORD_OK_SIGN_301]]</t>
+  </si>
+  <si>
+    <t>[WORD_HELLO_295,WORD_HEART_344,WORD_OK_SIGN_301,PIC_CHESS_1]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_3</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_3_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_4_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,6]</t>
+  </si>
+  <si>
+    <t>[[OILY_WORD_SKIN_380],[POWER_WORD_STRENGTH_401,EMAIL_WORD_MESSAGE_407],[DINNER_WORD_MEALS_444],[FRIES_WORD_FOOD_3],[ESSAY_WORD_ARTICLES_147],[THOSE_WORD_POINTING_379],[FORCE_WORD_STRENGTH_401],[CAR_WORD_DRIVING_49],[CODE_WORD_SECRET_471],[CHAIR_PIC_FURNITURE_3],[BURGER_WORD_FOOD_3],[NORMAL_WORD_SKIN_380],[MIGHT_WORD_STRENGTH_401],[SOFA_PIC_FURNITURE_3],[PIZZA_WORD_FOOD_3],[THAT_WORD_POINTING_379],[SIGN_WORD_DRIVING_49],[SUCCESS_WORD_WREATH_544],[TABLE_PIC_FURNITURE_3],[DESK_PIC_FURNITURE_3],[DRY_WORD_SKIN_380],[THIS_WORD_POINTING_379],[OPINION_WORD_ARTICLES_147],[HOT_DOG_WORD_FOOD_3],[ROAD_WORD_DRIVING_49]]</t>
+  </si>
+  <si>
+    <t>[WORD_FOOD_3,WORD_POINTING_379,WORD_SKIN_380,PIC_FURNITURE_3,WORD_STRENGTH_401]</t>
+  </si>
+  <si>
+    <t>BIG_SCREEN</t>
+  </si>
+  <si>
+    <t>TID_BUILD_LIST_FIX_BIG_SCREEN</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_5_BOARD_1</t>
+  </si>
+  <si>
+    <t>[5,8]</t>
+  </si>
+  <si>
+    <t>[[SPRING_WORD_SEASONS_18,TRIUMPH_WORD_WREATH_544],[BOXING_PIC_SPORTS_2,LEMON_WORD_CITRUS_173],[CODE_WORD_SECRET_471],[TENNIS_PIC_SPORTS_2],[LETTER_WORD_MESSAGE_407],[RUGBY_PIC_SPORTS_2],[NOW_WORD_PRESENT_470],[CURLING_PIC_SPORTS_2],[TEXT_WORD_MESSAGE_407],[ROAD_WORD_DRIVING_49],[TODAY_WORD_PRESENT_470],[LUNCH_WORD_MEALS_444],[AGENT_WORD_SECRET_471],[BAIT_WORD_FISHING_20],[CURRENT_WORD_PRESENT_470],[WORD_WORD_SECRET_471],[SUCCESS_WORD_WREATH_544],[EMAIL_WORD_MESSAGE_407],[GOLF_PIC_SPORTS_2],[SOCCER_PIC_SPORTS_2],[FAX_WORD_MESSAGE_407],[HOCKEY_PIC_SPORTS_2],[TABLE_TENNIS_PIC_SPORTS_2],[SUPPER_WORD_MEALS_444],[DINNER_WORD_MEALS_444]]</t>
+  </si>
+  <si>
+    <t>[PIC_SPORTS_2,WORD_PRESENT_470,WORD_MEALS_444,WORD_MESSAGE_407,WORD_SECRET_471]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_4</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_5_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_6_BOARD_1</t>
+  </si>
+  <si>
+    <t>[[HEATER_WORD_DEVICE_38,WINTER_WORD_SEASONS_18],[OPINION_WORD_ARTICLES_147],[ROAD_WORD_DRIVING_49,KNEE_WORD_LEGS_322],[SUCCESS_WORD_WREATH_544],[VIOLIN_PIC_PLAY_12],[ORGAN_PIC_PLAY_12],[ICEBERG_WORD_SNOW_77],[FLAKE_WORD_SNOW_77],[SIGN_WORD_DRIVING_49],[FLOWERS_WORD_DATE_87],[BOBBER_WORD_FISHING_20],[TRAFFIC_WORD_DRIVING_49],[SUMMER_WORD_SEASONS_18],[PIANO_PIC_PLAY_12],[VICTORY_WORD_WREATH_544],[UKULELE_PIC_PLAY_12],[FLUTE_PIC_PLAY_12],[ESSAY_WORD_ARTICLES_147],[SLEET_WORD_SNOW_77],[TRIUMPH_WORD_WREATH_544,SPRING_WORD_SEASONS_18],[CAR_WORD_DRIVING_49,AUTUMN_WORD_SEASONS_18],[CELLO_PIC_PLAY_12],[GUITAR_PIC_PLAY_12],[REVIEW_WORD_ARTICLES_147,LEMON_WORD_CITRUS_173],[DRUM_PIC_PLAY_12]]</t>
+  </si>
+  <si>
+    <t>[WORD_WREATH_544,WORD_ARTICLES_147,WORD_DRIVING_49,PIC_PLAY_12,WORD_SNOW_77]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_5</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_6_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_7_BOARD_1</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[[BAIT_WORD_FISHING_20],[ROD_WORD_FISHING_20,GLASS_WORD_MATERIAL_27],[KEPI_PIC_HATS_11,SECURITY_WORD_DEFENSE_277],[TURBAN_PIC_HATS_11],[STONE_WORD_MATERIAL_27],[KNEE_WORD_LEGS_322],[POMELO_WORD_CITRUS_173],[AUTUMN_WORD_SEASONS_18],[SPRING_WORD_SEASONS_18,METAL_WORD_MATERIAL_27],[HAT_PIC_HATS_11],[BOBBER_WORD_FISHING_20],[PLASTIC_WORD_MATERIAL_27],[LEMON_WORD_CITRUS_173],[CAP_PIC_HATS_11],[SHOWERS_WORD_RAINY_100],[VISOR_PIC_HATS_11],[ANKLE_WORD_LEGS_322],[SOMBRERO_PIC_HATS_11],[PATROL_WORD_DEFENSE_277],[THIGH_WORD_LEGS_322],[WINTER_WORD_SEASONS_18],[SUMMER_WORD_SEASONS_18],[BERET_PIC_HATS_11],[LIME_WORD_CITRUS_173],[PANAMA_HAT_PIC_HATS_11,DRYER_WORD_DEVICE_38]]</t>
+  </si>
+  <si>
+    <t>[WORD_SEASONS_18,WORD_FISHING_20,WORD_CITRUS_173,WORD_LEGS_322,PIC_HATS_11]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_6</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_7_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_8_BOARD_1</t>
+  </si>
+  <si>
+    <t>[4,11]</t>
+  </si>
+  <si>
+    <t>[[SURF_WORD_COAST_969],[PUDDLES_WORD_RAINY_100,GUARD_WORD_DEFENSE_277],[DRYER_WORD_DEVICE_38,HAMMOCK_WORD_CAMPING_221],[TUXEDO_WORD_DATE_87,KARATE_WORD_COMBAT_121],[FLOWERS_WORD_DATE_87,SLEDDING_WORD_SLIDING_339],[SHOWERS_WORD_RAINY_100,FAMOUS_WORD_FAME_161],[COUPLE_WORD_DATE_87],[PLASTIC_WORD_MATERIAL_27],[STONE_WORD_MATERIAL_27],[METAL_WORD_MATERIAL_27],[STOOL_PIC_CHAIR_10],[OTTOMAN_PIC_CHAIR_10],[RECLINER_PIC_CHAIR_10],[HEATER_WORD_DEVICE_38,ICONIC_WORD_FAME_161],[LOVESEAT_PIC_CHAIR_10],[ARMCHAIR_PIC_CHAIR_10],[BEANBAG_PIC_CHAIR_10,CLIFF_WORD_COAST_969],[THRONE_PIC_CHAIR_10],[CUSHION_PIC_CHAIR_10],[FAX_WORD_DEVICE_38],[PATROL_WORD_DEFENSE_277],[PRINTER_WORD_DEVICE_38],[GLASS_WORD_MATERIAL_27],[CLOUDS_WORD_RAINY_100],[BEACH_WORD_COAST_969]]</t>
+  </si>
+  <si>
+    <t>[WORD_RAINY_100,WORD_MATERIAL_27,WORD_DATE_87,WORD_DEVICE_38,PIC_CHAIR_10,WORD_COAST_969]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_7</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_8_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_9_BOARD_1</t>
+  </si>
+  <si>
+    <t>[8,12]</t>
+  </si>
+  <si>
+    <t>[[VACUUM_PIC_CLEANING_13,SAVATE_WORD_COMBAT_121],[PATROL_WORD_DEFENSE_277,SILAT_WORD_COMBAT_121],[SPEEDWAY_WORD_RACING_182],[GUARD_WORD_DEFENSE_277,SKELETON_WORD_SLIDING_339],[PIT_STOP_WORD_RACING_182],[KING_WORD_CROWN_194,POLAR_BEAR_WORD_ARCTIC_180],[BROOM_PIC_CLEANING_13],[HAMMOCK_WORD_CAMPING_221],[CCTV_WORD_DEFENSE_277],[SECURITY_WORD_DEFENSE_277],[DUSTPAN_PIC_CLEANING_13],[CAMPFIRE_WORD_CAMPING_221],[BIN_PIC_CLEANING_13],[DUSTER_PIC_CLEANING_13,JUDO_WORD_COMBAT_121],[BUCKET_PIC_CLEANING_13],[EMPEROR_WORD_CROWN_194],[POPULAR_WORD_FAME_161],[MAHARAJA_WORD_CROWN_194],[ICONIC_WORD_FAME_161],[MOP_PIC_CLEANING_13,KARATE_WORD_COMBAT_121],[TENT_WORD_CAMPING_221,FINISH_WORD_RACING_182],[LUGE_WORD_SLIDING_339],[RENOWN_WORD_FAME_161],[FAMOUS_WORD_FAME_161],[SPONGE_PIC_CLEANING_13,KUNG_FU_WORD_COMBAT_121]]</t>
+  </si>
+  <si>
+    <t>[WORD_CAMPING_221,WORD_FAME_161,PIC_CLEANING_13,WORD_CROWN_194,WORD_DEFENSE_277,WORD_RACING_182]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_8</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_9_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_10_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>[[COMFY_WORD_COZY_58,BRICK_WORD_STREET_768],[ACE_OF_HEARTS_PIC_DECK_4,BIKE_WORD_STREET_768],[SKIING_WORD_SLIDING_339,CORNER_WORD_STREET_768],[JUDO_WORD_COMBAT_121,MYTH_WORD_LEGENDS_291],[AIR_BIKE_WORD_GYM_164,SAGA_WORD_LEGENDS_291],[YACHT_WORD_LUXURY_133],[DUMBBELL_WORD_GYM_164],[QUEEN_HEARTS_PIC_DECK_4],[SILAT_WORD_COMBAT_121],[LUGE_WORD_SLIDING_339,KUNG_FU_WORD_COMBAT_121],[KING_HEARTS_PIC_DECK_4,KARATE_WORD_COMBAT_121],[SLEDDING_WORD_SLIDING_339],[SAVATE_WORD_COMBAT_121],[SKATING_WORD_SLIDING_339,GAVEL_WORD_JUSTICE_310],[JEWELRY_WORD_LUXURY_133,SCALES_WORD_JUSTICE_310],[WARM_WORD_COZY_58,FALSIFY_WORD_LIE_492],[CAVIAR_WORD_LUXURY_133,MISLEAD_WORD_LIE_492],[COURT_WORD_JUSTICE_310,SEXTANT_WORD_NAVIGATE_230],[SKELETON_WORD_SLIDING_339],[COAL_WORD_FUELS_190],[SNUG_WORD_COZY_58],[SUMO_WORD_COMBAT_121],[LAW_WORD_JUSTICE_310],[BARBELL_WORD_GYM_164],[WATCH_WORD_LUXURY_133,GASOLINE_WORD_FUELS_190]]</t>
+  </si>
+  <si>
+    <t>[WORD_GYM_164,WORD_COZY_58,WORD_COMBAT_121,WORD_LUXURY_133,PIC_DECK_4,WORD_SLIDING_339,WORD_JUSTICE_310]</t>
+  </si>
+  <si>
+    <t>DECK_CLEAN_COMMON</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_LEVEL_DEFAULT_DESC</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_11_BOARD_1</t>
+  </si>
+  <si>
+    <t>[[COAL_WORD_FUELS_190],[GEMINI_PIC_ZODIAC_5,MYTH_WORD_LEGENDS_291],[TALE_WORD_LEGENDS_291,FALSIFY_WORD_LIE_492],[BIKE_WORD_STREET_768,COMPASS_WORD_NAVIGATE_230],[TAURUS_PIC_ZODIAC_5,SEXTANT_WORD_NAVIGATE_230],[YOGURT_WORD_DAIRY_30],[YOGA_WORD_FITNESS_110,PILATES_WORD_FITNESS_110],[GASOLINE_WORD_FUELS_190,SPIDER_WORD_NO_BONES_289],[FABLE_WORD_LEGENDS_291],[ARIES_PIC_ZODIAC_5],[CREAM_WORD_DAIRY_30],[WALRUS_WORD_ARCTIC_180],[SIGNPOST_WORD_NAVIGATE_230],[BUTTER_WORD_DAIRY_30],[PROPANE_WORD_FUELS_190],[POLAR_BEAR_WORD_ARCTIC_180,SNOWY_OWL_WORD_ARCTIC_180],[REINDEER_WORD_ARCTIC_180],[DIESEL_WORD_FUELS_190],[GYM_WORD_FITNESS_110],[LEAGUE_WORD_UNITE_126],[KEROSENE_WORD_FUELS_190],[BRICK_WORD_STREET_768],[WOUND_WORD_INJURIES_249],[CORNER_WORD_STREET_768],[DRIVER_WORD_STREET_768]]</t>
+  </si>
+  <si>
+    <t>[WORD_DAIRY_30,WORD_STREET_768,WORD_FUELS_190,PIC_ZODIAC_5,WORD_ARCTIC_180]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_12_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,4]</t>
+  </si>
+  <si>
+    <t>[[MYTH_WORD_LEGENDS_291,JOGGING_WORD_FITNESS_110],[MISLEAD_WORD_LIE_492,WORM_WORD_NO_BONES_289],[FABLE_WORD_LEGENDS_291,SPIDER_WORD_NO_BONES_289],[HORROR_WORD_CINEMA_6,SPRAIN_WORD_INJURIES_249],[WRENCH_PIC_TOOLBOX_6,DRACO_WORD_PATTERN_188],[SIGNPOST_WORD_NAVIGATE_230],[SAGA_WORD_LEGENDS_291],[POPCORN_WORD_CINEMA_6],[WORKOUT_WORD_FITNESS_110],[TALE_WORD_LEGENDS_291],[FALSIFY_WORD_LIE_492],[LEAGUE_WORD_UNITE_126],[PLIERS_PIC_TOOLBOX_6],[SEXTANT_WORD_NAVIGATE_230],[COMPASS_WORD_NAVIGATE_230],[DRILL_PIC_TOOLBOX_6],[BROCCOLI_PIC_VEGGIE_8],[DECEIVE_WORD_LIE_492,UNION_WORD_UNITE_126],[EPIC_WORD_LEGENDS_291],[ADHESIVE_TAPE_PIC_TOOLBOX_6,ALLIANCE_WORD_UNITE_126],[SCORPIUS_WORD_PATTERN_188],[CABBAGE_PIC_VEGGIE_8],[ROSE_WORD_FLOWERS_4],[DELUDE_WORD_LIE_492],[POTATO_PIC_VEGGIE_8]]</t>
+  </si>
+  <si>
+    <t>[WORD_NAVIGATE_230,WORD_LIE_492,PIC_TOOLBOX_6,WORD_LEGENDS_291,PIC_VEGGIE_8,WORD_UNITE_126]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_13_BOARD_1</t>
+  </si>
+  <si>
+    <t>[[GYM_WORD_FITNESS_110,WESTERN_WORD_CINEMA_6],[BARBERRY_WORD_BERRY_116,VICTORIA_WORD_WATER_152],[JOGGING_WORD_FITNESS_110],[OXFORDS_PIC_SHOES_14,PEONY_WORD_FLOWERS_4],[INDIA_PIC_MAP_15,PURSUIT_WORD_QUEST_680],[HEBREW_WORD_LANGUAGE_70,ITALIAN_WORD_LANGUAGE_70],[FRACTURE_WORD_INJURIES_249,QUEENS_WORD_NEW_YORK_287],[BARNACLE_WORD_NO_BONES_289],[SONGKRAN_WORD_FESTIVAL_270,DURIAN_WORD_SPIKY_78],[AUSTRALIA_PIC_MAP_15],[PREACHER_WORD_PRIEST_1019],[HOLI_WORD_FESTIVAL_270],[BRUISE_WORD_INJURIES_249,HEELS_PIC_SHOES_14],[WORM_WORD_NO_BONES_289],[YOGA_WORD_FITNESS_110],[DIWALI_WORD_FESTIVAL_270],[WORKOUT_WORD_FITNESS_110,DRAMA_WORD_CINEMA_6],[CARDIO_WORD_FITNESS_110,FLATS_PIC_SHOES_14],[SPIDER_WORD_NO_BONES_289],[PILATES_WORD_FITNESS_110],[ITALY_PIC_MAP_15],[SQUID_WORD_NO_BONES_289],[SPRAIN_WORD_INJURIES_249],[WOUND_WORD_INJURIES_249],[STARFISH_WORD_NO_BONES_289,BOOTS_PIC_SHOES_14]]</t>
+  </si>
+  <si>
+    <t>[WORD_FITNESS_110,PIC_MAP_15,WORD_NO_BONES_289,WORD_INJURIES_249,WORD_FESTIVAL_270,PIC_SHOES_14]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_14_BOARD_1</t>
+  </si>
+  <si>
+    <t>[6,9]</t>
+  </si>
+  <si>
+    <t>[[INQUIRY_WORD_QUEST_680,DRAMA_WORD_CINEMA_6],[WESTERN_WORD_CINEMA_6,SOHO_WORD_NEW_YORK_287],[HAVASU_WORD_WATER_152,COUNTRY_WORD_DIVISION_242],[SWAN_PIC_BIRD_16,TICKET_WORD_CINEMA_6],[HUNT_WORD_QUEST_680,STATE_WORD_DIVISION_242],[YOSEMITE_WORD_WATER_152],[LOBSTER_PIC_SEAFOOD_17,REGION_WORD_DIVISION_242],[ROSE_WORD_FLOWERS_4,BIBLE_WORD_PRIEST_1019],[MUSSEL_PIC_SEAFOOD_17],[PEONY_WORD_FLOWERS_4,CLERIC_WORD_PRIEST_1019],[TULIP_WORD_FLOWERS_4],[VICTORIA_WORD_WATER_152,MULBERRY_WORD_BERRY_116],[PERSEUS_WORD_PATTERN_188,RUNWAY_WORD_AIRPORT_29],[EAGLE_PIC_BIRD_16],[DRACO_WORD_PATTERN_188],[NIAGARA_WORD_WATER_152,HORROR_WORD_CINEMA_6],[SERPENS_WORD_PATTERN_188,ENGLISH_WORD_LANGUAGE_70],[POPCORN_WORD_CINEMA_6],[DOVE_PIC_BIRD_16,COMEDY_WORD_CINEMA_6],[OYSTER_PIC_SEAFOOD_17],[CYGNUS_WORD_PATTERN_188],[PURSUIT_WORD_QUEST_680],[LILY_WORD_FLOWERS_4],[SCORPIUS_WORD_PATTERN_188],[ORION_WORD_PATTERN_188,ITALIAN_WORD_LANGUAGE_70]]</t>
+  </si>
+  <si>
+    <t>[WORD_FLOWERS_4,WORD_CINEMA_6,WORD_QUEST_680,WORD_PATTERN_188,WORD_WATER_152,PIC_SEAFOOD_17,PIC_BIRD_16]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_15_BOARD_1</t>
+  </si>
+  <si>
+    <t>[4,8]</t>
+  </si>
+  <si>
+    <t>[[DANISH_WORD_LANGUAGE_70,HAMMER_WORD_AUCTION_215],[BEAGLE_PIC_DOGS_18,ZEN_WORD_MEDITATE_160],[TRIBECA_WORD_NEW_YORK_287,HUSKY_PIC_DOGS_18],[HEBREW_WORD_LANGUAGE_70,BREATH_WORD_MEDITATE_160],[CITY_WORD_DIVISION_242,FREEDOM_WORD_HIPPIE_349],[LATIN_WORD_LANGUAGE_70,SNEAKERS_WORD_FOOTWEAR_46],[STATE_WORD_DIVISION_242,LOAFERS_WORD_FOOTWEAR_46],[ITALIAN_WORD_LANGUAGE_70],[POODLE_PIC_DOGS_18,MULBERRY_WORD_BERRY_116],[SOHO_WORD_NEW_YORK_287,TERRIER_PIC_DOGS_18],[SPANIEL_PIC_DOGS_18,UGGS_WORD_FOOTWEAR_46],[BRONX_WORD_NEW_YORK_287,BISHOP_WORD_CHESS_17],[QUEENS_WORD_NEW_YORK_287],[BIBLE_WORD_PRIEST_1019,COLUMBUS_WORD_EXPLORER_51],[PREACHER_WORD_PRIEST_1019],[SAINT_WORD_PRIEST_1019,CACTUS_WORD_SPIKY_78],[ASTORIA_WORD_NEW_YORK_287],[HARLEM_WORD_NEW_YORK_287,BILBERRY_WORD_BERRY_116],[JAPANESE_WORD_LANGUAGE_70,DURIAN_WORD_SPIKY_78],[HINDI_WORD_LANGUAGE_70,HEDGEHOG_WORD_SPIKY_78],[POLISH_WORD_LANGUAGE_70],[REGION_WORD_DIVISION_242],[CLERIC_WORD_PRIEST_1019,BARBERRY_WORD_BERRY_116],[COUNTRY_WORD_DIVISION_242,LOT_WORD_AUCTION_215],[ENGLISH_WORD_LANGUAGE_70]]</t>
+  </si>
+  <si>
+    <t>[WORD_NEW_YORK_287,WORD_LANGUAGE_70,WORD_DIVISION_242,WORD_PRIEST_1019,PIC_DOGS_18,WORD_SPIKY_78,WORD_BERRY_116]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_16_BOARD_1</t>
   </si>
   <si>
     <t>[11]</t>
   </si>
   <si>
-    <t>[[HI_WORD_HELLO_295],[KING_PIC_CHESS_1,FRIES_WORD_FOOD_3],[PAWN_PIC_CHESS_1],[PIZZA_WORD_FOOD_3],[CODE_WORD_SECRET_471],[DESK_PIC_FURNITURE_3],[PASSION_WORD_HEART_344],[THOSE_WORD_POINTING_379],[BISHOP_PIC_CHESS_1],[OKAY_WORD_OK_SIGN_301],[ROMANCE_WORD_HEART_344],[COUPLE_WORD_HEART_344],[YES_WORD_OK_SIGN_301],[QUEEN_PIC_CHESS_1],[TABLE_PIC_FURNITURE_3],[ROOK_PIC_CHESS_1],[CHESS_CLOCK_PIC_CHESS_1],[BURGER_WORD_FOOD_3],[HEY_WORD_HELLO_295],[CONSENT_WORD_OK_SIGN_301],[CHESSBOARD_PIC_CHESS_1],[MIGHT_WORD_STRENGTH_401],[CHAIR_PIC_FURNITURE_3],[KNIGHT_PIC_CHESS_1],[HOWDY_WORD_HELLO_295]]</t>
-  </si>
-  <si>
-    <t>[WORD_HELLO_295,WORD_HEART_344,WORD_OK_SIGN_301,PIC_CHESS_1]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_3</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_3_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_4_BOARD_1</t>
-  </si>
-  <si>
-    <t>[2,9]</t>
-  </si>
-  <si>
-    <t>[[FORCE_WORD_STRENGTH_401,GUITAR_PIC_PLAY_12],[MIGHT_WORD_STRENGTH_401],[CAR_WORD_DRIVING_49],[THIS_WORD_POINTING_379],[PIZZA_WORD_FOOD_3],[OILY_WORD_SKIN_380],[POWER_WORD_STRENGTH_401],[CHAIR_PIC_FURNITURE_3],[THOSE_WORD_POINTING_379],[SOFA_PIC_FURNITURE_3],[VICTORY_WORD_WREATH_544],[EMAIL_WORD_MESSAGE_407],[WALK_WORD_MOVEMENT_52],[FRIES_WORD_FOOD_3],[RUGBY_PIC_SPORTS_2],[THAT_WORD_POINTING_379,HOCKEY_PIC_SPORTS_2],[DESK_PIC_FURNITURE_3],[NORMAL_WORD_SKIN_380],[TABLE_PIC_FURNITURE_3],[BURGER_WORD_FOOD_3],[KICK_WORD_MOVEMENT_52],[WORD_WORD_SECRET_471],[VIOLIN_PIC_PLAY_12],[HOT_DOG_WORD_FOOD_3],[DRY_WORD_SKIN_380]]</t>
-  </si>
-  <si>
-    <t>[WORD_FOOD_3,WORD_POINTING_379,WORD_SKIN_380,PIC_FURNITURE_3,WORD_STRENGTH_401]</t>
-  </si>
-  <si>
-    <t>BIG_SCREEN</t>
-  </si>
-  <si>
-    <t>TID_BUILD_LIST_FIX_BIG_SCREEN</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_5_BOARD_1</t>
-  </si>
-  <si>
-    <t>[8,12]</t>
-  </si>
-  <si>
-    <t>[[FAX_WORD_MESSAGE_407,JUMP_WORD_MOVEMENT_52],[GUITAR_PIC_PLAY_12,ICEBERG_WORD_SNOW_77],[NOW_WORD_PRESENT_470],[DINNER_WORD_MEALS_444],[TEXT_WORD_MESSAGE_407],[AGENT_WORD_SECRET_471],[RUGBY_PIC_SPORTS_2,ORGAN_PIC_PLAY_12],[WORD_WORD_SECRET_471],[EMAIL_WORD_MESSAGE_407],[TENNIS_PIC_SPORTS_2],[TODAY_WORD_PRESENT_470],[TABLE_TENNIS_PIC_SPORTS_2],[SUPPER_WORD_MEALS_444],[HAT_PIC_HATS_11],[TRAFFIC_WORD_DRIVING_49],[SOCCER_PIC_SPORTS_2],[BOXING_PIC_SPORTS_2],[CURLING_PIC_SPORTS_2],[CURRENT_WORD_PRESENT_470],[LUNCH_WORD_MEALS_444,VIOLIN_PIC_PLAY_12],[LETTER_WORD_MESSAGE_407],[CAR_WORD_DRIVING_49],[HOCKEY_PIC_SPORTS_2],[GOLF_PIC_SPORTS_2],[CODE_WORD_SECRET_471]]</t>
-  </si>
-  <si>
-    <t>[PIC_SPORTS_2,WORD_PRESENT_470,WORD_MEALS_444,WORD_MESSAGE_407,WORD_SECRET_471]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_4</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_5_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_6_BOARD_1</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[[ROAD_WORD_DRIVING_49,FAX_WORD_DEVICE_38],[VICTORY_WORD_WREATH_544,BEACH_WORD_COAST_969],[STOOL_PIC_CHAIR_10],[CAP_PIC_HATS_11],[REVIEW_WORD_ARTICLES_147],[VIOLIN_PIC_PLAY_12],[DRUM_PIC_PLAY_12],[CAR_WORD_DRIVING_49],[ORGAN_PIC_PLAY_12,KEPI_PIC_HATS_11],[ESSAY_WORD_ARTICLES_147],[TRAFFIC_WORD_DRIVING_49],[WALK_WORD_MOVEMENT_52],[KICK_WORD_MOVEMENT_52],[GUITAR_PIC_PLAY_12],[JUMP_WORD_MOVEMENT_52],[SUCCESS_WORD_WREATH_544],[CELLO_PIC_PLAY_12,HAT_PIC_HATS_11],[FLUTE_PIC_PLAY_12],[RECLINER_PIC_CHAIR_10],[CLOUDS_WORD_RAINY_100],[OPINION_WORD_ARTICLES_147],[TRIUMPH_WORD_WREATH_544,BERET_PIC_HATS_11],[PIANO_PIC_PLAY_12],[SIGN_WORD_DRIVING_49],[UKULELE_PIC_PLAY_12]]</t>
-  </si>
-  <si>
-    <t>[WORD_WREATH_544,WORD_ARTICLES_147,WORD_DRIVING_49,PIC_PLAY_12,WORD_MOVEMENT_52]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_5</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_6_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_7_BOARD_1</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
-    <t>[[SUMMER_WORD_SEASONS_18],[ICEBERG_WORD_SNOW_77,DUSTER_PIC_CLEANING_13],[BERET_PIC_HATS_11,TENT_WORD_CAMPING_221],[BAIT_WORD_FISHING_20],[TUXEDO_WORD_DATE_87],[AUTUMN_WORD_SEASONS_18,OTTOMAN_PIC_CHAIR_10],[WINTER_WORD_SEASONS_18],[CAP_PIC_HATS_11,CUSHION_PIC_CHAIR_10],[FLAKE_WORD_SNOW_77],[VISOR_PIC_HATS_11],[SLEET_WORD_SNOW_77],[HAT_PIC_HATS_11],[KEPI_PIC_HATS_11],[TURBAN_PIC_HATS_11],[PRINTER_WORD_DEVICE_38],[BOBBER_WORD_FISHING_20],[METAL_WORD_MATERIAL_27],[PANAMA_HAT_PIC_HATS_11],[THRONE_PIC_CHAIR_10],[ROD_WORD_FISHING_20],[SOMBRERO_PIC_HATS_11],[SPRING_WORD_SEASONS_18],[MOP_PIC_CLEANING_13],[COUPLE_WORD_DATE_87],[FLOWERS_WORD_DATE_87]]</t>
-  </si>
-  <si>
-    <t>[WORD_SEASONS_18,WORD_FISHING_20,WORD_DATE_87,WORD_SNOW_77,PIC_HATS_11]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_6</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_7_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_8_BOARD_1</t>
-  </si>
-  <si>
-    <t>[9,11]</t>
-  </si>
-  <si>
-    <t>[[HEATER_WORD_DEVICE_38],[PUDDLES_WORD_RAINY_100,HAMMOCK_WORD_CAMPING_221],[GLASS_WORD_MATERIAL_27,MAHARAJA_WORD_CROWN_194],[SURF_WORD_COAST_969],[LOVESEAT_PIC_CHAIR_10,SILAT_WORD_COMBAT_121],[FAX_WORD_DEVICE_38,COMFY_WORD_COZY_58],[CUSHION_PIC_CHAIR_10,CLIFF_WORD_COAST_969],[BEACH_WORD_COAST_969],[STONE_WORD_MATERIAL_27],[DRYER_WORD_DEVICE_38],[STOOL_PIC_CHAIR_10],[METAL_WORD_MATERIAL_27],[LIME_WORD_CITRUS_173],[PLASTIC_WORD_MATERIAL_27],[LEMON_WORD_CITRUS_173,BROOM_PIC_CLEANING_13],[THRONE_PIC_CHAIR_10],[OTTOMAN_PIC_CHAIR_10,MOP_PIC_CLEANING_13],[CLOUDS_WORD_RAINY_100],[PRINTER_WORD_DEVICE_38],[SHOWERS_WORD_RAINY_100],[BEANBAG_PIC_CHAIR_10],[SECURITY_WORD_DEFENSE_277],[ARMCHAIR_PIC_CHAIR_10],[POMELO_WORD_CITRUS_173],[RECLINER_PIC_CHAIR_10]]</t>
-  </si>
-  <si>
-    <t>[WORD_RAINY_100,WORD_MATERIAL_27,WORD_CITRUS_173,WORD_DEVICE_38,PIC_CHAIR_10,WORD_COAST_969]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_7</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_8_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_9_BOARD_1</t>
-  </si>
-  <si>
-    <t>[3,10]</t>
-  </si>
-  <si>
-    <t>[[CCTV_WORD_DEFENSE_277,KARATE_WORD_COMBAT_121],[RENOWN_WORD_FAME_161,SCALES_WORD_JUSTICE_310],[ICONIC_WORD_FAME_161,WALRUS_WORD_ARCTIC_180],[MOP_PIC_CLEANING_13,CORNER_WORD_STREET_768],[VACUUM_PIC_CLEANING_13],[POPULAR_WORD_FAME_161],[CAMPFIRE_WORD_CAMPING_221],[BIN_PIC_CLEANING_13],[GUARD_WORD_DEFENSE_277,SAVATE_WORD_COMBAT_121,KUNG_FU_WORD_COMBAT_121],[SPONGE_PIC_CLEANING_13],[PIT_STOP_WORD_RACING_182],[SECURITY_WORD_DEFENSE_277],[EMPEROR_WORD_CROWN_194],[MAHARAJA_WORD_CROWN_194,FINISH_WORD_RACING_182],[DUSTER_PIC_CLEANING_13],[KING_HEARTS_PIC_DECK_4],[BROOM_PIC_CLEANING_13],[BUCKET_PIC_CLEANING_13],[PATROL_WORD_DEFENSE_277],[TENT_WORD_CAMPING_221],[DUSTPAN_PIC_CLEANING_13],[HAMMOCK_WORD_CAMPING_221],[SPEEDWAY_WORD_RACING_182,JUDO_WORD_COMBAT_121],[FAMOUS_WORD_FAME_161],[KING_WORD_CROWN_194]]</t>
-  </si>
-  <si>
-    <t>[WORD_CAMPING_221,WORD_FAME_161,PIC_CLEANING_13,WORD_CROWN_194,WORD_DEFENSE_277,WORD_RACING_182]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_8</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_9_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_10_BOARD_1</t>
-  </si>
-  <si>
-    <t>[5,9]</t>
-  </si>
-  <si>
-    <t>[[SILAT_WORD_COMBAT_121,WALRUS_WORD_ARCTIC_180],[SNUG_WORD_COZY_58,POLAR_BEAR_WORD_ARCTIC_180],[COURT_WORD_JUSTICE_310,REINDEER_WORD_ARCTIC_180],[QUEEN_HEARTS_PIC_DECK_4],[DUMBBELL_WORD_GYM_164,ARIES_PIC_ZODIAC_5],[KING_HEARTS_PIC_DECK_4,EPIC_WORD_LEGENDS_291],[SKATING_WORD_SLIDING_339,WRENCH_PIC_TOOLBOX_6],[GEMINI_PIC_ZODIAC_5,ALLIANCE_WORD_UNITE_126],[CAVIAR_WORD_LUXURY_133,KUNG_FU_WORD_COMBAT_121],[WATCH_WORD_LUXURY_133,SEXTANT_WORD_NAVIGATE_230],[YACHT_WORD_LUXURY_133],[WARM_WORD_COZY_58],[ACE_OF_HEARTS_PIC_DECK_4],[SKIING_WORD_SLIDING_339],[LUGE_WORD_SLIDING_339,GASOLINE_WORD_FUELS_190],[SLEDDING_WORD_SLIDING_339],[JUDO_WORD_COMBAT_121,DIESEL_WORD_FUELS_190],[AIR_BIKE_WORD_GYM_164],[COMFY_WORD_COZY_58],[SAVATE_WORD_COMBAT_121],[LAW_WORD_JUSTICE_310],[SKELETON_WORD_SLIDING_339],[BARBELL_WORD_GYM_164,SUMO_WORD_COMBAT_121],[KARATE_WORD_COMBAT_121,SCALES_WORD_JUSTICE_310],[JEWELRY_WORD_LUXURY_133,GAVEL_WORD_JUSTICE_310]]</t>
-  </si>
-  <si>
-    <t>[WORD_GYM_164,WORD_COZY_58,WORD_COMBAT_121,WORD_LUXURY_133,PIC_DECK_4,WORD_SLIDING_339,WORD_JUSTICE_310]</t>
-  </si>
-  <si>
-    <t>DECK_CLEAN_COMMON</t>
-  </si>
-  <si>
-    <t>TID_SORT_GAME_LEVEL_DEFAULT_DESC</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_11_BOARD_1</t>
-  </si>
-  <si>
-    <t>[[COAL_WORD_FUELS_190],[GEMINI_PIC_ZODIAC_5,FALSIFY_WORD_LIE_492],[BIKE_WORD_STREET_768,CABBAGE_PIC_VEGGIE_8],[BRICK_WORD_STREET_768,WORKOUT_WORD_FITNESS_110],[ARIES_PIC_ZODIAC_5],[ALLIANCE_WORD_UNITE_126,PILATES_WORD_FITNESS_110],[BUTTER_WORD_DAIRY_30,SPRAIN_WORD_INJURIES_249],[SNOWY_OWL_WORD_ARCTIC_180,INDIA_PIC_MAP_15],[DELUDE_WORD_LIE_492],[YOGURT_WORD_DAIRY_30],[DRIVER_WORD_STREET_768],[CARDIO_WORD_FITNESS_110],[MISLEAD_WORD_LIE_492],[CORNER_WORD_STREET_768],[DIESEL_WORD_FUELS_190,FABLE_WORD_LEGENDS_291],[WRENCH_PIC_TOOLBOX_6],[LEAGUE_WORD_UNITE_126],[POLAR_BEAR_WORD_ARCTIC_180],[TAURUS_PIC_ZODIAC_5],[WALRUS_WORD_ARCTIC_180],[GASOLINE_WORD_FUELS_190],[KEROSENE_WORD_FUELS_190],[HUBCAP_WORD_WHEEL_890],[PROPANE_WORD_FUELS_190],[CREAM_WORD_DAIRY_30,REINDEER_WORD_ARCTIC_180]]</t>
-  </si>
-  <si>
-    <t>[WORD_DAIRY_30,WORD_STREET_768,WORD_FUELS_190,PIC_ZODIAC_5,WORD_ARCTIC_180]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_12_BOARD_1</t>
-  </si>
-  <si>
-    <t>[1,10]</t>
-  </si>
-  <si>
-    <t>[[EPIC_WORD_LEGENDS_291],[WRENCH_PIC_TOOLBOX_6],[ADHESIVE_TAPE_PIC_TOOLBOX_6],[POTATO_PIC_VEGGIE_8],[DRILL_PIC_TOOLBOX_6],[PLIERS_PIC_TOOLBOX_6,ITALY_PIC_MAP_15],[SIGNPOST_WORD_NAVIGATE_230,LOT_WORD_AUCTION_215],[FABLE_WORD_LEGENDS_291,SERPENS_WORD_PATTERN_188],[MYTH_WORD_LEGENDS_291,ROSE_WORD_FLOWERS_4],[SAGA_WORD_LEGENDS_291],[DECEIVE_WORD_LIE_492,HUNT_WORD_QUEST_680],[BROCCOLI_PIC_VEGGIE_8],[FALSIFY_WORD_LIE_492],[TALE_WORD_LEGENDS_291],[CABBAGE_PIC_VEGGIE_8,ALLIANCE_WORD_UNITE_126],[COMPASS_WORD_NAVIGATE_230],[YOSEMITE_WORD_WATER_152],[ORION_WORD_PATTERN_188],[AXLE_WORD_WHEEL_890],[MISLEAD_WORD_LIE_492,LEAGUE_WORD_UNITE_126],[UNION_WORD_UNITE_126,WORKOUT_WORD_FITNESS_110],[FLATS_PIC_SHOES_14],[SEXTANT_WORD_NAVIGATE_230],[SWAN_PIC_BIRD_16],[DELUDE_WORD_LIE_492]]</t>
-  </si>
-  <si>
-    <t>[WORD_NAVIGATE_230,WORD_LIE_492,PIC_TOOLBOX_6,WORD_LEGENDS_291,PIC_VEGGIE_8,WORD_UNITE_126]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_13_BOARD_1</t>
-  </si>
-  <si>
-    <t>[7,8]</t>
-  </si>
-  <si>
-    <t>[[ITALY_PIC_MAP_15,LOT_WORD_AUCTION_215],[PILATES_WORD_FITNESS_110],[BRUISE_WORD_INJURIES_249],[YOGA_WORD_FITNESS_110,ORION_WORD_PATTERN_188],[ROSE_WORD_FLOWERS_4,OYSTER_PIC_SEAFOOD_17],[JOGGING_WORD_FITNESS_110,NURSE_WORD_JOBS_42],[AUSTRALIA_PIC_MAP_15,OXFORDS_PIC_SHOES_14],[AXLE_WORD_WHEEL_890,FLATS_PIC_SHOES_14],[CATALOG_WORD_AUCTION_215,HUSKY_PIC_DOGS_18],[MUSSEL_PIC_SEAFOOD_17,MULBERRY_WORD_BERRY_116],[HUBCAP_WORD_WHEEL_890,HAMMER_WORD_AUCTION_215],[SONGKRAN_WORD_FESTIVAL_270],[WORKOUT_WORD_FITNESS_110,BOOTS_PIC_SHOES_14],[STEER_WORD_WHEEL_890],[SPRAIN_WORD_INJURIES_249],[TIRE_WORD_WHEEL_890],[HOLI_WORD_FESTIVAL_270,HEELS_PIC_SHOES_14],[DIWALI_WORD_FESTIVAL_270],[INDIA_PIC_MAP_15],[INQUIRY_WORD_QUEST_680],[WOUND_WORD_INJURIES_249],[FRACTURE_WORD_INJURIES_249],[CARDIO_WORD_FITNESS_110],[FORTUNE_WORD_WHEEL_890],[GYM_WORD_FITNESS_110,BID_WORD_AUCTION_215]]</t>
-  </si>
-  <si>
-    <t>[WORD_FITNESS_110,PIC_MAP_15,WORD_WHEEL_890,WORD_INJURIES_249,WORD_FESTIVAL_270,PIC_SHOES_14]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_14_BOARD_1</t>
+    <t>[[FRIES_PIC_EATS_19,TUGBOAT_WORD_SHIP_62],[ZEN_WORD_MEDITATE_160,LOAFERS_WORD_FOOTWEAR_46],[BICEPS_WORD_MUSCLES_112,COLOSSEUM_WORD_LANDMARK_948],[VANS_WORD_HIPPIE_349,PYRAMIDS_WORD_LANDMARK_948],[FRIGATE_WORD_SHIP_62,PAWN_WORD_CHESS_17],[PEACE_WORD_MEDITATE_160,BISHOP_WORD_CHESS_17],[DELTOIDS_WORD_MUSCLES_112,TACO_PIC_EATS_19],[FREEDOM_WORD_HIPPIE_349,LOZENGES_WORD_PILLS_99],[CARAVEL_WORD_SHIP_62,CAPSULES_WORD_PILLS_99],[HAMMER_WORD_AUCTION_215,VESPUCCI_WORD_EXPLORER_51],[LOT_WORD_AUCTION_215,ICELAND_WORD_ISLANDS_21],[ABS_WORD_MUSCLES_112,IBIZA_WORD_ISLANDS_21],[COMMUNE_WORD_HIPPIE_349],[CATALOG_WORD_AUCTION_215,JAMAICA_WORD_ISLANDS_21],[MANTRA_WORD_MEDITATE_160,SICILY_WORD_ISLANDS_21],[BID_WORD_AUCTION_215,WHARF_WORD_HARBOR_764],[PIZZA_PIC_EATS_19,COAST_WORD_HARBOR_764],[TANKER_WORD_SHIP_62,POINTE_WORD_BALLET_125],[RUNWAY_WORD_AIRPORT_29,GALLEON_WORD_SHIP_62],[PRICE_WORD_AUCTION_215,TORNADO_WORD_DISASTER_148],[TRICEPS_WORD_MUSCLES_112],[BREATH_WORD_MEDITATE_160,SANDALS_WORD_FOOTWEAR_46],[GATE_WORD_AIRPORT_29],[BIDDER_WORD_AUCTION_215],[TERMINAL_WORD_AIRPORT_29,BRIG_WORD_SHIP_62]]</t>
+  </si>
+  <si>
+    <t>[WORD_MEDITATE_160,WORD_AUCTION_215,WORD_AIRPORT_29,WORD_MUSCLES_112,WORD_SHIP_62,PIC_EATS_19,WORD_HIPPIE_349]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_17_BOARD_1</t>
+  </si>
+  <si>
+    <t>[4,6]</t>
+  </si>
+  <si>
+    <t>[[LIBRARY_PIC_BUILD_20],[SPHINX_WORD_LANDMARK_948,SICILY_WORD_ISLANDS_21],[HOTEL_PIC_BUILD_20,JAMAICA_WORD_ISLANDS_21],[TIRE_WORD_WHEEL_890,PIER_WORD_HARBOR_764],[VESPUCCI_WORD_EXPLORER_51,AXLE_WORD_WHEEL_890],[MUSEUM_PIC_BUILD_20,SNEAKERS_WORD_FOOTWEAR_46],[PAWN_WORD_CHESS_17,REAGAN_WORD_LEADER_196],[OGRE_PIC_FOLKLORE_21,KENNEDY_WORD_LEADER_196],[STADIUM_PIC_BUILD_20,SERUM_WORD_MAKEUP_120],[COLOSSEUM_WORD_LANDMARK_948,SPONGE_WORD_MAKEUP_120],[FACTORY_PIC_BUILD_20,PYRAMIDS_WORD_LANDMARK_948],[LOZENGES_WORD_PILLS_99,PEEL_WORD_MAKEUP_120],[MALL_PIC_BUILD_20,SHINOBI_WORD_WARRIORS_491],[HOSPITAL_PIC_BUILD_20,RONIN_WORD_WARRIORS_491],[CAPSULES_WORD_PILLS_99,FIGURINE_WORD_SCULPT_64],[SCHOOL_BUILDING_PIC_BUILD_20,SLIPPERS_WORD_FOOTWEAR_46],[MAGELLAN_WORD_EXPLORER_51],[QUEEN_WORD_CHESS_17,CLOGS_WORD_FOOTWEAR_46],[GOBLIN_PIC_FOLKLORE_21,SANDALS_WORD_FOOTWEAR_46],[ROOK_WORD_CHESS_17,UGGS_WORD_FOOTWEAR_46],[COLUMBUS_WORD_EXPLORER_51,LOAFERS_WORD_FOOTWEAR_46],[BIG_BEN_WORD_LANDMARK_948,DEGREE_WORD_PHD_296],[TABLETS_WORD_PILLS_99],[TROLL_PIC_FOLKLORE_21],[BISHOP_WORD_CHESS_17]]</t>
+  </si>
+  <si>
+    <t>[WORD_PILLS_99,WORD_EXPLORER_51,PIC_FOLKLORE_21,PIC_BUILD_20,WORD_CHESS_17,WORD_LANDMARK_948,WORD_FOOTWEAR_46]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_18_BOARD_1</t>
+  </si>
+  <si>
+    <t>[[JAMAICA_WORD_ISLANDS_21,PIER_WORD_HARBOR_764],[SICILY_WORD_ISLANDS_21,ADAMS_WORD_LEADER_196],[IBIZA_WORD_ISLANDS_21,BLUSH_WORD_MAKEUP_120],[ICELAND_WORD_ISLANDS_21,MARINA_WORD_HARBOR_764],[BAY_WORD_HARBOR_764,PEEL_WORD_MAKEUP_120],[BARBADOS_WORD_ISLANDS_21,VESSEL_WORD_HARBOR_764],[STEER_WORD_WHEEL_890,POWDER_WORD_MAKEUP_120],[BARRE_WORD_BALLET_125,SAMURAI_WORD_WARRIORS_491],[POINTE_WORD_BALLET_125,FORTUNE_WORD_WHEEL_890],[TSUNAMI_WORD_DISASTER_148,BUST_WORD_SCULPT_64],[COAST_WORD_HARBOR_764,PEACH_PIC_DRUPES_22],[HUBCAP_WORD_WHEEL_890,RESEARCH_WORD_PHD_296],[WHARF_WORD_HARBOR_764,PERCH_WORD_FISH_31],[BALI_WORD_ISLANDS_21,CHERRY_PIC_DRUPES_22],[TUTU_WORD_BALLET_125,MARLIN_WORD_FISH_31],[HAWAII_WORD_ISLANDS_21,SANDWICH_PIC_PICNIC_23],[APRICOT_PIC_DRUPES_22,TUNA_WORD_FISH_31],[PLUM_PIC_DRUPES_22,GOLDFISH_WORD_FISH_31],[CRETE_WORD_ISLANDS_21,BASKET_PIC_PICNIC_23],[VAPOR_WORD_FOG_76,GROUPER_WORD_FISH_31],[FLOOD_WORD_DISASTER_148,BLANKET_PIC_PICNIC_23],[AXLE_WORD_WHEEL_890,SMOG_WORD_FOG_76],[TIRE_WORD_WHEEL_890,HAZE_WORD_FOG_76],[TORNADO_WORD_DISASTER_148,ANTS_PIC_PICNIC_23],[MONUMENT_WORD_SCULPT_64,JUMP_WORD_MOVEMENT_52]]</t>
+  </si>
+  <si>
+    <t>[WORD_DISASTER_148,WORD_HARBOR_764,WORD_ISLANDS_21,WORD_BALLET_125,WORD_WHEEL_890,PIC_DRUPES_22,PIC_PICNIC_23]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_19_BOARD_1</t>
+  </si>
+  <si>
+    <t>[[BUSH_WORD_LEADER_196,REAGAN_WORD_LEADER_196],[LINCOLN_WORD_LEADER_196,MARLIN_WORD_FISH_31],[STATUE_WORD_SCULPT_64,GOLDFISH_WORD_FISH_31],[PAELLA_WORD_RICE_342,CAPYBARA_WORD_RODENTS_141],[BLUSH_WORD_MAKEUP_120,MIST_WORD_FOG_76],[THESIS_WORD_PHD_296,LOBE_WORD_BRAIN_106],[PALETTE_WORD_MAKEUP_120,KENNEDY_WORD_LEADER_196],[FIGURINE_WORD_SCULPT_64,CORTEX_WORD_BRAIN_106],[MONUMENT_WORD_SCULPT_64,GYRUS_WORD_BRAIN_106],[RESEARCH_WORD_PHD_296,HAY_WORD_FARMING_333],[CONGEE_WORD_RICE_342,COMPOST_WORD_FARMING_333],[TUBA_PIC_WIND_25,PADDOCK_WORD_FARMING_333],[SPONGE_WORD_MAKEUP_120,ADAMS_WORD_LEADER_196],[SUSHI_WORD_RICE_342,ASSASSIN_WORD_WARRIORS_491],[CAKE_PIC_PASTRY_24,RONIN_WORD_WARRIORS_491],[BUST_WORD_SCULPT_64,OBAMA_WORD_LEADER_196],[POWDER_WORD_MAKEUP_120,CLINTON_WORD_LEADER_196],[RISOTTO_WORD_RICE_342,BIDEN_WORD_LEADER_196],[DEGREE_WORD_PHD_296,NINJA_WORD_WARRIORS_491],[SERUM_WORD_MAKEUP_120,SHINOBI_WORD_WARRIORS_491],[PIE_PIC_PASTRY_24,TEMPERA_WORD_PAINTING_340],[PROFITEROLE_PIC_PASTRY_24,OIL_WORD_PAINTING_340],[BUGLE_PIC_WIND_25,VOTER_WORD_ELECT_193],[FLUTE_PIC_WIND_25,PAPYRUS_WORD_EGYPT_114],[PEEL_WORD_MAKEUP_120,SAMURAI_WORD_WARRIORS_491]]</t>
+  </si>
+  <si>
+    <t>[WORD_SCULPT_64,WORD_RICE_342,WORD_PHD_296,WORD_LEADER_196,WORD_MAKEUP_120,PIC_PASTRY_24,PIC_WIND_25,WORD_WARRIORS_491]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_20_BOARD_1</t>
+  </si>
+  <si>
+    <t>[3,7,8]</t>
+  </si>
+  <si>
+    <t>[[MIST_WORD_FOG_76,TOPSOIL_WORD_FARMING_333,GRAIN_WORD_FARMING_333],[JUMP_WORD_MOVEMENT_52,GROUPER_WORD_FISH_31],[CORTEX_WORD_BRAIN_106,SARDINE_WORD_FISH_31],[WALK_WORD_MOVEMENT_52,PADDOCK_WORD_FARMING_333,ACRYLIC_WORD_PAINTING_340],[GOUACHE_WORD_PAINTING_340,FRESCO_WORD_PAINTING_340,CAMPAIGN_WORD_ELECT_193],[BEAVER_WORD_RODENTS_141,SATIRE_WORD_MEMES_620],[GUITAR_PIC_STRINGS_27,MACKEREL_WORD_FISH_31],[GOLDFISH_WORD_FISH_31,PERCH_WORD_FISH_31],[COWHIDE_WORD_LEATHER_480,FRANCE_WORD_MAP_32],[VIOLIN_PIC_STRINGS_27,ANDROID_WORD_ROBOT_354],[SQUIRREL_WORD_RODENTS_141,MARMOT_WORD_RODENTS_141,PHARMACY_PIC_MALL_26],[CREDIT_CARD_PIC_MALL_26,JANITOR_PIC_MALL_26],[SMOG_WORD_FOG_76,CAPYBARA_WORD_RODENTS_141],[MARLIN_WORD_FISH_31,BOOKSTORE_PIC_MALL_26,SECURITY_PIC_MALL_26],[TUNA_WORD_FISH_31,NUTRIA_WORD_RODENTS_141],[KICK_WORD_MOVEMENT_52,MACHINE_WORD_ROBOT_354],[VIOLA_PIC_STRINGS_27,FITTING_ROOM_PIC_MALL_26],[HAZE_WORD_FOG_76,RAT_WORD_RODENTS_141],[CELLO_PIC_STRINGS_27,TENOR_WORD_VOICES_439],[EEL_WORD_FISH_31,SCORE_WORD_GAMER_36],[NUBUCK_WORD_LEATHER_480,STRATEGY_WORD_GAMER_36],[LOBE_WORD_BRAIN_106,PAPER_BAG_PIC_MALL_26],[VAPOR_WORD_FOG_76,CASH_PIC_MALL_26],[GYRUS_WORD_BRAIN_106,KAPPA_WORD_GREECE_359],[SUEDE_WORD_LEATHER_480,DELTA_WORD_GREECE_359]]</t>
+  </si>
+  <si>
+    <t>[WORD_FOG_76,WORD_MOVEMENT_52,WORD_FISH_31,WORD_LEATHER_480,PIC_STRINGS_27,WORD_BRAIN_106,WORD_RODENTS_141,PIC_MALL_26]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_21_BOARD_1</t>
+  </si>
+  <si>
+    <t>[2,10]</t>
+  </si>
+  <si>
+    <t>[[BRACELET_PIC_JEWELRY_28,INDIA_WORD_MAP_32,JAPAN_WORD_MAP_32],[PADDOCK_WORD_FARMING_333,FRANCE_WORD_MAP_32,USA_WORD_MAP_32],[TROLLING_WORD_MEMES_620,ROBOVAC_WORD_ROBOT_354,MILAN_WORD_ITALY_376],[JETLINER_WORD_AIRCRAFT_174,VENICE_WORD_ITALY_376,STRATEGY_WORD_GAMER_36],[AIRPLANE_WORD_AIRCRAFT_174,NECKLACE_PIC_JEWELRY_28],[SATIRE_WORD_MEMES_620,PAPYRUS_WORD_EGYPT_114],[LOCKET_PIC_JEWELRY_28,HARVEST_WORD_FARMING_333],[GOUACHE_WORD_PAINTING_340,CROP_WORD_FARMING_333],[DIAMOND_RING_PIC_JEWELRY_28,PYRAMID_WORD_EGYPT_114],[TURNOUT_WORD_ELECT_193,ACRYLIC_WORD_PAINTING_340],[GLIDER_WORD_AIRCRAFT_174,DELTA_WORD_GREECE_359],[ANKLET_PIC_JEWELRY_28,KAPPA_WORD_GREECE_359],[OIL_WORD_PAINTING_340,SHINGLE_WORD_COASTAL_882],[TIDE_WORD_COASTAL_882,SAND_WORD_COASTAL_882],[BALLOT_WORD_ELECT_193,FALLOW_WORD_FARMING_333,TEMPERA_WORD_PAINTING_340],[TOPSOIL_WORD_FARMING_333,GROYNE_WORD_COASTAL_882],[VOTER_WORD_ELECT_193,SURFING_WORD_COASTAL_882],[RUMBA_WORD_DANCES_24,BAIKAL_WORD_LAKES_365],[EARRING_PIC_JEWELRY_28,MICHIGAN_WORD_LAKES_365],[CAMPAIGN_WORD_ELECT_193,COMPOST_WORD_FARMING_333],[FRESCO_WORD_PAINTING_340,ONTARIO_WORD_LAKES_365],[PARODY_WORD_MEMES_620,PUCK_WORD_HOCKEY_86],[HAY_WORD_FARMING_333,RINK_WORD_HOCKEY_86],[PHARAOH_WORD_EGYPT_114,CHORDS_WORD_GUITAR_122],[SCARAB_WORD_EGYPT_114,GRAIN_WORD_FARMING_333]]</t>
+  </si>
+  <si>
+    <t>[WORD_MEMES_620,PIC_JEWELRY_28,WORD_AIRCRAFT_174,WORD_ELECT_193,WORD_EGYPT_114,WORD_FARMING_333,WORD_PAINTING_340]</t>
+  </si>
+  <si>
+    <t>SORT_GAME_LEVE_22_BOARD_1</t>
   </si>
   <si>
     <t>[5,10]</t>
   </si>
   <si>
-    <t>[[YOSEMITE_WORD_WATER_152,ASTORIA_WORD_NEW_YORK_287],[SERPENS_WORD_PATTERN_188,HUSKY_PIC_DOGS_18],[SWAN_PIC_BIRD_16,TERRIER_PIC_DOGS_18],[PERSEUS_WORD_PATTERN_188,CACTUS_WORD_SPIKY_78],[EAGLE_PIC_BIRD_16],[CYGNUS_WORD_PATTERN_188,HEDGEHOG_WORD_SPIKY_78],[LILY_WORD_FLOWERS_4,GALLEON_WORD_SHIP_62],[DOVE_PIC_BIRD_16,TUGBOAT_WORD_SHIP_62],[CATALOG_WORD_AUCTION_215,TANKER_WORD_SHIP_62],[OYSTER_PIC_SEAFOOD_17,PRICE_WORD_AUCTION_215],[PURSUIT_WORD_QUEST_680,PILOT_WORD_JOBS_42],[DRACO_WORD_PATTERN_188],[ROSE_WORD_FLOWERS_4],[LOBSTER_PIC_SEAFOOD_17],[TULIP_WORD_FLOWERS_4,LOT_WORD_AUCTION_215],[INQUIRY_WORD_QUEST_680],[MUSSEL_PIC_SEAFOOD_17,MAILMAN_WORD_JOBS_42],[ORION_WORD_PATTERN_188],[VICTORIA_WORD_WATER_152],[HUNT_WORD_QUEST_680],[SCORPIUS_WORD_PATTERN_188],[HAMMER_WORD_AUCTION_215,BID_WORD_AUCTION_215],[NIAGARA_WORD_WATER_152],[HAVASU_WORD_WATER_152,BIDDER_WORD_AUCTION_215],[PEONY_WORD_FLOWERS_4]]</t>
-  </si>
-  <si>
-    <t>[WORD_FLOWERS_4,WORD_AUCTION_215,WORD_QUEST_680,WORD_PATTERN_188,WORD_WATER_152,PIC_SEAFOOD_17,PIC_BIRD_16]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_15_BOARD_1</t>
-  </si>
-  <si>
-    <t>[3,4]</t>
-  </si>
-  <si>
-    <t>[[HARLEM_WORD_NEW_YORK_287,ABS_WORD_MUSCLES_112],[WELDER_WORD_JOBS_42,BREATH_WORD_MEDITATE_160],[PLUMBER_WORD_JOBS_42,COMMUNE_WORD_HIPPIE_349],[COUNTRY_WORD_DIVISION_242,TERMINAL_WORD_AIRPORT_29],[STATE_WORD_DIVISION_242,LIBRARY_PIC_BUILD_20],[CLERIC_WORD_PRIEST_1019,LOAFERS_WORD_FOOTWEAR_46],[SPANIEL_PIC_DOGS_18,QUEENS_WORD_NEW_YORK_287],[ENGINEER_WORD_JOBS_42,UGGS_WORD_FOOTWEAR_46],[NURSE_WORD_JOBS_42,COLOSSEUM_WORD_LANDMARK_948],[CACTUS_WORD_SPIKY_78,SPHINX_WORD_LANDMARK_948],[HUSKY_PIC_DOGS_18,ASTORIA_WORD_NEW_YORK_287],[DOCTOR_WORD_JOBS_42,BRONX_WORD_NEW_YORK_287],[ACTOR_WORD_JOBS_42,CITY_WORD_DIVISION_242],[MAILMAN_WORD_JOBS_42,HEDGEHOG_WORD_SPIKY_78],[SAINT_WORD_PRIEST_1019,MULBERRY_WORD_BERRY_116],[REGION_WORD_DIVISION_242,BILBERRY_WORD_BERRY_116],[DURIAN_WORD_SPIKY_78],[PREACHER_WORD_PRIEST_1019],[POODLE_PIC_DOGS_18],[BEAGLE_PIC_DOGS_18,BARBERRY_WORD_BERRY_116],[SOHO_WORD_NEW_YORK_287,COLUMBUS_WORD_EXPLORER_51],[TRIBECA_WORD_NEW_YORK_287,MAGELLAN_WORD_EXPLORER_51],[PILOT_WORD_JOBS_42],[BIBLE_WORD_PRIEST_1019],[TERRIER_PIC_DOGS_18]]</t>
-  </si>
-  <si>
-    <t>[WORD_NEW_YORK_287,WORD_JOBS_42,WORD_DIVISION_242,WORD_PRIEST_1019,PIC_DOGS_18,WORD_SPIKY_78,WORD_BERRY_116]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_16_BOARD_1</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[[TRICEPS_WORD_MUSCLES_112,LIBRARY_PIC_BUILD_20],[TICKET_WORD_CINEMA_6,STADIUM_PIC_BUILD_20],[RUNWAY_WORD_AIRPORT_29,MUSEUM_PIC_BUILD_20],[FREEDOM_WORD_HIPPIE_349,SNEAKERS_WORD_FOOTWEAR_46],[TERMINAL_WORD_AIRPORT_29,SPHINX_WORD_LANDMARK_948],[POPCORN_WORD_CINEMA_6,COLUMBUS_WORD_EXPLORER_51],[FRIES_PIC_EATS_19,MAGELLAN_WORD_EXPLORER_51],[GATE_WORD_AIRPORT_29,TROLL_PIC_FOLKLORE_21],[TACO_PIC_EATS_19,OGRE_PIC_FOLKLORE_21],[DELTOIDS_WORD_MUSCLES_112,CRETE_WORD_ISLANDS_21],[ABS_WORD_MUSCLES_112,SICILY_WORD_ISLANDS_21],[PEACE_WORD_MEDITATE_160,JAMAICA_WORD_ISLANDS_21],[GALLEON_WORD_SHIP_62,WHARF_WORD_HARBOR_764],[HORROR_WORD_CINEMA_6,BAY_WORD_HARBOR_764],[COMEDY_WORD_CINEMA_6,SPIDER_WORD_NO_BONES_289],[COMMUNE_WORD_HIPPIE_349],[DRAMA_WORD_CINEMA_6,PIZZA_PIC_EATS_19],[CARAVEL_WORD_SHIP_62,BRIG_WORD_SHIP_62],[TANKER_WORD_SHIP_62,TUGBOAT_WORD_SHIP_62],[MANTRA_WORD_MEDITATE_160,FRIGATE_WORD_SHIP_62],[VANS_WORD_HIPPIE_349,TSUNAMI_WORD_DISASTER_148],[ZEN_WORD_MEDITATE_160],[BICEPS_WORD_MUSCLES_112],[BREATH_WORD_MEDITATE_160],[WESTERN_WORD_CINEMA_6]]</t>
-  </si>
-  <si>
-    <t>[WORD_MEDITATE_160,WORD_CINEMA_6,WORD_AIRPORT_29,WORD_MUSCLES_112,WORD_SHIP_62,PIC_EATS_19,WORD_HIPPIE_349]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_17_BOARD_1</t>
-  </si>
-  <si>
-    <t>[4,5]</t>
-  </si>
-  <si>
-    <t>[[MAGELLAN_WORD_EXPLORER_51,BAY_WORD_HARBOR_764],[SAMURAI_WORD_WARRIORS_491,BARNACLE_WORD_NO_BONES_289],[COLUMBUS_WORD_EXPLORER_51,CHERRY_PIC_DRUPES_22],[PAWN_WORD_CHESS_17,PEACH_PIC_DRUPES_22],[COLOSSEUM_WORD_LANDMARK_948,PALETTE_WORD_MAKEUP_120],[FACTORY_PIC_BUILD_20,SHINOBI_WORD_WARRIORS_491],[OGRE_PIC_FOLKLORE_21,RONIN_WORD_WARRIORS_491],[HOSPITAL_PIC_BUILD_20,PAELLA_WORD_RICE_342],[TROLL_PIC_FOLKLORE_21,CONGEE_WORD_RICE_342],[JAMAICA_WORD_ISLANDS_21,BUST_WORD_SCULPT_64],[CAPSULES_WORD_PILLS_99,BUGLE_PIC_WIND_25],[ROOK_WORD_CHESS_17,TUBA_PIC_WIND_25],[QUEEN_WORD_CHESS_17],[TABLETS_WORD_PILLS_99],[SCHOOL_BUILDING_PIC_BUILD_20],[STADIUM_PIC_BUILD_20,BIG_BEN_WORD_LANDMARK_948],[MUSEUM_PIC_BUILD_20,SPHINX_WORD_LANDMARK_948],[HOTEL_PIC_BUILD_20],[BISHOP_WORD_CHESS_17,UGGS_WORD_FOOTWEAR_46],[LIBRARY_PIC_BUILD_20,LOAFERS_WORD_FOOTWEAR_46],[PYRAMIDS_WORD_LANDMARK_948,SANDALS_WORD_FOOTWEAR_46],[MALL_PIC_BUILD_20,SNEAKERS_WORD_FOOTWEAR_46],[VESPUCCI_WORD_EXPLORER_51],[GOBLIN_PIC_FOLKLORE_21,SLIPPERS_WORD_FOOTWEAR_46],[LOZENGES_WORD_PILLS_99,CLOGS_WORD_FOOTWEAR_46]]</t>
-  </si>
-  <si>
-    <t>[WORD_PILLS_99,WORD_EXPLORER_51,PIC_FOLKLORE_21,PIC_BUILD_20,WORD_CHESS_17,WORD_LANDMARK_948,WORD_FOOTWEAR_46]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_18_BOARD_1</t>
-  </si>
-  <si>
-    <t>[3,11]</t>
-  </si>
-  <si>
-    <t>[[MARINA_WORD_HARBOR_764,COAST_WORD_HARBOR_764],[HAWAII_WORD_ISLANDS_21,KENNEDY_WORD_LEADER_196],[TUTU_WORD_BALLET_125,BUSH_WORD_LEADER_196],[BALI_WORD_ISLANDS_21,RONIN_WORD_WARRIORS_491],[PLUM_PIC_DRUPES_22,FIGURINE_WORD_SCULPT_64],[BARBADOS_WORD_ISLANDS_21,CAKE_PIC_PASTRY_24],[TSUNAMI_WORD_DISASTER_148,BAY_WORD_HARBOR_764],[TUNA_WORD_FISH_31,RESEARCH_WORD_PHD_296],[VESSEL_WORD_HARBOR_764,FITTING_ROOM_PIC_MALL_26],[POINTE_WORD_BALLET_125,BOOKSTORE_PIC_MALL_26],[SPIDER_WORD_NO_BONES_289,WHARF_WORD_HARBOR_764],[TORNADO_WORD_DISASTER_148,BASKET_PIC_PICNIC_23],[PIER_WORD_HARBOR_764,CHERRY_PIC_DRUPES_22],[BARRE_WORD_BALLET_125,WORM_WORD_NO_BONES_289],[STARFISH_WORD_NO_BONES_289,SANDWICH_PIC_PICNIC_23],[JAMAICA_WORD_ISLANDS_21,PHARMACY_PIC_MALL_26],[PEACH_PIC_DRUPES_22,CASH_PIC_MALL_26],[IBIZA_WORD_ISLANDS_21,MARLIN_WORD_FISH_31],[CRETE_WORD_ISLANDS_21,ANTS_PIC_PICNIC_23],[SICILY_WORD_ISLANDS_21,GOLDFISH_WORD_FISH_31],[APRICOT_PIC_DRUPES_22,GUITAR_PIC_STRINGS_27],[ICELAND_WORD_ISLANDS_21,SMOG_WORD_FOG_76],[FLOOD_WORD_DISASTER_148,GYRUS_WORD_BRAIN_106],[BARNACLE_WORD_NO_BONES_289,SUEDE_WORD_LEATHER_480],[SQUID_WORD_NO_BONES_289,BLANKET_PIC_PICNIC_23]]</t>
-  </si>
-  <si>
-    <t>[WORD_DISASTER_148,WORD_HARBOR_764,WORD_ISLANDS_21,WORD_BALLET_125,WORD_NO_BONES_289,PIC_DRUPES_22,PIC_PICNIC_23]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_19_BOARD_1</t>
-  </si>
-  <si>
-    <t>[4,11]</t>
-  </si>
-  <si>
-    <t>[[FLUTE_PIC_WIND_25,REAGAN_WORD_LEADER_196],[CAKE_PIC_PASTRY_24,CLINTON_WORD_LEADER_196],[PEEL_WORD_MAKEUP_120,BUSH_WORD_LEADER_196],[SPONGE_WORD_MAKEUP_120,MARLIN_WORD_FISH_31],[DEGREE_WORD_PHD_296,VIOLA_PIC_STRINGS_27],[BIDEN_WORD_LEADER_196,VAPOR_WORD_FOG_76],[PAELLA_WORD_RICE_342,ADAMS_WORD_LEADER_196],[PALETTE_WORD_MAKEUP_120,GYRUS_WORD_BRAIN_106],[PIE_PIC_PASTRY_24,MELODY_WORD_SYMPHONY_210],[POWDER_WORD_MAKEUP_120,OVERTURE_WORD_SYMPHONY_210],[RESEARCH_WORD_PHD_296,FLUTE_WORD_PLAY_223],[FIGURINE_WORD_SCULPT_64,UKULELE_WORD_PLAY_223],[SERUM_WORD_MAKEUP_120,OBAMA_WORD_LEADER_196],[CONGEE_WORD_RICE_342,NECKLACE_PIC_JEWELRY_28],[KENNEDY_WORD_LEADER_196,DIAMOND_RING_PIC_JEWELRY_28],[TUBA_PIC_WIND_25,LINCOLN_WORD_LEADER_196],[MONUMENT_WORD_SCULPT_64,SHINOBI_WORD_WARRIORS_491],[THESIS_WORD_PHD_296,ASSASSIN_WORD_WARRIORS_491],[PROFITEROLE_PIC_PASTRY_24,NINJA_WORD_WARRIORS_491],[BUST_WORD_SCULPT_64,SAMURAI_WORD_WARRIORS_491],[STATUE_WORD_SCULPT_64,TURNOUT_WORD_ELECT_193],[BUGLE_PIC_WIND_25,PYRAMID_WORD_EGYPT_114],[RISOTTO_WORD_RICE_342,JETLINER_WORD_AIRCRAFT_174],[BLUSH_WORD_MAKEUP_120,AIRPLANE_WORD_AIRCRAFT_174],[SUSHI_WORD_RICE_342,RONIN_WORD_WARRIORS_491]]</t>
-  </si>
-  <si>
-    <t>[WORD_SCULPT_64,WORD_RICE_342,WORD_PHD_296,WORD_LEADER_196,WORD_MAKEUP_120,PIC_PASTRY_24,PIC_WIND_25,WORD_WARRIORS_491]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_20_BOARD_1</t>
-  </si>
-  <si>
-    <t>[1,2,10]</t>
-  </si>
-  <si>
-    <t>[[GOLDFISH_WORD_FISH_31,MACKEREL_WORD_FISH_31],[MELODY_WORD_SYMPHONY_210,TUNA_WORD_FISH_31],[OVERTURE_WORD_SYMPHONY_210,EEL_WORD_FISH_31],[GROUPER_WORD_FISH_31,SUEDE_WORD_LEATHER_480,BOOKSTORE_PIC_MALL_26],[VIOLA_PIC_STRINGS_27,MARLIN_WORD_FISH_31],[SARDINE_WORD_FISH_31,PAPER_BAG_PIC_MALL_26],[CASH_PIC_MALL_26,NUTRIA_WORD_RODENTS_141],[GUITAR_PIC_STRINGS_27,SECURITY_PIC_MALL_26],[COWHIDE_WORD_LEATHER_480,NUBUCK_WORD_LEATHER_480,RAT_WORD_RODENTS_141],[GYRUS_WORD_BRAIN_106,CAPYBARA_WORD_RODENTS_141],[SMOG_WORD_FOG_76,UKULELE_WORD_PLAY_223,PIANO_WORD_PLAY_223],[HARMONY_WORD_SYMPHONY_210,FLUTE_WORD_PLAY_223,NECKLACE_PIC_JEWELRY_28],[HAZE_WORD_FOG_76,VOTER_WORD_ELECT_193,BALLOT_WORD_ELECT_193],[MIST_WORD_FOG_76,PARODY_WORD_MEMES_620],[VIOLIN_PIC_STRINGS_27,BEAVER_WORD_RODENTS_141],[SOPRANO_WORD_VOICES_439,USA_WORD_MAP_32],[MARMOT_WORD_RODENTS_141,ALTO_WORD_VOICES_439],[SQUIRREL_WORD_RODENTS_141,ARCADE_WORD_GAMER_36],[CORTEX_WORD_BRAIN_106,LILY_PIC_FLOWERS_29],[VAPOR_WORD_FOG_76,PHARMACY_PIC_MALL_26],[LOBE_WORD_BRAIN_106,DAISY_PIC_FLOWERS_29],[PERCH_WORD_FISH_31,KAPPA_WORD_GREECE_359],[CREDIT_CARD_PIC_MALL_26,SIGMA_WORD_GREECE_359],[JANITOR_PIC_MALL_26,SNAKE_PIC_REPTILES_30],[CELLO_PIC_STRINGS_27,FITTING_ROOM_PIC_MALL_26]]</t>
-  </si>
-  <si>
-    <t>[WORD_FOG_76,WORD_SYMPHONY_210,WORD_FISH_31,WORD_LEATHER_480,PIC_STRINGS_27,WORD_BRAIN_106,WORD_RODENTS_141,PIC_MALL_26]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_21_BOARD_1</t>
-  </si>
-  <si>
-    <t>[7,13]</t>
-  </si>
-  <si>
-    <t>[[TROLLING_WORD_MEMES_620,EARRING_PIC_JEWELRY_28],[PARODY_WORD_MEMES_620,FRESCO_WORD_PAINTING_340],[SATIRE_WORD_MEMES_620,MACHINE_WORD_ROBOT_354,SOPRANO_WORD_VOICES_439],[FLUTE_WORD_PLAY_223,FLORENCE_WORD_ITALY_376,SCORE_WORD_GAMER_36],[LOCKET_PIC_JEWELRY_28,VIOLIN_WORD_PLAY_223],[DRUM_WORD_PLAY_223,SHOOTER_WORD_GAMER_36,STRATEGY_WORD_GAMER_36],[ORGAN_WORD_PLAY_223,SCARAB_WORD_EGYPT_114],[AIRPLANE_WORD_AIRCRAFT_174,LILY_PIC_FLOWERS_29,ALLIGATOR_PIC_REPTILES_30],[TEMPERA_WORD_PAINTING_340,SURFING_WORD_COASTAL_882],[TURNOUT_WORD_ELECT_193,TIDE_WORD_COASTAL_882],[NILE_WORD_RIVERS_959,MOSQUITO_WORD_INSECTS_25],[GOUACHE_WORD_PAINTING_340,UKULELE_WORD_PLAY_223],[BALLOT_WORD_ELECT_193,DRAGONFLY_WORD_INSECTS_25],[JETLINER_WORD_AIRCRAFT_174,HURON_WORD_LAKES_365],[GLIDER_WORD_AIRCRAFT_174,GOAL_WORD_HOCKEY_86],[ACRYLIC_WORD_PAINTING_340,PUCK_WORD_HOCKEY_86],[ANKLET_PIC_JEWELRY_28,OIL_WORD_PAINTING_340,PIANO_WORD_PLAY_223],[PYRAMID_WORD_EGYPT_114,PICKUPS_WORD_GUITAR_122],[INDIA_WORD_MAP_32,DIAMOND_PIC_GEMSTONE_31],[BRACELET_PIC_JEWELRY_28,SAPPHIRE_PIC_GEMSTONE_31],[DIAMOND_RING_PIC_JEWELRY_28,PAPYRUS_WORD_EGYPT_114],[CAMPAIGN_WORD_ELECT_193,GUITAR_WORD_PLAY_223],[NECKLACE_PIC_JEWELRY_28,MOSQUITO_PIC_INSECTS_32],[VOTER_WORD_ELECT_193,MOTH_PIC_INSECTS_32],[PHARAOH_WORD_EGYPT_114,CELLO_WORD_PLAY_223]]</t>
-  </si>
-  <si>
-    <t>[WORD_MEMES_620,PIC_JEWELRY_28,WORD_AIRCRAFT_174,WORD_ELECT_193,WORD_EGYPT_114,WORD_PLAY_223,WORD_PAINTING_340]</t>
-  </si>
-  <si>
-    <t>SORT_GAME_LEVE_22_BOARD_1</t>
-  </si>
-  <si>
-    <t>[8,13]</t>
-  </si>
-  <si>
-    <t>[[ROBOVAC_WORD_ROBOT_354,MACHINE_WORD_ROBOT_354],[FRANCE_WORD_MAP_32,CREST_WORD_COASTAL_882,JETTY_WORD_COASTAL_882],[SCORE_WORD_GAMER_36,SHOOTER_WORD_GAMER_36],[KAPPA_WORD_GREECE_359,WASP_WORD_INSECTS_25,TITICACA_WORD_LAKES_365],[USA_WORD_MAP_32,ARCADE_WORD_GAMER_36],[MILAN_WORD_ITALY_376,BAIKAL_WORD_LAKES_365,PICKUPS_WORD_GUITAR_122],[UK_WORD_MAP_32,DIAMOND_PIC_GEMSTONE_31,LADYBUG_PIC_INSECTS_32],[VENICE_WORD_ITALY_376,SOPRANO_WORD_VOICES_439],[JAPAN_WORD_MAP_32,CROWE_WORD_ACTOR_89,RANK_WORD_ARMY_156],[CYPRUS_WORD_MAP_32,GENERAL_WORD_ARMY_156],[DELTA_WORD_GREECE_359,SERGEANT_WORD_ARMY_156],[LIZARD_PIC_REPTILES_30,FLASH_WORD_CAMERA_73],[CYBORG_WORD_ROBOT_354,DAISY_PIC_FLOWERS_29],[ALTO_WORD_VOICES_439,EXPOSURE_WORD_CAMERA_73],[ANDROID_WORD_ROBOT_354,LENS_WORD_CAMERA_73],[ITALY_WORD_MAP_32,SYNTAX_WORD_LINGUIST_162],[LILY_PIC_FLOWERS_29,SQUIRREL_PIC_RODENTS_33],[SNAKE_PIC_REPTILES_30,BARITONE_WORD_VOICES_439,STRATEGY_WORD_GAMER_36],[ALLIGATOR_PIC_REPTILES_30,BEAVER_PIC_RODENTS_33],[SIGMA_WORD_GREECE_359,DUALISM_WORD_VIEWS_410],[INDIA_WORD_MAP_32,ROME_WORD_ITALY_376,BASS_WORD_VOICES_439],[AUSTRALIA_WORD_MAP_32,TUNDRA_WORD_BIOMES_135],[FLORENCE_WORD_ITALY_376,TENOR_WORD_VOICES_439],[DRONE_WORD_ROBOT_354,COWBOY_BOOTS_PIC_WESTERN_34],[NANOBOT_WORD_ROBOT_354,TULIP_PIC_FLOWERS_29]]</t>
+    <t>[[DAISY_PIC_FLOWERS_29,BREEZE_WORD_COASTAL_882,TIDE_WORD_COASTAL_882],[UK_WORD_MAP_32,SHINGLE_WORD_COASTAL_882,JETTY_WORD_COASTAL_882],[CYBORG_WORD_ROBOT_354,FLAMENCO_WORD_DANCES_24,RUMBA_WORD_DANCES_24],[LIZARD_PIC_REPTILES_30,SAMBA_WORD_DANCES_24,HURON_WORD_LAKES_365],[DRONE_WORD_ROBOT_354,MACHINE_WORD_ROBOT_354],[JAPAN_WORD_MAP_32,SUPERIOR_WORD_LAKES_365,PENALTY_WORD_HOCKEY_86],[USA_WORD_MAP_32,GOAL_WORD_HOCKEY_86],[ROME_WORD_ITALY_376,STRINGS_WORD_GUITAR_122],[FLORENCE_WORD_ITALY_376,AMAZON_WORD_RIVERS_959],[ITALY_WORD_MAP_32,TENOR_WORD_VOICES_439],[AUSTRALIA_WORD_MAP_32,DICAPRIO_WORD_ACTOR_89],[SIGMA_WORD_GREECE_359,OLDMAN_WORD_ACTOR_89],[KAPPA_WORD_GREECE_359,WAHLBERG_WORD_ACTOR_89],[ROBOVAC_WORD_ROBOT_354,CAPTAIN_WORD_ARMY_156],[SNAKE_PIC_REPTILES_30,ALTO_WORD_VOICES_439],[CYPRUS_WORD_MAP_32,RANK_WORD_ARMY_156],[ANDROID_WORD_ROBOT_354,SERGEANT_WORD_ARMY_156],[FRANCE_WORD_MAP_32,EXPOSURE_WORD_CAMERA_73],[ALLIGATOR_PIC_REPTILES_30,SYNTAX_WORD_LINGUIST_162],[INDIA_WORD_MAP_32,VENICE_WORD_ITALY_376],[BASS_WORD_VOICES_439,SHOOTER_WORD_GAMER_36],[DELTA_WORD_GREECE_359,ARCADE_WORD_GAMER_36],[SCORE_WORD_GAMER_36,LILY_PIC_FLOWERS_29,STRATEGY_WORD_GAMER_36],[NANOBOT_WORD_ROBOT_354,TULIP_PIC_FLOWERS_29,SOPRANO_WORD_VOICES_439],[MILAN_WORD_ITALY_376,BARITONE_WORD_VOICES_439]]</t>
   </si>
   <si>
     <t>[WORD_GREECE_359,PIC_REPTILES_30,WORD_MAP_32,WORD_ROBOT_354,WORD_ITALY_376,PIC_FLOWERS_29,WORD_GAMER_36,WORD_VOICES_439]</t>
@@ -519,22 +507,22 @@
     <t>SORT_GAME_LEVE_23_BOARD_1</t>
   </si>
   <si>
-    <t>[6,13]</t>
-  </si>
-  <si>
-    <t>[[AMAZON_WORD_RIVERS_959,CREST_WORD_COASTAL_882],[MICHIGAN_WORD_LAKES_365,OLDMAN_WORD_ACTOR_89,RANK_WORD_ARMY_156],[LADYBUG_WORD_INSECTS_25,GENERAL_WORD_ARMY_156,EXPOSURE_WORD_CAMERA_73],[SUPERIOR_WORD_LAKES_365,ZOOM_WORD_CAMERA_73,FLASH_WORD_CAMERA_73],[HUDSON_WORD_RIVERS_959,SAND_WORD_COASTAL_882],[PUCK_WORD_HOCKEY_86,STRINGS_WORD_GUITAR_122],[MOSQUITO_PIC_INSECTS_32,GRAMMAR_WORD_LINGUIST_162,SQUIRREL_PIC_RODENTS_33],[HURON_WORD_LAKES_365,JETTY_WORD_COASTAL_882,STOICISM_WORD_VIEWS_410],[BAIKAL_WORD_LAKES_365,CUTLASS_PIC_PIRATE_35,RUM_PIC_PIRATE_35],[MOTH_WORD_INSECTS_25,BUOY_PIC_BEACH_36,ZEBRA_WORD_EQUIDAE_475],[MOSQUITO_WORD_INSECTS_25,RIFFS_WORD_GUITAR_122],[LADYBUG_PIC_INSECTS_32,HORSE_WORD_EQUIDAE_475,PONY_WORD_EQUIDAE_475],[RINK_WORD_HOCKEY_86,MUSTANG_WORD_EQUIDAE_475],[PENALTY_WORD_HOCKEY_86,CHORDS_WORD_GUITAR_122],[ANT_WORD_INSECTS_25,DONKEY_WORD_EQUIDAE_475],[ONTARIO_WORD_LAKES_365,PICKUPS_WORD_GUITAR_122,BREEZE_WORD_COASTAL_882],[NILE_WORD_RIVERS_959,BALLAD_WORD_POETRY_440],[GOAL_WORD_HOCKEY_86,ACROSTIC_WORD_POETRY_440],[RUBY_PIC_GEMSTONE_31,VERSE_WORD_RAP_151],[TITICACA_WORD_LAKES_365,RHYME_WORD_RAP_151],[SAPPHIRE_PIC_GEMSTONE_31,SHINGLE_WORD_COASTAL_882,SURFING_WORD_COASTAL_882],[MOTH_PIC_INSECTS_32,GROYNE_WORD_COASTAL_882],[DRAGONFLY_WORD_INSECTS_25,SERPENT_WORD_CHIMERA_795],[WASP_WORD_INSECTS_25,ELECTRON_WORD_PARTICLE_281],[DIAMOND_PIC_GEMSTONE_31,TIDE_WORD_COASTAL_882]]</t>
-  </si>
-  <si>
-    <t>[WORD_HOCKEY_86,WORD_INSECTS_25,WORD_RIVERS_959,PIC_INSECTS_32,WORD_LAKES_365,PIC_GEMSTONE_31,WORD_COASTAL_882,WORD_GUITAR_122]</t>
+    <t>[3,5]</t>
+  </si>
+  <si>
+    <t>[[FLAMENCO_WORD_DANCES_24,DICAPRIO_WORD_ACTOR_89,OLDMAN_WORD_ACTOR_89],[TANGO_WORD_DANCES_24,EASTWOOD_WORD_ACTOR_89,WAHLBERG_WORD_ACTOR_89],[PENALTY_WORD_HOCKEY_86,PRIVATE_WORD_ARMY_156,RANK_WORD_ARMY_156],[WALTZ_WORD_DANCES_24,EXPOSURE_WORD_CAMERA_73,GRAMMAR_WORD_LINGUIST_162],[NILE_WORD_RIVERS_959,TAIGA_WORD_BIOMES_135,SAVANNA_WORD_BIOMES_135],[SALSA_WORD_DANCES_24,MUSTANG_WORD_EQUIDAE_475,ZEBRA_WORD_EQUIDAE_475],[MOTH_PIC_INSECTS_32,BALLAD_WORD_POETRY_440],[HUDSON_WORD_RIVERS_959,RHYME_WORD_RAP_151],[SAMBA_WORD_DANCES_24,PUNCH_WORD_RAP_151],[SUPERIOR_WORD_LAKES_365,VERSE_WORD_RAP_151],[RUBY_PIC_GEMSTONE_31,SHINGLE_WORD_COASTAL_882],[MOSQUITO_PIC_INSECTS_32,DIAMOND_PIC_GEMSTONE_31,BREEZE_WORD_COASTAL_882],[MICHIGAN_WORD_LAKES_365,TIDE_WORD_COASTAL_882],[AMAZON_WORD_RIVERS_959,PICKUPS_WORD_GUITAR_122,SURFING_WORD_COASTAL_882],[TITICACA_WORD_LAKES_365,RIFFS_WORD_GUITAR_122],[LADYBUG_PIC_INSECTS_32,SERPENT_WORD_CHIMERA_795],[ROBUSTA_WORD_BEANS_219,LION_WORD_CHIMERA_795],[ONTARIO_WORD_LAKES_365,GOAT_WORD_CHIMERA_795],[RUMBA_WORD_DANCES_24,ELECTRON_WORD_PARTICLE_281],[FLASH_WORD_CAMERA_73,NEUTRON_WORD_PARTICLE_281],[PUCK_WORD_HOCKEY_86,SAND_WORD_COASTAL_882],[RINK_WORD_HOCKEY_86,CHORDS_WORD_GUITAR_122,GROYNE_WORD_COASTAL_882],[GOAL_WORD_HOCKEY_86,STRINGS_WORD_GUITAR_122],[BAIKAL_WORD_LAKES_365,SAPPHIRE_PIC_GEMSTONE_31,JETTY_WORD_COASTAL_882],[HURON_WORD_LAKES_365,CREST_WORD_COASTAL_882]]</t>
+  </si>
+  <si>
+    <t>[WORD_HOCKEY_86,WORD_DANCES_24,WORD_RIVERS_959,PIC_INSECTS_32,WORD_LAKES_365,PIC_GEMSTONE_31,WORD_COASTAL_882,WORD_GUITAR_122]</t>
   </si>
   <si>
     <t>SORT_GAME_LEVE_24_BOARD_1</t>
   </si>
   <si>
-    <t>[1,6,8]</t>
-  </si>
-  <si>
-    <t>[[CRUISE_WORD_ACTOR_89,CORPORAL_WORD_ARMY_156],[SQUIRREL_PIC_RODENTS_33,RANK_WORD_ARMY_156],[HANKS_WORD_ACTOR_89,CAPTAIN_WORD_ARMY_156],[DICAPRIO_WORD_ACTOR_89,MAJOR_WORD_ARMY_156,MARMOT_PIC_RODENTS_33],[DUALISM_WORD_VIEWS_410,STOICISM_WORD_VIEWS_410,POLYGLOT_WORD_LINGUIST_162],[TUNDRA_WORD_BIOMES_135,GRAMMAR_WORD_LINGUIST_162,SCHOLAR_WORD_LINGUIST_162],[HAY_WORD_FARMING_333,JOLLY_ROGER_PIC_PIRATE_35,TREASURE_CHEST_PIC_PIRATE_35],[WAHLBERG_WORD_ACTOR_89,FLASH_WORD_CAMERA_73],[PONY_WORD_EQUIDAE_475,WOODEN_SHIP_S_WHEEL_PIC_PIRATE_35,CANNON_PIC_PIRATE_35],[COLONEL_WORD_ARMY_156,BEACH_UMBRELLA_PIC_BEACH_36,BUOY_PIC_BEACH_36],[EASTWOOD_WORD_ACTOR_89,LENS_WORD_CAMERA_73,EXPOSURE_WORD_CAMERA_73],[MEAT_WORD_ANAGRAM_511,SAND_PIC_BEACH_36,HORSE_WORD_EQUIDAE_475],[PITT_WORD_ACTOR_89,SERGEANT_WORD_ARMY_156,SYNTAX_WORD_LINGUIST_162],[TAIGA_WORD_BIOMES_135,BALLAD_WORD_POETRY_440,ARABICA_WORD_BEANS_219],[SAVANNA_WORD_BIOMES_135,NEUTRON_WORD_PARTICLE_281,ATOM_WORD_PARTICLE_281],[ZOOM_WORD_CAMERA_73,LASSO_PIC_WESTERN_34],[NIHILISM_WORD_VIEWS_410,ELECTRON_WORD_PARTICLE_281,TOPSOIL_WORD_FARMING_333],[GENERAL_WORD_ARMY_156,NUTRIA_PIC_RODENTS_33,SHUTTER_WORD_CAMERA_73],[BEACH_CHAIR_PIC_BEACH_36,HARVEST_WORD_FARMING_333,MUMMY_PIC_EGYPT_37],[RHYME_WORD_RAP_151,TANGO_WORD_DANCES_24],[CROWE_WORD_ACTOR_89,BEAVER_PIC_RODENTS_33],[SPHINX_PIC_EGYPT_37,BORDER_WORD_CUSTOMS_592],[OLDMAN_WORD_ACTOR_89,COWBOY_HAT_PIC_WESTERN_34,COWBOY_BOOTS_PIC_WESTERN_34],[PRIVATE_WORD_ARMY_156,ESTIMATE_WORD_EVALUATE_651],[FILTER_WORD_CAMERA_73,MINE_WORD_SHAFT_331]]</t>
+    <t>[3,7,11]</t>
+  </si>
+  <si>
+    <t>[[WAHLBERG_WORD_ACTOR_89,GENERAL_WORD_ARMY_156,SCHOLAR_WORD_LINGUIST_162],[HANKS_WORD_ACTOR_89,SERGEANT_WORD_ARMY_156,MARMOT_PIC_RODENTS_33],[LADYBUG_WORD_INSECTS_25,MUSTANG_WORD_EQUIDAE_475,MULE_WORD_EQUIDAE_475],[MAJOR_WORD_ARMY_156,ZEBRA_WORD_EQUIDAE_475,DONKEY_WORD_EQUIDAE_475],[OLDMAN_WORD_ACTOR_89,LYRICS_WORD_RAP_151,PUNCH_WORD_RAP_151],[DICAPRIO_WORD_ACTOR_89,RHYME_WORD_RAP_151,LIBERICA_WORD_BEANS_219],[CRUISE_WORD_ACTOR_89,RANK_WORD_ARMY_156],[SAVANNA_WORD_BIOMES_135,NEUTRON_WORD_PARTICLE_281,ATOM_WORD_PARTICLE_281],[DUALISM_WORD_VIEWS_410,VIOLIN_WORD_PLAY_223,ORGAN_WORD_PLAY_223],[ROBUSTA_WORD_BEANS_219,PIANO_WORD_PLAY_223,WASP_WORD_INSECTS_25],[COLONEL_WORD_ARMY_156,NIHILISM_WORD_VIEWS_410,COWBOY_BOOTS_PIC_WESTERN_34],[BEAVER_PIC_RODENTS_33,PRIVATE_WORD_ARMY_156],[CORPORAL_WORD_ARMY_156,SYNTAX_WORD_LINGUIST_162],[STOICISM_WORD_VIEWS_410,SQUIRREL_PIC_RODENTS_33,LENS_WORD_CAMERA_73],[PITT_WORD_ACTOR_89,COWBOY_HAT_PIC_WESTERN_34,NUTRIA_PIC_RODENTS_33],[FLASH_WORD_CAMERA_73,DRAGONFLY_WORD_INSECTS_25,ASSESS_WORD_EVALUATE_651],[CROWE_WORD_ACTOR_89,FILTER_WORD_CAMERA_73,LASSO_PIC_WESTERN_34],[MOSQUITO_WORD_INSECTS_25,ANALYZE_WORD_EVALUATE_651],[TUNDRA_WORD_BIOMES_135,SHUTTER_WORD_CAMERA_73],[IMPORT_WORD_CUSTOMS_592,MATE_WORD_ANAGRAM_511],[ACROSTIC_WORD_POETRY_440,TEAM_WORD_ANAGRAM_511],[TAIGA_WORD_BIOMES_135,EXPOSURE_WORD_CAMERA_73,POLYGLOT_WORD_LINGUIST_162],[ZOOM_WORD_CAMERA_73,MINE_WORD_SHAFT_331],[CAPTAIN_WORD_ARMY_156,PICKAXE_WORD_SHAFT_331],[EASTWOOD_WORD_ACTOR_89,GRAMMAR_WORD_LINGUIST_162]]</t>
   </si>
   <si>
     <t>[WORD_BIOMES_135,WORD_ARMY_156,WORD_ACTOR_89,WORD_VIEWS_410,PIC_RODENTS_33,WORD_CAMERA_73,WORD_LINGUIST_162,PIC_WESTERN_34]</t>
@@ -543,10 +531,10 @@
     <t>SORT_GAME_LEVE_25_BOARD_1</t>
   </si>
   <si>
-    <t>[1,7,10]</t>
-  </si>
-  <si>
-    <t>[[ELECTRON_WORD_PARTICLE_281,ACROSTIC_WORD_POETRY_440,TREASURE_CHEST_PIC_PIRATE_35],[MUSTANG_WORD_EQUIDAE_475,HAIKU_WORD_POETRY_440,PARROT_PIC_PIRATE_35],[ZEBRA_WORD_EQUIDAE_475,JOLLY_ROGER_PIC_PIRATE_35,SHELLS_PIC_BEACH_36],[NEUTRON_WORD_PARTICLE_281,EXCELSA_WORD_BEANS_219,ARABICA_WORD_BEANS_219],[RHYME_WORD_RAP_151,BEACH_UMBRELLA_PIC_BEACH_36,ROBUSTA_WORD_BEANS_219],[PUNCH_WORD_RAP_151,CROP_WORD_FARMING_333,TOPSOIL_WORD_FARMING_333],[ATOM_WORD_PARTICLE_281,LYRICS_WORD_RAP_151,SEAGULL_PIC_BEACH_36],[NILE_RIVER_PIC_EGYPT_37,GRAIN_WORD_FARMING_333,WALTZ_WORD_DANCES_24],[PHARAOH_S_MASK_PIC_EGYPT_37,BORDER_WORD_CUSTOMS_592,UFO_PIC_SPACE_38],[ODE_WORD_POETRY_440,BUOY_PIC_BEACH_36],[SONNET_WORD_POETRY_440,ASTRONAUT_PIC_SPACE_38,MEAT_WORD_ANAGRAM_511],[GOAT_WORD_CHIMERA_795,TREASURE_MAP_PIC_PIRATE_35],[CAKE_PIC_BIRTHDAY_40,TEAM_WORD_ANAGRAM_511,CART_WORD_SHAFT_331],[SERPENT_WORD_CHIMERA_795,SARDINE_PIC_SEA_FISH_39,CLOWNFISH_PIC_SEA_FISH_39],[DONKEY_WORD_EQUIDAE_475,CUTLASS_PIC_PIRATE_35,WAVES_PIC_BEACH_36],[SPHINX_PIC_EGYPT_37,STINGRAY_PIC_SEA_FISH_39,MARLIN_PIC_SEA_FISH_39],[LION_WORD_CHIMERA_795,WOODEN_SHIP_S_WHEEL_PIC_PIRATE_35,BEACH_CHAIR_PIC_BEACH_36],[HORSE_WORD_EQUIDAE_475,WINGS_WORD_PLANE_139,FLY_WORD_PLANE_139],[SAWFISH_PIC_SEA_FISH_39,SEATBELT_WORD_PLANE_139,AILERON_WORD_PLANE_139],[MULE_WORD_EQUIDAE_475,RUM_PIC_PIRATE_35,BAY_PIC_BEACH_36],[VERSE_WORD_RAP_151,BIRTHDAY_HAT_PIC_BIRTHDAY_40,BALLOON_PIC_BIRTHDAY_40],[BALLAD_WORD_POETRY_440,CANNON_PIC_PIRATE_35,SAND_PIC_BEACH_36],[THERMAL_WORD_ENERGY_145,MOTION_WORD_DYNAMICS_360],[FALLOW_WORD_FARMING_333,GOATEE_WORD_BEARDS_681],[PONY_WORD_EQUIDAE_475,LIBERICA_WORD_BEANS_219]]</t>
+    <t>[3,7,12]</t>
+  </si>
+  <si>
+    <t>[[KINETIC_WORD_ENERGY_145,ORGAN_WORD_PLAY_223,PIANO_WORD_PLAY_223],[BALLAD_WORD_POETRY_440,ODE_WORD_POETRY_440,ARABICA_WORD_BEANS_219],[MULE_WORD_EQUIDAE_475,DRUM_WORD_PLAY_223,CELLO_WORD_PLAY_223],[MOTION_WORD_DYNAMICS_360,BORDER_WORD_CUSTOMS_592,EXPORT_WORD_CUSTOMS_592],[MUSTANG_WORD_EQUIDAE_475,HAIKU_WORD_POETRY_440,RUM_PIC_PIRATE_35],[NUCLEAR_WORD_ENERGY_145,DUTY_WORD_CUSTOMS_592,TEAM_WORD_ANAGRAM_511],[ATOM_WORD_PARTICLE_281,ROBUSTA_WORD_BEANS_219,SEAGULL_PIC_BEACH_36],[RHYME_WORD_RAP_151,MEAT_WORD_ANAGRAM_511,PICKAXE_WORD_SHAFT_331],[HORSE_WORD_EQUIDAE_475,BEACH_CHAIR_PIC_BEACH_36,JOLLY_ROGER_PIC_PIRATE_35],[ENGINE_WORD_PLANE_139,COCKPIT_WORD_PLANE_139,FLY_WORD_PLANE_139],[BUOY_PIC_BEACH_36,TREASURE_CHEST_PIC_PIRATE_35,WOODEN_SHIP_S_WHEEL_PIC_PIRATE_35],[PUNCH_WORD_RAP_151,CANNON_PIC_PIRATE_35],[SERPENT_WORD_CHIMERA_795,BAY_PIC_BEACH_36,SHELLS_PIC_BEACH_36],[SONNET_WORD_POETRY_440,EXCELSA_WORD_BEANS_219,WAVES_PIC_BEACH_36],[ACROSTIC_WORD_POETRY_440,LIBERICA_WORD_BEANS_219,SAND_PIC_BEACH_36],[PONY_WORD_EQUIDAE_475,FUSELAGE_WORD_PLANE_139,SEATBELT_WORD_PLANE_139],[NEUTRON_WORD_PARTICLE_281,PARROT_PIC_PIRATE_35],[LION_WORD_CHIMERA_795,WINGS_WORD_PLANE_139,RUDDER_WORD_PLANE_139],[VERSE_WORD_RAP_151,SPYGLASS_WORD_OPTICS_229,SOLAR_WORD_ENERGY_145],[LYRICS_WORD_RAP_151,THERMAL_WORD_ENERGY_145,DHARMA_WORD_ZEN_549],[DONKEY_WORD_EQUIDAE_475,CUTLASS_PIC_PIRATE_35],[ELECTRON_WORD_PARTICLE_281,TREASURE_MAP_PIC_PIRATE_35,BEACH_UMBRELLA_PIC_BEACH_36],[GOAT_WORD_CHIMERA_795,YOGA_WORD_ZEN_549,INERTIA_WORD_DYNAMICS_360],[ZEBRA_WORD_EQUIDAE_475,GOATEE_WORD_BEARDS_681],[FLUTE_WORD_PLAY_223,DUCKTAIL_WORD_BEARDS_681]]</t>
   </si>
   <si>
     <t>[WORD_POETRY_440,WORD_EQUIDAE_475,WORD_PARTICLE_281,WORD_CHIMERA_795,WORD_RAP_151,PIC_BEACH_36,PIC_PIRATE_35,WORD_BEANS_219]</t>
@@ -555,22 +543,22 @@
     <t>SORT_GAME_LEVE_26_BOARD_1</t>
   </si>
   <si>
-    <t>[4,12]</t>
-  </si>
-  <si>
-    <t>[[ESTIMATE_WORD_EVALUATE_651,STINGRAY_PIC_SEA_FISH_39,AILERON_WORD_PLANE_139],[ALIEN_PIC_SPACE_38,WINGS_WORD_PLANE_139,CONFETTI_PIC_BIRTHDAY_40],[PADDOCK_WORD_FARMING_333,BALLOON_PIC_BIRTHDAY_40,CAKE_PIC_BIRTHDAY_40],[BORDER_WORD_CUSTOMS_592,MONOCLE_WORD_OPTICS_229,YOGA_WORD_ZEN_549],[DUTY_WORD_CUSTOMS_592,HARVEST_WORD_FARMING_333,MEAT_WORD_ANAGRAM_511],[SALSA_WORD_DANCES_24,RINZAI_WORD_ZEN_549,INERTIA_WORD_DYNAMICS_360],[PHARAOH_S_MASK_PIC_EGYPT_37,ROMEO_WORD_WILLIAM_165],[UFO_PIC_SPACE_38,HENRY_V_WORD_WILLIAM_165],[ROCKET_PIC_SPACE_38,HAY_WORD_FARMING_333],[TANGO_WORD_DANCES_24,ELECTRIC_CAR_PIC_CHARGER_41],[WALTZ_WORD_DANCES_24,DESTRIER_WORD_KNIGHT_34],[FLAMENCO_WORD_DANCES_24,WEAPON_WORD_KNIGHT_34],[SPHINX_PIC_EGYPT_37,SCARAB_PIC_EGYPT_37],[CROP_WORD_FARMING_333,SIAMESE_WORD_BREEDS_940],[FALLOW_WORD_FARMING_333,SPHYNX_WORD_BREEDS_940],[GRAIN_WORD_FARMING_333,PYRAMID_PIC_EGYPT_37],[MUMMY_PIC_EGYPT_37,TOPSOIL_WORD_FARMING_333],[ASSESS_WORD_EVALUATE_651,MINE_WORD_SHAFT_331],[IMPORT_WORD_CUSTOMS_592,MATE_WORD_ANAGRAM_511,TEAM_WORD_ANAGRAM_511],[RUMBA_WORD_DANCES_24,ANALYZE_WORD_EVALUATE_651],[SAMBA_WORD_DANCES_24,PICKAXE_WORD_SHAFT_331],[EXPORT_WORD_CUSTOMS_592,CART_WORD_SHAFT_331],[ASTRONAUT_PIC_SPACE_38,PLANE_PIC_TRANSPORT_42],[COMPOST_WORD_FARMING_333,ENCODE_WORD_CIPHER_208],[NILE_RIVER_PIC_EGYPT_37,KEYWORD_WORD_CIPHER_208]]</t>
-  </si>
-  <si>
-    <t>[WORD_CUSTOMS_592,WORD_DANCES_24,WORD_FARMING_333,PIC_EGYPT_37,WORD_EVALUATE_651,PIC_SPACE_38,WORD_ANAGRAM_511,WORD_SHAFT_331]</t>
+    <t>[3,7]</t>
+  </si>
+  <si>
+    <t>[[ALIEN_PIC_SPACE_38,SEATBELT_WORD_PLANE_139,MONOCLE_WORD_OPTICS_229],[EXPORT_WORD_CUSTOMS_592,UKULELE_WORD_PLAY_223],[NILE_RIVER_PIC_EGYPT_37,LENS_WORD_OPTICS_229,NUCLEAR_WORD_ENERGY_145],[UFO_PIC_SPACE_38,KINETIC_WORD_ENERGY_145,YOGA_WORD_ZEN_549],[PYRAMID_PIC_EGYPT_37,RINZAI_WORD_ZEN_549,MOTION_WORD_DYNAMICS_360],[PHARAOH_S_MASK_PIC_EGYPT_37,BALBO_WORD_BEARDS_681,OTHELLO_WORD_WILLIAM_165],[ROCKET_PIC_SPACE_38,SPHINX_PIC_EGYPT_37],[DUTY_WORD_CUSTOMS_592,ROMEO_WORD_WILLIAM_165],[ASTRONAUT_PIC_SPACE_38,MACBETH_WORD_WILLIAM_165],[ESTIMATE_WORD_EVALUATE_651,CHIVALRY_WORD_KNIGHT_34],[MOTH_WORD_INSECTS_25,SCARAB_PIC_EGYPT_37],[DRUM_WORD_PLAY_223,FLUTE_WORD_PLAY_223],[VIOLIN_WORD_PLAY_223,ORGAN_WORD_PLAY_223],[MOSQUITO_WORD_INSECTS_25,MEAT_WORD_ANAGRAM_511,TEAM_WORD_ANAGRAM_511],[GUITAR_WORD_PLAY_223,ANALYZE_WORD_EVALUATE_651],[DRAGONFLY_WORD_INSECTS_25,MINE_WORD_SHAFT_331],[WASP_WORD_INSECTS_25,CART_WORD_SHAFT_331],[CELLO_WORD_PLAY_223,BENGAL_WORD_BREEDS_940],[PIANO_WORD_PLAY_223,BIRMAN_WORD_BREEDS_940],[MUMMY_PIC_EGYPT_37,PASSWORD_WORD_CIPHER_208],[IMPORT_WORD_CUSTOMS_592,DECODE_WORD_CIPHER_208],[BORDER_WORD_CUSTOMS_592,MATE_WORD_ANAGRAM_511,PICKAXE_WORD_SHAFT_331],[ANT_WORD_INSECTS_25,DIVA_WORD_OPERA_760],[LADYBUG_WORD_INSECTS_25,ANARCHY_WORD_POLICIES_394],[ASSESS_WORD_EVALUATE_651,MONARCHY_WORD_POLICIES_394]]</t>
+  </si>
+  <si>
+    <t>[WORD_CUSTOMS_592,WORD_INSECTS_25,WORD_PLAY_223,PIC_EGYPT_37,WORD_EVALUATE_651,PIC_SPACE_38,WORD_ANAGRAM_511,WORD_SHAFT_331]</t>
   </si>
   <si>
     <t>SORT_GAME_LEVE_27_BOARD_1</t>
   </si>
   <si>
-    <t>[2,11]</t>
-  </si>
-  <si>
-    <t>[[BALBO_WORD_BEARDS_681,DHARMA_WORD_ZEN_549],[SHARK_PIC_SEA_FISH_39,ROMEO_WORD_WILLIAM_165,OTHELLO_WORD_WILLIAM_165],[BALLOON_PIC_BIRTHDAY_40,HENRY_V_WORD_WILLIAM_165,LAPTOP_PIC_CHARGER_41],[SAWFISH_PIC_SEA_FISH_39,DIGITAL_CAMERA_PIC_CHARGER_41,SPHYNX_WORD_BREEDS_940],[COD_PIC_SEA_FISH_39,PASSWORD_WORD_CIPHER_208,ROLE_WORD_OPERA_760],[CAKE_PIC_BIRTHDAY_40,VELOCITY_WORD_DYNAMICS_360],[YOGA_WORD_ZEN_549,SOLAR_WORD_ENERGY_145,WINGS_WORD_PLANE_139],[NUCLEAR_WORD_ENERGY_145,STINGRAY_PIC_SEA_FISH_39,SEATBELT_WORD_PLANE_139],[KINETIC_WORD_ENERGY_145,TUNA_PIC_SEA_FISH_39],[MONOCLE_WORD_OPTICS_229,FLY_WORD_PLANE_139,RUDDER_WORD_PLANE_139],[LENS_WORD_OPTICS_229,INERTIA_WORD_DYNAMICS_360,TYRANNY_WORD_POLICIES_394],[MARLIN_PIC_SEA_FISH_39,OTTER_PIC_WHISKERS_43,CATFISH_PIC_WHISKERS_43],[GLASSES_WORD_OPTICS_229,AILERON_WORD_PLANE_139,ENGINE_WORD_PLANE_139],[RINZAI_WORD_ZEN_549,SEAL_PIC_WHISKERS_43,CARBON_WORD_ELEMENTS_107],[GOATEE_WORD_BEARDS_681,CHEESE_PIC_BURGER_44,BUN_PIC_BURGER_44],[MOTION_WORD_DYNAMICS_360,SYBARITE_WORD_FOODIE_726],[THERMAL_WORD_ENERGY_145,FALLOUT_WORD_RADIATE_257],[BOX_PIC_BIRTHDAY_40,DECAY_WORD_RADIATE_257],[CANDLE_PIC_BIRTHDAY_40,COCKPIT_WORD_PLANE_139],[CONFETTI_PIC_BIRTHDAY_40,CORTISOL_WORD_HORMONES_259],[BIRTHDAY_HAT_PIC_BIRTHDAY_40,GASTRIN_WORD_HORMONES_259],[SARDINE_PIC_SEA_FISH_39,POTION_WORD_ALCHEMY_445],[SPYGLASS_WORD_OPTICS_229,ELIXIR_WORD_ALCHEMY_445],[DUCKTAIL_WORD_BEARDS_681,SYNERGY_WORD_YINYANG_721],[CLOWNFISH_PIC_SEA_FISH_39,FUSELAGE_WORD_PLANE_139]]</t>
+    <t>[6,8]</t>
+  </si>
+  <si>
+    <t>[[SAWFISH_PIC_SEA_FISH_39,INERTIA_WORD_DYNAMICS_360],[THERMAL_WORD_ENERGY_145,JULIET_WORD_WILLIAM_165,ROMEO_WORD_WILLIAM_165],[RINZAI_WORD_ZEN_549,VELOCITY_WORD_DYNAMICS_360],[GOATEE_WORD_BEARDS_681,HAMLET_WORD_WILLIAM_165,WEAPON_WORD_KNIGHT_34],[SPYGLASS_WORD_OPTICS_229,ARMOR_WORD_KNIGHT_34,CHIVALRY_WORD_KNIGHT_34],[KINETIC_WORD_ENERGY_145,AILERON_WORD_PLANE_139,SEATBELT_WORD_PLANE_139],[GLASSES_WORD_OPTICS_229,ANGORA_WORD_BREEDS_940,SPHYNX_WORD_BREEDS_940],[TUNA_PIC_SEA_FISH_39,CLOWNFISH_PIC_SEA_FISH_39,WINGS_WORD_PLANE_139],[SOLAR_WORD_ENERGY_145,DECODE_WORD_CIPHER_208,ACT_WORD_OPERA_760],[BALLOON_PIC_BIRTHDAY_40,DIVA_WORD_OPERA_760,TYRANNY_WORD_POLICIES_394],[BALBO_WORD_BEARDS_681,SHARK_PIC_SEA_FISH_39,COCKPIT_WORD_PLANE_139],[CAKE_PIC_BIRTHDAY_40,ANARCHY_WORD_POLICIES_394,OXYGEN_WORD_ELEMENTS_107],[BIRTHDAY_HAT_PIC_BIRTHDAY_40,RUDDER_WORD_PLANE_139],[CANDLE_PIC_BIRTHDAY_40,SODIUM_WORD_ELEMENTS_107,GOURMET_WORD_FOODIE_726],[YOGA_WORD_ZEN_549,HEDONISM_WORD_FOODIE_726],[DHARMA_WORD_ZEN_549,NUCLEAR_WORD_ENERGY_145],[MOTION_WORD_DYNAMICS_360,GLUCAGON_WORD_HORMONES_259],[BOX_PIC_BIRTHDAY_40,FLY_WORD_PLANE_139],[STINGRAY_PIC_SEA_FISH_39,GASTRIN_WORD_HORMONES_259],[COD_PIC_SEA_FISH_39,INSULIN_WORD_HORMONES_259],[CONFETTI_PIC_BIRTHDAY_40,ENGINE_WORD_PLANE_139],[MARLIN_PIC_SEA_FISH_39,INTEREST_WORD_MORTGAGE_595],[MONOCLE_WORD_OPTICS_229,FUSELAGE_WORD_PLANE_139,SARDINE_PIC_SEA_FISH_39],[LENS_WORD_OPTICS_229,PAYMENT_WORD_MORTGAGE_595],[DUCKTAIL_WORD_BEARDS_681,HARMONY_WORD_YINYANG_721]]</t>
   </si>
   <si>
     <t>[WORD_ZEN_549,PIC_BIRTHDAY_40,WORD_BEARDS_681,WORD_DYNAMICS_360,WORD_ENERGY_145,WORD_OPTICS_229,PIC_SEA_FISH_39,WORD_PLANE_139]</t>
@@ -579,10 +567,10 @@
     <t>SORT_GAME_LEVE_28_BOARD_1</t>
   </si>
   <si>
-    <t>[5,6,11]</t>
-  </si>
-  <si>
-    <t>[[KEYWORD_WORD_CIPHER_208,MONARCHY_WORD_POLICIES_394,CHIVALRY_WORD_KNIGHT_34],[EAGLE_WORD_BIRDS_80,CAT_PIC_WHISKERS_43,HYDROGEN_WORD_ELEMENTS_107],[BIRMAN_WORD_BREEDS_940,SULFUR_WORD_ELEMENTS_107,GOURMET_WORD_FOODIE_726],[HELICOPTER_PIC_TRANSPORT_42,DISHES_WORD_FOODIE_726,CURIE_WORD_RADIATE_257],[SMARTWATCH_PIC_CHARGER_41,DECAY_WORD_RADIATE_257,CAULDRON_WORD_ALCHEMY_445],[BENGAL_WORD_BREEDS_940,SHIELD_WORD_KNIGHT_34],[BLUETOOTH_HEADPHONES_PIC_CHARGER_41,LAPTOP_PIC_CHARGER_41,OTHELLO_WORD_WILLIAM_165],[DECODE_WORD_CIPHER_208,POTION_WORD_ALCHEMY_445,HUMMING_WORD_SINGING_1054],[PASSWORD_WORD_CIPHER_208,SWAN_WORD_BIRDS_80,HERON_WORD_BIRDS_80],[CATFISH_PIC_WHISKERS_43,OWL_WORD_BIRDS_80,SERUM_WORD_SKINCARE_984],[POWER_BANK_PIC_CHARGER_41,ROMEO_WORD_WILLIAM_165,DIVA_WORD_OPERA_760],[SPHYNX_WORD_BREEDS_940,RETINOL_WORD_SKINCARE_984,BLEMISH_WORD_SKINCARE_984],[TRAIN_PIC_TRANSPORT_42,TYRANNY_WORD_POLICIES_394],[TAXI_PIC_TRANSPORT_42,PORES_WORD_SKINCARE_984,LEMONADE_PIC_DRINKS_45],[GENE_WORD_GENETICS_1060,SODA_PIC_DRINKS_45],[ANARCHY_WORD_POLICIES_394,HENRY_V_WORD_WILLIAM_165,ACT_WORD_OPERA_760],[ANGORA_WORD_BREEDS_940,CASTLE_WORD_MEDIEVAL_228],[BEEF_PIC_BURGER_44,SQUARE_PIC_SHAPES_46],[SIAMESE_WORD_BREEDS_940,ROLE_WORD_OPERA_760,PERICLES_WORD_WILLIAM_165],[ELECTRIC_CAR_PIC_CHARGER_41,OVAL_PIC_SHAPES_46],[DRONE_PIC_CHARGER_41,HELMET_WORD_KNIGHT_34],[ENCODE_WORD_CIPHER_208,WEAPON_WORD_KNIGHT_34,TEMPEST_WORD_WILLIAM_165],[ELECTRIC_TOOTHBRUSH_PIC_CHARGER_41,MACBETH_WORD_WILLIAM_165,JULIET_WORD_WILLIAM_165],[PLANE_PIC_TRANSPORT_42,DESTRIER_WORD_KNIGHT_34],[DIGITAL_CAMERA_PIC_CHARGER_41,ARMOR_WORD_KNIGHT_34,HAMLET_WORD_WILLIAM_165]]</t>
+    <t>[7,10,11]</t>
+  </si>
+  <si>
+    <t>[[DECODE_WORD_CIPHER_208,TYRANNY_WORD_POLICIES_394,JULIET_WORD_WILLIAM_165],[MONARCHY_WORD_POLICIES_394,MACBETH_WORD_WILLIAM_165,PERICLES_WORD_WILLIAM_165],[ANGORA_WORD_BREEDS_940,SILICON_WORD_ELEMENTS_107,SULFUR_WORD_ELEMENTS_107],[SOLOIST_WORD_SINGING_1054,HYDROGEN_WORD_ELEMENTS_107,GOURMET_WORD_FOODIE_726],[ELECTRIC_CAR_PIC_CHARGER_41,ELECTRIC_TOOTHBRUSH_PIC_CHARGER_41,ACT_WORD_OPERA_760],[LAPTOP_PIC_CHARGER_41,DECAY_WORD_RADIATE_257,INSULIN_WORD_HORMONES_259],[DIGITAL_CAMERA_PIC_CHARGER_41,SHIELD_WORD_KNIGHT_34,CHIVALRY_WORD_KNIGHT_34],[SWAN_WORD_BIRDS_80,CAULDRON_WORD_ALCHEMY_445,HUMMING_WORD_SINGING_1054],[SPHYNX_WORD_BREEDS_940,MELODY_WORD_SINGING_1054,FINCH_WORD_BIRDS_80],[ENCODE_WORD_CIPHER_208,ROLE_WORD_OPERA_760,OTHELLO_WORD_WILLIAM_165],[TAXI_PIC_TRANSPORT_42,VULTURE_WORD_BIRDS_80,DOVE_WORD_BIRDS_80],[SIAMESE_WORD_BREEDS_940,ANARCHY_WORD_POLICIES_394],[DRONE_PIC_CHARGER_41,BLUETOOTH_HEADPHONES_PIC_CHARGER_41],[KEYWORD_WORD_CIPHER_208,ROBIN_WORD_BIRDS_80,TEXTURE_WORD_SKINCARE_984],[HELICOPTER_PIC_TRANSPORT_42,HAMLET_WORD_WILLIAM_165,TEMPEST_WORD_WILLIAM_165],[FALLOUT_WORD_RADIATE_257,RETINOL_WORD_SKINCARE_984,VASE_WORD_ARTIFACT_276],[POWER_BANK_PIC_CHARGER_41,ARMOR_WORD_KNIGHT_34,ROMEO_WORD_WILLIAM_165],[SONG_WORD_SINGING_1054,TOTEM_WORD_ARTIFACT_276,RELIC_WORD_ARTIFACT_276],[PASSWORD_WORD_CIPHER_208,WEAPON_WORD_KNIGHT_34],[PLANE_PIC_TRANSPORT_42,DESTRIER_WORD_KNIGHT_34],[GLUCAGON_WORD_HORMONES_259,TABLA_WORD_DRUM_518],[TRAIN_PIC_TRANSPORT_42,DIVA_WORD_OPERA_760],[SMARTWATCH_PIC_CHARGER_41,DJEMBE_WORD_DRUM_518],[BENGAL_WORD_BREEDS_940,DNA_WORD_GENETICS_1060],[BIRMAN_WORD_BREEDS_940,HELMET_WORD_KNIGHT_34,HENRY_V_WORD_WILLIAM_165]]</t>
   </si>
   <si>
     <t>[PIC_TRANSPORT_42,WORD_BREEDS_940,WORD_POLICIES_394,WORD_CIPHER_208,PIC_CHARGER_41,WORD_WILLIAM_165,WORD_OPERA_760,WORD_KNIGHT_34]</t>
@@ -591,10 +579,10 @@
     <t>SORT_GAME_LEVE_29_BOARD_1</t>
   </si>
   <si>
-    <t>[7,10,13]</t>
-  </si>
-  <si>
-    <t>[[GASTRIN_WORD_HORMONES_259,IODINE_WORD_ELEMENTS_107,WALRUS_PIC_WHISKERS_43],[SYNERGY_WORD_YINYANG_721,BUN_PIC_BURGER_44,LETTUCE_PIC_BURGER_44],[INSULIN_WORD_HORMONES_259,HUMMING_WORD_SINGING_1054,SOLOIST_WORD_SINGING_1054],[INTEREST_WORD_MORTGAGE_595,SONG_WORD_SINGING_1054,MELODY_WORD_SINGING_1054],[TOMATO_PIC_BURGER_44,BEEF_PIC_BURGER_44,CAT_PIC_WHISKERS_43],[GLUCAGON_WORD_HORMONES_259,ROBIN_WORD_BIRDS_80,OWL_WORD_BIRDS_80],[SODIUM_WORD_ELEMENTS_107,NITROGEN_WORD_ELEMENTS_107,TASTE_WORD_FOODIE_726],[HARMONY_WORD_YINYANG_721,VULTURE_WORD_BIRDS_80,TEXTURE_WORD_SKINCARE_984],[X_RAYS_WORD_RADIATE_257,SIGIL_WORD_ARTIFACT_276,VASE_WORD_ARTIFACT_276],[PAYMENT_WORD_MORTGAGE_595,CORTISOL_WORD_HORMONES_259,SQUIRREL_PIC_WHISKERS_43],[RAMSES_WORD_PYRAMIDS_330,JUICE_PIC_DRINKS_45,CASTLE_WORD_MEDIEVAL_228],[OTTER_PIC_WHISKERS_43,DISHES_WORD_FOODIE_726,DOG_PIC_WHISKERS_43],[ELIXIR_WORD_ALCHEMY_445,VILLA_WORD_HOUSE_40,SPLEEN_WORD_ORGANS_412],[SILICON_WORD_ELEMENTS_107,HEART_WORD_ORGANS_412,BIOLOGY_WORD_LESSONS_94],[SEAL_PIC_WHISKERS_43,HEDONISM_WORD_FOODIE_726,SYBARITE_WORD_FOODIE_726],[OXYGEN_WORD_ELEMENTS_107,SUPERCAR_PIC_LUXURY_47,WATCH_PIC_LUXURY_47],[DECAY_WORD_RADIATE_257,CARBON_WORD_ELEMENTS_107,GOURMET_WORD_FOODIE_726],[PANCREAS_WORD_ORGANS_412,YACHT_PIC_LUXURY_47,OSIRIS_WORD_PYRAMIDS_330],[DUALITY_WORD_YINYANG_721,EMPRESS_PIC_TAROT_48,FOOL_PIC_TAROT_48],[FALLOUT_WORD_RADIATE_257,LION_PIC_WHISKERS_43,EPICURE_WORD_FOODIE_726],[CURIE_WORD_RADIATE_257,CHEESE_PIC_BURGER_44],[SULFUR_WORD_ELEMENTS_107,SAUCE_PIC_BURGER_44,CATFISH_PIC_WHISKERS_43],[CAULDRON_WORD_ALCHEMY_445,MAGICIAN_PIC_TAROT_48,GALLOP_WORD_GAITS_810],[RATE_WORD_MORTGAGE_595,CORE_WORD_EARTH_831],[POTION_WORD_ALCHEMY_445,HYDROGEN_WORD_ELEMENTS_107]]</t>
+    <t>[3,9,11]</t>
+  </si>
+  <si>
+    <t>[[HARMONY_WORD_YINYANG_721,CHEESE_PIC_BURGER_44,CATFISH_PIC_WHISKERS_43],[ELIXIR_WORD_ALCHEMY_445,CHOIR_WORD_SINGING_1054,PITCH_WORD_SINGING_1054],[INTEREST_WORD_MORTGAGE_595,ARIA_WORD_SINGING_1054,ROBIN_WORD_BIRDS_80],[SEAL_PIC_WHISKERS_43,BUN_PIC_BURGER_44,SQUIRREL_PIC_WHISKERS_43],[OXYGEN_WORD_ELEMENTS_107,SWAN_WORD_BIRDS_80,OWL_WORD_BIRDS_80],[RA_WORD_PYRAMIDS_330,RETINOL_WORD_SKINCARE_984,PORES_WORD_SKINCARE_984],[CORTISOL_WORD_HORMONES_259,SODIUM_WORD_ELEMENTS_107],[EAGLE_WORD_BIRDS_80,PEPTIDES_WORD_SKINCARE_984,VASE_WORD_ARTIFACT_276],[CURIE_WORD_RADIATE_257,HYDROGEN_WORD_ELEMENTS_107,LION_PIC_WHISKERS_43],[CAULDRON_WORD_ALCHEMY_445,DJEMBE_WORD_DRUM_518,TABLA_WORD_DRUM_518],[SULFUR_WORD_ELEMENTS_107,DOG_PIC_WHISKERS_43,LETTUCE_PIC_BURGER_44],[X_RAYS_WORD_RADIATE_257,HEDONISM_WORD_FOODIE_726,EPICURE_WORD_FOODIE_726],[DECAY_WORD_RADIATE_257,BEEF_PIC_BURGER_44,OTTER_PIC_WHISKERS_43],[INSULIN_WORD_HORMONES_259,SILICON_WORD_ELEMENTS_107,TASTE_WORD_FOODIE_726],[POTION_WORD_ALCHEMY_445,GOURMET_WORD_FOODIE_726,DISHES_WORD_FOODIE_726],[CARBON_WORD_ELEMENTS_107,DNA_WORD_GENETICS_1060,MANSION_WORD_HOUSE_40],[SAUCE_PIC_BURGER_44,VILLA_WORD_HOUSE_40,STOMACH_WORD_ORGANS_412],[PAYMENT_WORD_MORTGAGE_595,KIDNEY_WORD_ORGANS_412,HEART_WORD_ORGANS_412],[CAT_PIC_WHISKERS_43,TOMATO_PIC_BURGER_44,SYBARITE_WORD_FOODIE_726],[DUALITY_WORD_YINYANG_721,LIVER_WORD_ORGANS_412,GEOMETRY_WORD_LESSONS_94],[GLUCAGON_WORD_HORMONES_259,RAMSES_WORD_PYRAMIDS_330,TROT_WORD_GAITS_810],[SYNERGY_WORD_YINYANG_721,MANTLE_WORD_EARTH_831,CRUST_WORD_EARTH_831],[IODINE_WORD_ELEMENTS_107,CORE_WORD_EARTH_831],[RATE_WORD_MORTGAGE_595,GASTRIN_WORD_HORMONES_259],[FALLOUT_WORD_RADIATE_257,NITROGEN_WORD_ELEMENTS_107,WALRUS_PIC_WHISKERS_43]]</t>
   </si>
   <si>
     <t>[WORD_RADIATE_257,WORD_ALCHEMY_445,WORD_MORTGAGE_595,WORD_YINYANG_721,WORD_ELEMENTS_107,PIC_BURGER_44,PIC_WHISKERS_43,WORD_HORMONES_259,WORD_FOODIE_726]</t>
@@ -603,22 +591,22 @@
     <t>SORT_GAME_LEVE_30_BOARD_1</t>
   </si>
   <si>
-    <t>[4,9,10]</t>
-  </si>
-  <si>
-    <t>[[JACKAL_WORD_CANINES_168,HEART_WORD_ORGANS_412,LIVER_WORD_ORGANS_412],[LORD_WORD_MEDIEVAL_228,ALGEBRA_WORD_LESSONS_94,PRIVATE_JET_PIC_LUXURY_47],[VILLA_WORD_HOUSE_40,WATCH_PIC_LUXURY_47,ANUBIS_WORD_PYRAMIDS_330],[MANSION_WORD_HOUSE_40,SOLOIST_WORD_SINGING_1054,TEXTURE_WORD_SKINCARE_984],[OVAL_PIC_SHAPES_46,ARIA_WORD_SINGING_1054,GENE_WORD_GENETICS_1060],[CIRCLE_PIC_SHAPES_46,TROT_WORD_GAITS_810,GALLOP_WORD_GAITS_810],[CASTLE_WORD_MEDIEVAL_228,REINS_WORD_CARRIAGE_800,COACHMAN_WORD_CARRIAGE_800],[CORE_WORD_EARTH_831,HARNESS_WORD_CARRIAGE_800,RAMPART_WORD_CASTLE_485],[ROBIN_WORD_BIRDS_80,EAGLE_WORD_BIRDS_80,TIMBRE_WORD_SINGING_1054],[SQUARE_PIC_SHAPES_46,HUMMING_WORD_SINGING_1054,TONER_WORD_SKINCARE_984],[FRET_WORD_VIOLINS_845,BASTION_WORD_CASTLE_485,TOWER_WORD_CASTLE_485],[FINCH_WORD_BIRDS_80,CRIB_PIC_BABIES_49,DINGO_WORD_CANINES_168],[GENOME_WORD_GENETICS_1060,DHOLE_WORD_CANINES_168,FOX_WORD_CANINES_168],[PALACE_WORD_HOUSE_40,OWL_WORD_BIRDS_80,RELIC_WORD_ARTIFACT_276],[JUICE_PIC_DRINKS_45,CHOIR_WORD_SINGING_1054,TOTEM_WORD_ARTIFACT_276],[SODA_PIC_DRINKS_45,VULTURE_WORD_BIRDS_80,CLEANSER_WORD_SKINCARE_984],[HERON_WORD_BIRDS_80,INSIGNIA_WORD_ARTIFACT_276,DNA_WORD_GENETICS_1060],[LEMONADE_PIC_DRINKS_45,VASE_WORD_ARTIFACT_276,PORES_WORD_SKINCARE_984],[ESPRESSO_PIC_DRINKS_45,DOVE_WORD_BIRDS_80,SERUM_WORD_SKINCARE_984],[BLEMISH_WORD_SKINCARE_984,MELODY_WORD_SINGING_1054,AMULET_WORD_ARTIFACT_276],[SWAN_WORD_BIRDS_80,PROTON_WORD_NUCLEAR_366,ROPE_PIC_SAILOR_50],[PITCH_WORD_SINGING_1054,LUTHIER_WORD_VIOLINS_845,PAGANINI_WORD_VIOLINS_845],[TURRET_WORD_CASTLE_485,BLADE_WORD_SAW_88,NOTCH_WORD_SAW_88],[KINGDOM_WORD_MEDIEVAL_228,SONG_WORD_SINGING_1054,SIGIL_WORD_ARTIFACT_276],[KNIGHT_WORD_MEDIEVAL_228,PEPTIDES_WORD_SKINCARE_984,RETINOL_WORD_SKINCARE_984]]</t>
-  </si>
-  <si>
-    <t>[WORD_SINGING_1054,PIC_SHAPES_46,WORD_MEDIEVAL_228,WORD_BIRDS_80,PIC_DRINKS_45,WORD_HOUSE_40,WORD_GENETICS_1060,WORD_SKINCARE_984,WORD_ARTIFACT_276]</t>
+    <t>[1,2,11]</t>
+  </si>
+  <si>
+    <t>[[VILLA_WORD_HOUSE_40,ARIA_WORD_SINGING_1054,MELODY_WORD_SINGING_1054],[MANSION_WORD_HOUSE_40,HUMMING_WORD_SINGING_1054,SOLOIST_WORD_SINGING_1054],[TABLA_WORD_DRUM_518,CHOIR_WORD_SINGING_1054,INSIGNIA_WORD_ARTIFACT_276],[CIRCLE_PIC_SHAPES_46,VULTURE_WORD_BIRDS_80,GENE_WORD_GENETICS_1060],[EAGLE_WORD_BIRDS_80,SWAN_WORD_BIRDS_80,CLEANSER_WORD_SKINCARE_984],[PALACE_WORD_HOUSE_40,SONG_WORD_SINGING_1054,PITCH_WORD_SINGING_1054],[OVAL_PIC_SHAPES_46,OWL_WORD_BIRDS_80,TEXTURE_WORD_SKINCARE_984],[HERON_WORD_BIRDS_80,DNA_WORD_GENETICS_1060,TONER_WORD_SKINCARE_984],[TIMBRE_WORD_SINGING_1054,PEPTIDES_WORD_SKINCARE_984,VASE_WORD_ARTIFACT_276],[PORES_WORD_SKINCARE_984,RELIC_WORD_ARTIFACT_276,SIGIL_WORD_ARTIFACT_276],[ESPRESSO_PIC_DRINKS_45,LUNGS_WORD_ORGANS_412,HEART_WORD_ORGANS_412],[ASHIKO_WORD_DRUM_518,BLADDER_WORD_ORGANS_412,STOMACH_WORD_ORGANS_412],[GENOME_WORD_GENETICS_1060,ROBIN_WORD_BIRDS_80,AMULET_WORD_ARTIFACT_276],[DJEMBE_WORD_DRUM_518,ALGEBRA_WORD_LESSONS_94,OSIRIS_WORD_PYRAMIDS_330],[SODA_PIC_DRINKS_45,RA_WORD_PYRAMIDS_330,TROT_WORD_GAITS_810],[BONGO_WORD_DRUM_518,CANTER_WORD_GAITS_810,HARNESS_WORD_CARRIAGE_800],[JUICE_PIC_DRINKS_45,CORE_WORD_EARTH_831,CRUST_WORD_EARTH_831],[SPLEEN_WORD_ORGANS_412,RAMPART_WORD_CASTLE_485,TOWER_WORD_CASTLE_485],[LEMONADE_PIC_DRINKS_45,RETINOL_WORD_SKINCARE_984,SERUM_WORD_SKINCARE_984],[TURRET_WORD_CASTLE_485,PARAPET_WORD_CASTLE_485,MOAT_WORD_CASTLE_485],[DOVE_WORD_BIRDS_80,COYOTE_WORD_CANINES_168,WOLF_WORD_CANINES_168],[SQUARE_PIC_SHAPES_46,DHOLE_WORD_CANINES_168,FRET_WORD_VIOLINS_845],[DUNGEON_WORD_CASTLE_485,PAGANINI_WORD_VIOLINS_845,MIX_WORD_CONCRETE_601],[HISTORY_WORD_LESSONS_94,TEETH_WORD_SAW_88,NOTCH_WORD_SAW_88],[FINCH_WORD_BIRDS_80,TOTEM_WORD_ARTIFACT_276,BLEMISH_WORD_SKINCARE_984]]</t>
+  </si>
+  <si>
+    <t>[WORD_SINGING_1054,PIC_SHAPES_46,WORD_DRUM_518,WORD_BIRDS_80,PIC_DRINKS_45,WORD_HOUSE_40,WORD_GENETICS_1060,WORD_SKINCARE_984,WORD_ARTIFACT_276]</t>
   </si>
   <si>
     <t>SORT_GAME_LEVE_31_BOARD_1</t>
   </si>
   <si>
-    <t>[3,13]</t>
-  </si>
-  <si>
-    <t>[[TROT_WORD_GAITS_810,YACHT_PIC_LUXURY_47],[REINS_WORD_CARRIAGE_800,TOWER_WORD_CASTLE_485,WOLF_WORD_CANINES_168],[CORE_WORD_EARTH_831,DHOLE_WORD_CANINES_168,NEUTRON_WORD_NUCLEAR_366],[ALGEBRA_WORD_LESSONS_94,KNOT_PIC_SAILOR_50,LUTHIER_WORD_VIOLINS_845],[MANTLE_WORD_EARTH_831,PANCREAS_WORD_ORGANS_412],[LIVER_WORD_ORGANS_412,PAGANINI_WORD_VIOLINS_845,TROWEL_WORD_CONCRETE_601],[STOMACH_WORD_ORGANS_412,NOTCH_WORD_SAW_88,LEMUR_WORD_PRIMATES_149],[GEOMETRY_WORD_LESSONS_94,MACAQUE_WORD_PRIMATES_149],[CRUST_WORD_EARTH_831,HEART_WORD_ORGANS_412],[PHYSICS_WORD_LESSONS_94,MANDRILL_WORD_PRIMATES_149],[CALCULUS_WORD_LESSONS_94,FOOL_PIC_TAROT_48],[RAMSES_WORD_PYRAMIDS_330,EMPRESS_PIC_TAROT_48],[MAGICIAN_PIC_TAROT_48,WATCH_PIC_LUXURY_47],[BLADDER_WORD_ORGANS_412,LUNGS_WORD_ORGANS_412,CLASSIC_HANDBAG_PIC_LUXURY_47],[OSIRIS_WORD_PYRAMIDS_330,MOON_PIC_TAROT_48,PRIVATE_JET_PIC_LUXURY_47],[SUPERCAR_PIC_LUXURY_47,SCRIPT_WORD_CODING_150],[HISTORY_WORD_LESSONS_94,PHP_WORD_CODING_150],[CANTER_WORD_GAITS_810,GALILEO_WORD_MINDS_82],[KIDNEY_WORD_ORGANS_412,GUM_PIC_CANDY_51],[COACHMAN_WORD_CARRIAGE_800,CHOCO_PIC_CANDY_51],[GALLOP_WORD_GAITS_810,SPLEEN_WORD_ORGANS_412],[RA_WORD_PYRAMIDS_330,INCOME_WORD_FINANCE_227],[ANUBIS_WORD_PYRAMIDS_330,VERB_WORD_GRAMMAR_861],[BIOLOGY_WORD_LESSONS_94,CAR_PIC_KEYS_52],[HARNESS_WORD_CARRIAGE_800,JEWELRY_PIC_LUXURY_47]]</t>
+    <t>[1,11]</t>
+  </si>
+  <si>
+    <t>[[CORE_WORD_EARTH_831,FOOL_PIC_TAROT_48],[CANTER_WORD_GAITS_810,MAGICIAN_PIC_TAROT_48,JEWELRY_PIC_LUXURY_47],[GEOMETRY_WORD_LESSONS_94,MOON_PIC_TAROT_48],[WATCH_PIC_LUXURY_47,CLASSIC_HANDBAG_PIC_LUXURY_47],[MANTLE_WORD_EARTH_831,PRIVATE_JET_PIC_LUXURY_47],[RA_WORD_PYRAMIDS_330,DUNGEON_WORD_CASTLE_485,MOAT_WORD_CASTLE_485],[COACHMAN_WORD_CARRIAGE_800,BLADDER_WORD_ORGANS_412],[CRUST_WORD_EARTH_831,DINGO_WORD_CANINES_168,JACKAL_WORD_CANINES_168],[ALGEBRA_WORD_LESSONS_94,PROTON_WORD_NUCLEAR_366,ATOM_WORD_NUCLEAR_366],[HEART_WORD_ORGANS_412,FRET_WORD_VIOLINS_845,PAGANINI_WORD_VIOLINS_845],[BIOLOGY_WORD_LESSONS_94,NOTCH_WORD_SAW_88,TEETH_WORD_SAW_88],[LIVER_WORD_ORGANS_412,TARSIER_WORD_PRIMATES_149],[OSIRIS_WORD_PYRAMIDS_330,SPLEEN_WORD_ORGANS_412],[HISTORY_WORD_LESSONS_94,BUGS_WORD_CODING_150],[RAMSES_WORD_PYRAMIDS_330,PYTHON_WORD_CODING_150],[CALCULUS_WORD_LESSONS_94,DANTE_WORD_MINDS_82],[GALLOP_WORD_GAITS_810,GATEWAY_WORD_NETWORK_588],[HARNESS_WORD_CARRIAGE_800,SERVER_WORD_NETWORK_588],[STOMACH_WORD_ORGANS_412,PANCREAS_WORD_ORGANS_412,YACHT_PIC_LUXURY_47],[ANUBIS_WORD_PYRAMIDS_330,INCOME_WORD_FINANCE_227],[PHYSICS_WORD_LESSONS_94,EXPENSE_WORD_FINANCE_227],[TROT_WORD_GAITS_810,VERB_WORD_GRAMMAR_861],[REINS_WORD_CARRIAGE_800,KIDNEY_WORD_ORGANS_412],[EMPRESS_PIC_TAROT_48,ADVERB_WORD_GRAMMAR_861],[LUNGS_WORD_ORGANS_412,SUPERCAR_PIC_LUXURY_47]]</t>
   </si>
   <si>
     <t>[WORD_CARRIAGE_800,WORD_PYRAMIDS_330,WORD_EARTH_831,WORD_GAITS_810,PIC_TAROT_48,WORD_ORGANS_412,PIC_LUXURY_47,WORD_LESSONS_94]</t>
@@ -627,10 +615,10 @@
     <t>SORT_GAME_LEVE_32_BOARD_1</t>
   </si>
   <si>
-    <t>[6,7,9]</t>
-  </si>
-  <si>
-    <t>[[MIX_WORD_CONCRETE_601,BASTION_WORD_CASTLE_485],[SCREED_WORD_CONCRETE_601,COYOTE_WORD_CANINES_168],[FRET_WORD_VIOLINS_845,RUBY_WORD_CODING_150,SWIFT_WORD_CODING_150],[DUNGEON_WORD_CASTLE_485,DHOLE_WORD_CANINES_168,RATTLE_PIC_BABIES_49],[TARSIER_WORD_PRIMATES_149,PLATO_WORD_MINDS_82,DANTE_WORD_MINDS_82],[PAGANINI_WORD_VIOLINS_845,MOAT_WORD_CASTLE_485],[LUTHIER_WORD_VIOLINS_845,PACIFIER_PIC_BABIES_49,CAR_SEAT_PIC_BABIES_49],[LEMUR_WORD_PRIMATES_149,ROUTER_WORD_NETWORK_588,ETHERNET_WORD_NETWORK_588],[RAMPART_WORD_CASTLE_485,KNOT_PIC_SAILOR_50,JACKAL_WORD_CANINES_168],[HABANERO_WORD_SPICY_136,LOLLIPOP_PIC_CANDY_51,FRISBEE_PIC_LAWN_53],[TURRET_WORD_CASTLE_485,DIAPER_PIC_BABIES_49,BOTTLE_PIC_BABIES_49],[BLADE_WORD_SAW_88,BABY_BOWL_AND_SOFT_TIP_SPOON_PIC_BABIES_49,STROLLER_PIC_BABIES_49],[CONE_PIC_3D_54,GARDENING_GLOVES_PIC_LAWN_53,TORTILLA_WORD_BREADS_102],[ELECTRON_WORD_NUCLEAR_366,STORM_PIC_SAILOR_50,WOLF_WORD_CANINES_168],[GAMBLER_WORD_WESTERN_317,FOCACCIA_WORD_BREADS_102],[TEETH_WORD_SAW_88,CITADEL_WORD_CASTLE_485],[NEUTRON_WORD_NUCLEAR_366,ROPE_PIC_SAILOR_50],[SPINNER_WORD_TOYS_154,BRIOCHE_WORD_BREADS_102],[TROWEL_WORD_CONCRETE_601,FLAG_PIC_SAILOR_50,CRIB_PIC_BABIES_49],[GRASS_PIC_LAWN_53,OXFORD_WORD_STUDIES_169],[PARAPET_WORD_CASTLE_485,TOWER_WORD_CASTLE_485],[NOTCH_WORD_SAW_88,FOX_WORD_CANINES_168],[SOCRATES_WORD_MINDS_82,MIT_WORD_STUDIES_169],[ATOM_WORD_NUCLEAR_366,DINGO_WORD_CANINES_168],[PROTON_WORD_NUCLEAR_366,TOTEM_WORD_PAGANISM_469]]</t>
+    <t>[3,4,7]</t>
+  </si>
+  <si>
+    <t>[[LEMUR_WORD_PRIMATES_149,TARSIER_WORD_PRIMATES_149,BABOON_WORD_PRIMATES_149],[ATOM_WORD_NUCLEAR_366,ROPE_PIC_SAILOR_50],[ELECTRON_WORD_NUCLEAR_366,SIMIAN_WORD_PRIMATES_149,PYTHON_WORD_CODING_150],[NOTCH_WORD_SAW_88,PHP_WORD_CODING_150,JAVA_WORD_CODING_150],[FRET_WORD_VIOLINS_845,SARTRE_WORD_MINDS_82,KANT_WORD_MINDS_82],[COWBOY_WORD_WESTERN_317,BANK_WORD_FINANCE_227,VERB_WORD_GRAMMAR_861],[BLADE_WORD_SAW_88,DHOLE_WORD_CANINES_168,FOX_WORD_CANINES_168],[BASTION_WORD_CASTLE_485,SALOON_WORD_WESTERN_317,RODEO_WORD_WESTERN_317],[MIX_WORD_CONCRETE_601,LASSO_WORD_WESTERN_317],[FOOL_WORD_TAROT_417,YALE_WORD_STUDIES_169],[MOAT_WORD_CASTLE_485,STROLLER_PIC_BABIES_49],[PARAPET_WORD_CASTLE_485,JACKAL_WORD_CANINES_168],[PAGANINI_WORD_VIOLINS_845,DIAPER_PIC_BABIES_49,PACIFIER_PIC_BABIES_49],[NEUTRON_WORD_NUCLEAR_366,CITADEL_WORD_CASTLE_485,CAR_SEAT_PIC_BABIES_49],[DUNGEON_WORD_CASTLE_485,KNOT_PIC_SAILOR_50,RATTLE_PIC_BABIES_49],[LUTHIER_WORD_VIOLINS_845,CRIB_PIC_BABIES_49],[RAMPART_WORD_CASTLE_485,STORM_PIC_SAILOR_50],[SCREED_WORD_CONCRETE_601,COYOTE_WORD_CANINES_168],[PROTON_WORD_NUCLEAR_366,FLAG_PIC_SAILOR_50,BABY_BOWL_AND_SOFT_TIP_SPOON_PIC_BABIES_49],[TOWER_WORD_CASTLE_485,DINGO_WORD_CANINES_168,BOTTLE_PIC_BABIES_49],[TOTEM_WORD_PAGANISM_469,SORBONNE_WORD_STUDIES_169],[TEETH_WORD_SAW_88,WOLF_WORD_CANINES_168],[STANFORD_WORD_STUDIES_169,RITUAL_WORD_PAGANISM_469],[TROWEL_WORD_CONCRETE_601,SRIRACHA_WORD_SPICY_136],[TURRET_WORD_CASTLE_485,YO_YO_WORD_TOYS_154]]</t>
   </si>
   <si>
     <t>[WORD_SAW_88,WORD_VIOLINS_845,WORD_CONCRETE_601,WORD_NUCLEAR_366,WORD_CASTLE_485,PIC_BABIES_49,PIC_SAILOR_50,WORD_CANINES_168]</t>
@@ -639,10 +627,10 @@
     <t>SORT_GAME_LEVE_33_BOARD_1</t>
   </si>
   <si>
-    <t>[5,8,10]</t>
-  </si>
-  <si>
-    <t>[[DANTE_WORD_MINDS_82,TORTILLA_WORD_BREADS_102,BRIOCHE_WORD_BREADS_102],[KANT_WORD_MINDS_82,SHERIFF_WORD_WESTERN_317,MIT_WORD_STUDIES_169],[CAR_PIC_KEYS_52,LOLLIPOP_PIC_CANDY_51,SCRIPT_WORD_CODING_150],[LEMUR_WORD_PRIMATES_149,TOTEM_WORD_PAGANISM_469,ALTAR_WORD_PAGANISM_469],[INCOME_WORD_FINANCE_227,FUDGE_PIC_CANDY_51,PHP_WORD_CODING_150],[LASSO_WORD_WESTERN_317,MAGICIAN_WORD_TAROT_417,HABANERO_WORD_SPICY_136],[PLATO_WORD_MINDS_82,TAURUS_WORD_ZODIAC_59,VIRGO_WORD_ZODIAC_59],[GORILLA_WORD_PRIMATES_149,PADLOCK_PIC_KEYS_52],[MACAQUE_WORD_PRIMATES_149,SCORPIO_WORD_ZODIAC_59,ARIES_WORD_ZODIAC_59],[NOUN_WORD_GRAMMAR_861,MONEY_WORD_FINANCE_227,ROUTER_WORD_NETWORK_588],[MALBEC_WORD_GRAPE_177,EQUINE_WORD_FAMILIES_234,MURINE_WORD_FAMILIES_234],[LEO_WORD_ZODIAC_59,CANINE_WORD_FAMILIES_234,BERYL_WORD_MINERALS_253],[CHOCO_PIC_CANDY_51,SARTRE_WORD_MINDS_82],[MANDRILL_WORD_PRIMATES_149,SHIRAZ_WORD_GRAPE_177,MUSCAT_WORD_GRAPE_177],[GUM_PIC_CANDY_51,GATEWAY_WORD_NETWORK_588,PYTHON_WORD_CODING_150],[CONE_PIC_3D_54,BUTANE_WORD_ALKANES_641],[ADVERB_WORD_GRAMMAR_861,COLOSSEUM_PIC_LANDMARK_56],[DOOR_PIC_KEYS_52,EXPENSE_WORD_FINANCE_227],[AREPA_WORD_BREADS_102,MEGA_WORD_PREFIX_922],[SOCRATES_WORD_MINDS_82,GALILEO_WORD_MINDS_82,JAVA_WORD_CODING_150],[TARSIER_WORD_PRIMATES_149,SERVER_WORD_NETWORK_588],[VERB_WORD_GRAMMAR_861,SWIFT_WORD_CODING_150,SQL_WORD_CODING_150],[SIMIAN_WORD_PRIMATES_149,RUBY_WORD_CODING_150],[GIBBON_WORD_PRIMATES_149,BUGS_WORD_CODING_150,BANK_WORD_FINANCE_227],[BABOON_WORD_PRIMATES_149,ETHERNET_WORD_NETWORK_588,PACKET_WORD_NETWORK_588]]</t>
+    <t>[3,4,9]</t>
+  </si>
+  <si>
+    <t>[[CIABATTA_WORD_BREADS_102,FOCACCIA_WORD_BREADS_102,RODEO_WORD_WESTERN_317],[BABOON_WORD_PRIMATES_149,SORBONNE_WORD_STUDIES_169,HARVARD_WORD_STUDIES_169],[DANTE_WORD_MINDS_82,IDOL_WORD_PAGANISM_469,RITUAL_WORD_PAGANISM_469],[GIBBON_WORD_PRIMATES_149,CHOCO_PIC_CANDY_51],[VIRGO_WORD_ZODIAC_59,ALTAR_WORD_PAGANISM_469,DOLL_WORD_TOYS_154],[VERB_WORD_GRAMMAR_861,YO_YO_WORD_TOYS_154,SPINNER_WORD_TOYS_154],[LEMUR_WORD_PRIMATES_149,PISCES_WORD_ZODIAC_59,GEMINI_WORD_ZODIAC_59],[MONEY_WORD_FINANCE_227,PORCINE_WORD_FAMILIES_234,AZURITE_WORD_MINERALS_253],[FUDGE_PIC_CANDY_51,GUM_PIC_CANDY_51],[TORTILLA_WORD_BREADS_102,GYPSUM_WORD_MINERALS_253,SHIRAZ_WORD_GRAPE_177],[MANDRILL_WORD_PRIMATES_149,CAR_PIC_KEYS_52],[LOLLIPOP_PIC_CANDY_51,INCOME_WORD_FINANCE_227,ETHERNET_WORD_NETWORK_588],[TARSIER_WORD_PRIMATES_149,GALILEO_WORD_MINDS_82],[SARTRE_WORD_MINDS_82,BUGS_WORD_CODING_150,SERVER_WORD_NETWORK_588],[SOCRATES_WORD_MINDS_82,PACKET_WORD_NETWORK_588,ROUTER_WORD_NETWORK_588],[PLATO_WORD_MINDS_82,JAVA_WORD_CODING_150],[ADVERB_WORD_GRAMMAR_861,GATEWAY_WORD_NETWORK_588,PYTHON_WORD_CODING_150],[GORILLA_WORD_PRIMATES_149,KANT_WORD_MINDS_82,SQL_WORD_CODING_150],[NOUN_WORD_GRAMMAR_861,EXPENSE_WORD_FINANCE_227,PHP_WORD_CODING_150],[SIMIAN_WORD_PRIMATES_149,SCRIPT_WORD_CODING_150,SWIFT_WORD_CODING_150],[SHERIFF_WORD_WESTERN_317,RIESLING_WORD_GRAPE_177,MUSCAT_WORD_GRAPE_177],[DOOR_PIC_KEYS_52,KETCHUP_WORD_HOT_DOG_201],[PADLOCK_PIC_KEYS_52,MEGA_WORD_PREFIX_922],[MACAQUE_WORD_PRIMATES_149,BANK_WORD_FINANCE_227,RUBY_WORD_CODING_150],[FOOL_WORD_TAROT_417,NANO_WORD_PREFIX_922]]</t>
   </si>
   <si>
     <t>[PIC_CANDY_51,WORD_PRIMATES_149,PIC_KEYS_52,WORD_FINANCE_227,WORD_GRAMMAR_861,WORD_MINDS_82,WORD_NETWORK_588,WORD_CODING_150]</t>
@@ -651,10 +639,10 @@
     <t>SORT_GAME_LEVE_34_BOARD_1</t>
   </si>
   <si>
-    <t>[6,11,13]</t>
-  </si>
-  <si>
-    <t>[[HABANERO_WORD_SPICY_136,GARDENING_GLOVES_PIC_LAWN_53,SALOON_WORD_WESTERN_317],[FOCACCIA_WORD_BREADS_102,TAURUS_WORD_ZODIAC_59,GEMINI_WORD_ZODIAC_59],[SPINNER_WORD_TOYS_154,LIBRA_WORD_ZODIAC_59,CANINE_WORD_FAMILIES_234],[CONE_PIC_3D_54,FELINE_WORD_FAMILIES_234,MICA_WORD_MINERALS_253],[FOOL_WORD_TAROT_417,CHALLAH_WORD_BREADS_102,SHERIFF_WORD_WESTERN_317],[AREPA_WORD_BREADS_102,FOUR_LEAF_CLOVER_PIC_LAWN_53,ALTAR_WORD_PAGANISM_469],[SPHERE_PIC_3D_54,FRISBEE_PIC_LAWN_53],[WASABI_WORD_SPICY_136,LIME_WORD_MINERALS_253,MERLOT_WORD_GRAPE_177],[DOLL_WORD_TOYS_154,MUSCAT_WORD_GRAPE_177,RIESLING_WORD_GRAPE_177],[PITA_WORD_BREADS_102,SHIRAZ_WORD_GRAPE_177,GARLIC_PIC_VAMPIRE_55],[MOON_WORD_TAROT_417,GRASS_PIC_LAWN_53,TOTEM_WORD_PAGANISM_469],[TORTILLA_WORD_BREADS_102,COFFIN_PIC_VAMPIRE_55,MEGA_WORD_PREFIX_922],[LEAF_RAKE_PIC_LAWN_53,EMPRESS_WORD_TAROT_417,YALE_WORD_STUDIES_169],[BRIOCHE_WORD_BREADS_102,DECA_WORD_PREFIX_922,HOTEL_WORD_BUILD_384],[YO_YO_WORD_TOYS_154,AMANITA_WORD_MUSHROOM_178,SHIITAKE_WORD_MUSHROOM_178],[CIABATTA_WORD_BREADS_102,RODEO_WORD_WESTERN_317,SORBONNE_WORD_STUDIES_169],[SPRINKLER_PIC_LAWN_53,LASSO_WORD_WESTERN_317,GREEKS_WORD_CULTURES_487],[MAGICIAN_WORD_TAROT_417,VIKINGS_WORD_CULTURES_487,MAYANS_WORD_CULTURES_487],[CUBE_PIC_3D_54,MOWER_PIC_LAWN_53,GAMBLER_WORD_WESTERN_317],[MIT_WORD_STUDIES_169,ROMANS_WORD_CULTURES_487,CLARINET_WORD_VIOLIN_508],[SRIRACHA_WORD_SPICY_136,PICNIC_BLANKET_PIC_LAWN_53],[RITUAL_WORD_PAGANISM_469,CACTI_PIC_DESERT_57,STEEL_WORD_INDUSTRY_921],[BAGUETTE_WORD_BREADS_102,PACIFIER_WORD_TODDLER_231,NAP_TIME_WORD_TODDLER_231],[IDOL_WORD_PAGANISM_469,OXFORD_WORD_STUDIES_169],[HARVARD_WORD_STUDIES_169,STANFORD_WORD_STUDIES_169,COWBOY_WORD_WESTERN_317]]</t>
+    <t>[2,7,9]</t>
+  </si>
+  <si>
+    <t>[[CUBE_PIC_3D_54,ARIES_WORD_ZODIAC_59,LIBRA_WORD_ZODIAC_59],[FOCACCIA_WORD_BREADS_102,BAGUETTE_WORD_BREADS_102,SORBONNE_WORD_STUDIES_169],[VIKINGS_WORD_CULTURES_487,TAURUS_WORD_ZODIAC_59,MURINE_WORD_FAMILIES_234],[WASABI_WORD_SPICY_136,GRASS_PIC_LAWN_53,RODEO_WORD_WESTERN_317],[MICA_WORD_MINERALS_253,CANINE_WORD_FAMILIES_234,OVINE_WORD_FAMILIES_234],[FOOL_WORD_TAROT_417,FRISBEE_PIC_LAWN_53,MIT_WORD_STUDIES_169],[BRIOCHE_WORD_BREADS_102,MOWER_PIC_LAWN_53,OXFORD_WORD_STUDIES_169],[EMPRESS_WORD_TAROT_417,PICNIC_BLANKET_PIC_LAWN_53],[YO_YO_WORD_TOYS_154,FOUR_LEAF_CLOVER_PIC_LAWN_53,SALOON_WORD_WESTERN_317],[CHALLAH_WORD_BREADS_102,MOON_WORD_TAROT_417,IDOL_WORD_PAGANISM_469],[TORTILLA_WORD_BREADS_102,MERLOT_WORD_GRAPE_177,GRENACHE_WORD_GRAPE_177],[DOLL_WORD_TOYS_154,COWBOY_WORD_WESTERN_317],[SPINNER_WORD_TOYS_154,SHIRAZ_WORD_GRAPE_177,RIESLING_WORD_GRAPE_177],[CONE_PIC_3D_54,GAMBLER_WORD_WESTERN_317,LASSO_WORD_WESTERN_317],[GARDENING_GLOVES_PIC_LAWN_53,STADIUM_WORD_BUILD_384,HOSPITAL_WORD_BUILD_384],[MAGICIAN_WORD_TAROT_417,SCHOOL_BUILDING_WORD_BUILD_384,LIBRARY_WORD_BUILD_384],[SPRINKLER_PIC_LAWN_53,YALE_WORD_STUDIES_169,STANFORD_WORD_STUDIES_169],[MUSEUM_WORD_BUILD_384,PORCINI_WORD_MUSHROOM_178,TRUFFLE_WORD_MUSHROOM_178],[PITA_WORD_BREADS_102,HABANERO_WORD_SPICY_136,ALTAR_WORD_PAGANISM_469],[SRIRACHA_WORD_SPICY_136,ENOKI_WORD_MUSHROOM_178,CELTS_WORD_CULTURES_487],[AREPA_WORD_BREADS_102,AZTECS_WORD_CULTURES_487,MAYANS_WORD_CULTURES_487],[LEAF_RAKE_PIC_LAWN_53,SHERIFF_WORD_WESTERN_317,HARVARD_WORD_STUDIES_169],[CIABATTA_WORD_BREADS_102,PRODUCE_WORD_INDUSTRY_921,PACIFIER_WORD_TODDLER_231],[SPHERE_PIC_3D_54,TOTEM_WORD_PAGANISM_469,RITUAL_WORD_PAGANISM_469],[GREEKS_WORD_CULTURES_487,PLAYPEN_WORD_TODDLER_231]]</t>
   </si>
   <si>
     <t>[WORD_TOYS_154,PIC_LAWN_53,WORD_BREADS_102,PIC_3D_54,WORD_TAROT_417,WORD_WESTERN_317,WORD_SPICY_136,WORD_PAGANISM_469,WORD_STUDIES_169]</t>
@@ -663,10 +651,10 @@
     <t>SORT_GAME_LEVE_35_BOARD_1</t>
   </si>
   <si>
-    <t>[2,4,11]</t>
-  </si>
-  <si>
-    <t>[[DECA_WORD_PREFIX_922,GYPSUM_WORD_MINERALS_253,BUTANE_WORD_ALKANES_641],[MERLOT_WORD_GRAPE_177,SCHOOL_BUILDING_WORD_BUILD_384,TRUFFLE_WORD_MUSHROOM_178],[PLAYPEN_WORD_TODDLER_231,PORCINI_WORD_MUSHROOM_178,RUSSULA_WORD_MUSHROOM_178],[FACTORY_WORD_BUILD_384,VIKINGS_WORD_CULTURES_487,GREEKS_WORD_CULTURES_487],[COFFIN_PIC_VAMPIRE_55,CLARINET_WORD_VIOLIN_508,LEGO_PIC_TOYS_58],[MUSCAT_WORD_GRAPE_177,FANGS_PIC_VAMPIRE_55,CAPRINE_WORD_FAMILIES_234],[COLOSSEUM_PIC_LANDMARK_56,VIRGO_WORD_ZODIAC_59,LIBRA_WORD_ZODIAC_59],[MEGA_WORD_PREFIX_922,LEO_WORD_ZODIAC_59,OVINE_WORD_FAMILIES_234],[BERYL_WORD_MINERALS_253,GARLIC_PIC_VAMPIRE_55,PROPANE_WORD_ALKANES_641],[MARBLE_WORD_MINERALS_253,PISCES_WORD_ZODIAC_59,PORCINE_WORD_FAMILIES_234],[GRENACHE_WORD_GRAPE_177,STEEL_WORD_INDUSTRY_921,GOODS_WORD_INDUSTRY_921],[BIG_BEN_PIC_LANDMARK_56,PACIFIER_WORD_TODDLER_231,BORDER_WORD_MAPS_1022],[STATUE_OF_LIBERTY_PIC_LANDMARK_56,SOFT_BUN_WORD_HOT_DOG_201,SAUSAGE_WORD_HOT_DOG_201],[FETA_WORD_CHEESE_108,GLOBE_WORD_MAPS_1022,GOUDA_WORD_CHEESE_108],[MALBEC_WORD_GRAPE_177,BRIE_WORD_CHEESE_108,CHEDDAR_WORD_CHEESE_108],[QUARTZ_WORD_MINERALS_253,FELINE_WORD_FAMILIES_234,METHANE_WORD_ALKANES_641],[RIESLING_WORD_GRAPE_177,SCORPIO_WORD_ZODIAC_59,ARIES_WORD_ZODIAC_59],[CALCITE_WORD_MINERALS_253,CANINE_WORD_FAMILIES_234,BOVINE_WORD_FAMILIES_234],[AZURITE_WORD_MINERALS_253,ETHANE_WORD_ALKANES_641,GEMINI_WORD_ZODIAC_59],[MICA_WORD_MINERALS_253,TAURUS_WORD_ZODIAC_59,EQUINE_WORD_FAMILIES_234],[MUSEUM_WORD_BUILD_384,LETTER_WORD_MAILMAN_63,ENVELOPE_WORD_MAILMAN_63],[NANO_WORD_PREFIX_922,MAIL_WORD_MAILMAN_63,EGGPLANT_PIC_PURPLE_59],[SHIRAZ_WORD_GRAPE_177,BANANA_PIC_YELLOW_60,CHEESE_PIC_YELLOW_60],[BATS_PIC_VAMPIRE_55,PILLS_WORD_FLU_251,COUGH_WORD_FLU_251],[LIME_WORD_MINERALS_253,KETCHUP_WORD_HOT_DOG_201,MURINE_WORD_FAMILIES_234]]</t>
+    <t>[3,10,11]</t>
+  </si>
+  <si>
+    <t>[[BIG_BEN_PIC_LANDMARK_56,MARBLE_WORD_MINERALS_253,BUTANE_WORD_ALKANES_641],[MICA_WORD_MINERALS_253,FACTORY_WORD_BUILD_384,LIBRARY_WORD_BUILD_384],[PORCINI_WORD_MUSHROOM_178,STADIUM_WORD_BUILD_384,RUSSULA_WORD_MUSHROOM_178],[MUSCAT_WORD_GRAPE_177,ROMANS_WORD_CULTURES_487,CELTS_WORD_CULTURES_487],[BERYL_WORD_MINERALS_253,GEMINI_WORD_ZODIAC_59,PROPANE_WORD_ALKANES_641],[LEO_WORD_ZODIAC_59,MAYANS_WORD_CULTURES_487,VIKINGS_WORD_CULTURES_487],[LIME_WORD_MINERALS_253,VIRGO_WORD_ZODIAC_59,EQUINE_WORD_FAMILIES_234],[STATUE_OF_LIBERTY_PIC_LANDMARK_56,CLARINET_WORD_VIOLIN_508,PRODUCE_WORD_INDUSTRY_921],[HOSPITAL_WORD_BUILD_384,NAP_TIME_WORD_TODDLER_231,PACIFIER_WORD_TODDLER_231],[GYPSUM_WORD_MINERALS_253,COFFIN_PIC_VAMPIRE_55,SOFT_BUN_WORD_HOT_DOG_201],[GRENACHE_WORD_GRAPE_177,METHANE_WORD_ALKANES_641,OVINE_WORD_FAMILIES_234],[MERLOT_WORD_GRAPE_177,PORCINE_WORD_FAMILIES_234,ETHANE_WORD_ALKANES_641],[MEGA_WORD_PREFIX_922,SCORPIO_WORD_ZODIAC_59,TAURUS_WORD_ZODIAC_59],[MALBEC_WORD_GRAPE_177,KETCHUP_WORD_HOT_DOG_201,FELINE_WORD_FAMILIES_234],[SHIRAZ_WORD_GRAPE_177,PISCES_WORD_ZODIAC_59,CANINE_WORD_FAMILIES_234],[AZURITE_WORD_MINERALS_253,BRASS_WORD_ALLOY_264,ALNICO_WORD_ALLOY_264],[DECA_WORD_PREFIX_922,NICHROME_WORD_ALLOY_264,BRONZE_WORD_ALLOY_264],[NANO_WORD_PREFIX_922,CHEDDAR_WORD_CHEESE_108,BRIE_WORD_CHEESE_108],[CALCITE_WORD_MINERALS_253,FANGS_PIC_VAMPIRE_55,BOVINE_WORD_FAMILIES_234],[RIESLING_WORD_GRAPE_177,CAPRINE_WORD_FAMILIES_234,ARIES_WORD_ZODIAC_59],[QUARTZ_WORD_MINERALS_253,PARMESAN_WORD_CHEESE_108,ENVELOPE_WORD_MAILMAN_63],[COLOSSEUM_PIC_LANDMARK_56,MAIL_WORD_MAILMAN_63,LETTER_WORD_MAILMAN_63],[LIBRA_WORD_ZODIAC_59,DIALOGUE_WORD_SPEAK_244,CURLY_WORD_HAIR_245],[GARLIC_PIC_VAMPIRE_55,COILY_WORD_HAIR_245,COUGH_WORD_FLU_251],[BATS_PIC_VAMPIRE_55,SAUSAGE_WORD_HOT_DOG_201,MURINE_WORD_FAMILIES_234]]</t>
   </si>
   <si>
     <t>[WORD_MINERALS_253,WORD_PREFIX_922,WORD_GRAPE_177,PIC_VAMPIRE_55,PIC_LANDMARK_56,WORD_ZODIAC_59,WORD_FAMILIES_234,WORD_ALKANES_641,WORD_HOT_DOG_201]</t>
@@ -675,10 +663,10 @@
     <t>SORT_GAME_LEVE_36_BOARD_1</t>
   </si>
   <si>
-    <t>[2,10,11]</t>
-  </si>
-  <si>
-    <t>[[FACTORY_WORD_BUILD_384,ENOKI_WORD_MUSHROOM_178],[PLAYPEN_WORD_TODDLER_231,SCALE_WORD_MAPS_1022,DORBLU_WORD_CHEESE_108],[AMANITA_WORD_MUSHROOM_178,RICOTTA_WORD_CHEESE_108,FETA_WORD_CHEESE_108],[TRUFFLE_WORD_MUSHROOM_178,LAVENDER_PIC_PURPLE_59,CORN_PIC_YELLOW_60],[CELLO_WORD_VIOLIN_508,CAMEL_PIC_DESERT_57],[SCHOOL_BUILDING_WORD_BUILD_384,PACIFIER_WORD_TODDLER_231,CELTS_WORD_CULTURES_487],[MUSEUM_WORD_BUILD_384,STEEL_WORD_INDUSTRY_921],[TEDDY_BEAR_PIC_TOYS_58,MAYANS_WORD_CULTURES_487,GOODS_WORD_INDUSTRY_921],[SHIITAKE_WORD_MUSHROOM_178,CACTI_PIC_DESERT_57],[CLARINET_WORD_VIOLIN_508,ROMANS_WORD_CULTURES_487],[LEGO_PIC_TOYS_58,DEBATE_WORD_SPEAK_244,CURLY_WORD_HAIR_245],[ENVELOPE_WORD_MAILMAN_63,ENGLISH_WORD_LANGUAGE_70],[HOSPITAL_WORD_BUILD_384,OASIS_PIC_DESERT_57],[EXCAVATE_WORD_SHOVEL_261,OSLO_WORD_CAPITALS_119],[KITE_PIC_TOYS_58,DUNES_PIC_DESERT_57,PRODUCE_WORD_INDUSTRY_921],[STADIUM_WORD_BUILD_384,CLOUD_PIC_RAIN_61],[RUSSULA_WORD_MUSHROOM_178,LIGHTNING_PIC_RAIN_61],[LIBRARY_WORD_BUILD_384,DUMBBELL_PIC_GYM_62],[PORCINI_WORD_MUSHROOM_178,AZTECS_WORD_CULTURES_487],[NAP_TIME_WORD_TODDLER_231,GREEKS_WORD_CULTURES_487],[CHEESE_PIC_YELLOW_60,ROMANOV_WORD_DYNASTY_991],[MALL_WORD_BUILD_384,PUPIL_WORD_EYE_260],[OBOE_WORD_VIOLIN_508,IRIS_WORD_EYE_260],[HOTEL_WORD_BUILD_384,UNEARTH_WORD_SHOVEL_261],[FLUTE_WORD_VIOLIN_508,VIKINGS_WORD_CULTURES_487]]</t>
+    <t>[1,3,10]</t>
+  </si>
+  <si>
+    <t>[[ENOKI_WORD_MUSHROOM_178,PORCINI_WORD_MUSHROOM_178,VIKINGS_WORD_CULTURES_487],[OBOE_WORD_VIOLIN_508,NAP_TIME_WORD_TODDLER_231],[TRUFFLE_WORD_MUSHROOM_178,CACTI_PIC_DESERT_57],[KITE_PIC_TOYS_58,OASIS_PIC_DESERT_57],[HOTEL_WORD_BUILD_384,ROMANS_WORD_CULTURES_487],[DEBATE_WORD_SPEAK_244,NITINOL_WORD_ALLOY_264,BRASS_WORD_ALLOY_264],[CLARINET_WORD_VIOLIN_508,PARMESAN_WORD_CHEESE_108,STAMP_WORD_MAILMAN_63],[STADIUM_WORD_BUILD_384,ACTOR_WORD_JOBS_42,DOCTOR_WORD_JOBS_42],[SHIITAKE_WORD_MUSHROOM_178,WELDER_WORD_JOBS_42,PLUMBER_WORD_JOBS_42],[LIBRARY_WORD_BUILD_384,MAYANS_WORD_CULTURES_487,DUNES_PIC_DESERT_57],[AMANITA_WORD_MUSHROOM_178,GOODS_WORD_INDUSTRY_921],[CELLO_WORD_VIOLIN_508,PLAYPEN_WORD_TODDLER_231],[SCHOOL_BUILDING_WORD_BUILD_384,AZTECS_WORD_CULTURES_487],[MUSEUM_WORD_BUILD_384,CELTS_WORD_CULTURES_487],[TEDDY_BEAR_PIC_TOYS_58,CAMEL_PIC_DESERT_57],[FLUTE_WORD_VIOLIN_508,PILOT_WORD_JOBS_42],[ATHENS_WORD_CAPITALS_119,MAILMAN_WORD_JOBS_42],[ALNICO_WORD_ALLOY_264,ENGINEER_WORD_JOBS_42],[RUSSULA_WORD_MUSHROOM_178,ROME_WORD_CAPITALS_119],[MALL_WORD_BUILD_384,GREEKS_WORD_CULTURES_487],[LEGO_PIC_TOYS_58,CAIRO_WORD_CAPITALS_119],[PACIFIER_WORD_TODDLER_231,TUDOR_WORD_DYNASTY_991],[HOSPITAL_WORD_BUILD_384,LORD_WORD_MEDIEVAL_228],[UNEARTH_WORD_SHOVEL_261,PUPIL_WORD_EYE_260],[FACTORY_WORD_BUILD_384,STEEL_WORD_INDUSTRY_921,PRODUCE_WORD_INDUSTRY_921]]</t>
   </si>
   <si>
     <t>[WORD_VIOLIN_508,PIC_TOYS_58,WORD_MUSHROOM_178,WORD_BUILD_384,WORD_TODDLER_231,WORD_CULTURES_487,WORD_INDUSTRY_921,PIC_DESERT_57]</t>
@@ -687,49 +675,49 @@
     <t>SORT_GAME_LEVE_37_BOARD_1</t>
   </si>
   <si>
-    <t>[1,4,12]</t>
-  </si>
-  <si>
-    <t>[[ENVELOPE_WORD_MAILMAN_63,WAVY_WORD_HAIR_245,PARMESAN_WORD_CHEESE_108],[FETA_WORD_CHEESE_108,SCALE_WORD_MAPS_1022,CHEESE_PIC_YELLOW_60],[INK_WORD_MAILMAN_63,TERRAIN_WORD_MAPS_1022,GOLD_PIC_YELLOW_60],[GOUDA_WORD_CHEESE_108,BORDER_WORD_MAPS_1022],[ATLAS_WORD_MAPS_1022,JOURNEY_WORD_MAPS_1022],[OPAL_WORD_GEMSTONE_186,HINDI_WORD_LANGUAGE_70,HEBREW_WORD_LANGUAGE_70],[UMBRELLA_PIC_RAIN_61,ENGLISH_WORD_LANGUAGE_70,PRAGUE_WORD_CAPITALS_119],[HEADACHE_WORD_FLU_251,CAIRO_WORD_CAPITALS_119,RIYADH_WORD_CAPITALS_119],[RICOTTA_WORD_CHEESE_108,BRIE_WORD_CHEESE_108],[DORBLU_WORD_CHEESE_108,RAIN_BOOTS_PIC_RAIN_61,RETINA_WORD_EYE_260],[CAT_WORD_PETS_2,NICHROME_WORD_ALLOY_264,RUBY_WORD_GEMSTONE_186],[CHEDDAR_WORD_CHEESE_108,AGATE_WORD_GEMSTONE_186,GARNET_WORD_GEMSTONE_186],[CURLY_WORD_HAIR_245,ARGUMENT_WORD_SPEAK_244],[PILLS_WORD_FLU_251,MATRIX_WORD_AI_238],[CONTOUR_WORD_MAPS_1022,CHATBOT_WORD_AI_238],[SEAL_WORD_MAILMAN_63,DEBATE_WORD_SPEAK_244,DIALOGUE_WORD_SPEAK_244],[STAMP_WORD_MAILMAN_63,GLOBE_WORD_MAPS_1022],[LANDMARK_WORD_MAPS_1022,CORN_PIC_YELLOW_60],[MAIL_WORD_MAILMAN_63,LAVENDER_PIC_PURPLE_59],[EDAM_WORD_CHEESE_108,PLUM_PIC_PURPLE_59,EGGPLANT_PIC_PURPLE_59],[LETTER_WORD_MAILMAN_63,VIOLET_PIC_PURPLE_59,BANANA_PIC_YELLOW_60],[LED_WORD_DISPLAY_486,SAUCE_WORD_BURGER_8],[COUGH_WORD_FLU_251,BUN_WORD_BURGER_8],[COILY_WORD_HAIR_245,TWINS_PIC_PAIRS_63],[ROMANOV_WORD_DYNASTY_991,DETAINEE_WORD_PRISONER_312]]</t>
-  </si>
-  <si>
-    <t>[WORD_MAILMAN_63,WORD_FLU_251,WORD_MAPS_1022,WORD_HAIR_245,WORD_CHEESE_108,PIC_PURPLE_59,WORD_SPEAK_244,PIC_YELLOW_60]</t>
+    <t>[4,8,9]</t>
+  </si>
+  <si>
+    <t>[[ALNICO_WORD_ALLOY_264,ENGINEER_WORD_JOBS_42,MADRID_WORD_CAPITALS_119],[RICOTTA_WORD_CHEESE_108,PRAGUE_WORD_CAPITALS_119,KENNEDY_WORD_DYNASTY_991],[MAIL_WORD_MAILMAN_63,SEAL_WORD_MAILMAN_63,LAVENDER_PIC_PURPLE_59],[NICHROME_WORD_ALLOY_264,TUNGSTEN_WORD_ALLOY_264],[PLUMBER_WORD_JOBS_42,ROMANOV_WORD_DYNASTY_991,DIG_WORD_SHOVEL_261],[BRASS_WORD_ALLOY_264,NEPTUNE_WORD_PLANET_90,VENUS_WORD_PLANET_90],[NURSE_WORD_JOBS_42,JUPITER_WORD_PLANET_90,URANUS_WORD_PLANET_90],[LETTER_WORD_MAILMAN_63,STELLITE_WORD_ALLOY_264,VIOLET_PIC_PURPLE_59],[EDAM_WORD_CHEESE_108,NITINOL_WORD_ALLOY_264],[COUGH_WORD_FLU_251,MERCURY_WORD_PLANET_90,DIAMOND_WORD_GEMSTONE_186],[COILY_WORD_HAIR_245,TOPAZ_WORD_GEMSTONE_186],[CAT_WORD_PETS_2,MATRIX_WORD_AI_238],[PILLS_WORD_FLU_251,AMALGAM_WORD_ALLOY_264],[ENVELOPE_WORD_MAILMAN_63,BRONZE_WORD_ALLOY_264],[EXCAVATE_WORD_SHOVEL_261,DATASET_WORD_AI_238],[STAMP_WORD_MAILMAN_63,EGGPLANT_PIC_PURPLE_59],[CURLY_WORD_HAIR_245,CHEESE_PIC_YELLOW_60,CORN_PIC_YELLOW_60],[PARMESAN_WORD_CHEESE_108,FETA_WORD_CHEESE_108],[CHEDDAR_WORD_CHEESE_108,BRIE_WORD_CHEESE_108],[DORBLU_WORD_CHEESE_108,DEBATE_WORD_SPEAK_244,PLUM_PIC_PURPLE_59],[GOUDA_WORD_CHEESE_108,CHEESE_WORD_BURGER_8],[RUBY_WORD_GEMSTONE_186,BEEF_WORD_BURGER_8],[HEADACHE_WORD_FLU_251,ARGUMENT_WORD_SPEAK_244,BANANA_PIC_YELLOW_60],[INK_WORD_MAILMAN_63,DIALOGUE_WORD_SPEAK_244,GOLD_PIC_YELLOW_60],[WAVY_WORD_HAIR_245,SAUCE_WORD_BURGER_8]]</t>
+  </si>
+  <si>
+    <t>[WORD_MAILMAN_63,WORD_FLU_251,WORD_ALLOY_264,WORD_HAIR_245,WORD_CHEESE_108,PIC_PURPLE_59,WORD_SPEAK_244,PIC_YELLOW_60]</t>
   </si>
   <si>
     <t>SORT_GAME_LEVE_38_BOARD_1</t>
   </si>
   <si>
-    <t>[7,10,11]</t>
-  </si>
-  <si>
-    <t>[[ATHENS_WORD_CAPITALS_119,RAINCOAT_PIC_RAIN_61],[EXCAVATE_WORD_SHOVEL_261,UMBRELLA_PIC_RAIN_61,KENNEDY_WORD_DYNASTY_991],[DETAINEE_WORD_PRISONER_312,AMALGAM_WORD_ALLOY_264,STELLITE_WORD_ALLOY_264],[ALNICO_WORD_ALLOY_264,BRONZE_WORD_ALLOY_264,NITINOL_WORD_ALLOY_264],[BARBELL_PIC_GYM_62,PRAGUE_WORD_CAPITALS_119,JAPANESE_WORD_LANGUAGE_70],[ROME_WORD_CAPITALS_119,ONYX_WORD_GEMSTONE_186,RUBY_WORD_GEMSTONE_186],[DUMBBELL_PIC_GYM_62,ITALIAN_WORD_LANGUAGE_70],[UNEARTH_WORD_SHOVEL_261,AGATE_WORD_GEMSTONE_186,CORTEX_WORD_AI_238],[CAT_WORD_PETS_2,MATRIX_WORD_AI_238,CRT_WORD_DISPLAY_486],[DIG_WORD_SHOVEL_261,BONGO_WORD_DRUM_518],[OSLO_WORD_CAPITALS_119,BUN_WORD_BURGER_8,TWINS_PIC_PAIRS_63],[RETINA_WORD_EYE_260,MADRID_WORD_CAPITALS_119,HEBREW_WORD_LANGUAGE_70],[LIGHTNING_PIC_RAIN_61,ROMANOV_WORD_DYNASTY_991,RIYADH_WORD_CAPITALS_119],[OTTAWA_WORD_CAPITALS_119,SOCKS_PIC_PAIRS_63,TENT_PIC_CAMPING_64],[TREADMILL_PIC_GYM_62,HINDI_WORD_LANGUAGE_70,DANISH_WORD_LANGUAGE_70],[PUPIL_WORD_EYE_260,FELON_WORD_PRISONER_312,QUASAR_WORD_SPACE_314],[CLOUD_PIC_RAIN_61,TABLA_WORD_DRUM_518,LATIN_WORD_LANGUAGE_70],[DJEMBE_WORD_DRUM_518,NOVA_WORD_SPACE_314,SANTA_PIC_XMAS_65],[PUDDLE_PIC_RAIN_61,ASHIKO_WORD_DRUM_518,ENGLISH_WORD_LANGUAGE_70],[IRIS_WORD_EYE_260,BOURBON_WORD_DYNASTY_991],[LETTER_PIC_MAIL_66,CANDY_CANE_PIC_XMAS_65],[KETTLEBELL_PIC_GYM_62,TUDOR_WORD_DYNASTY_991,POLISH_WORD_LANGUAGE_70],[CHRISTMAS_STOCKING_PIC_XMAS_65,TRUSTY_WORD_LOCK_321],[AIR_BIKE_PIC_GYM_62,STURDY_WORD_LOCK_321],[RAIN_BOOTS_PIC_RAIN_61,CAIRO_WORD_CAPITALS_119]]</t>
-  </si>
-  <si>
-    <t>[WORD_SHOVEL_261,WORD_EYE_260,PIC_GYM_62,PIC_RAIN_61,WORD_CAPITALS_119,WORD_DRUM_518,WORD_DYNASTY_991,WORD_LANGUAGE_70]</t>
+    <t>[3,5,6]</t>
+  </si>
+  <si>
+    <t>[[KETTLEBELL_PIC_GYM_62,PUDDLE_PIC_RAIN_61],[PLASMA_WORD_DISPLAY_486,SATURN_WORD_PLANET_90,SAPPHIRE_WORD_GEMSTONE_186],[EARTH_WORD_PLANET_90,TOPAZ_WORD_GEMSTONE_186,OPAL_WORD_GEMSTONE_186],[RETINA_WORD_EYE_260,CORTEX_WORD_AI_238,ALTAIR_WORD_STARS_236],[LIGHTNING_PIC_RAIN_61,PARROT_WORD_PETS_2,HAMSTER_WORD_PETS_2],[ROME_WORD_CAPITALS_119,UMBRELLA_PIC_RAIN_61,KINGDOM_WORD_MEDIEVAL_228],[DIAMOND_WORD_GEMSTONE_186,CHEESE_WORD_BURGER_8,SAUCE_WORD_BURGER_8],[CLOUD_PIC_RAIN_61,BEEF_WORD_BURGER_8,FELON_WORD_PRISONER_312],[UNEARTH_WORD_SHOVEL_261,DETAINEE_WORD_PRISONER_312,NEBULA_WORD_SPACE_314],[INMATE_WORD_PRISONER_312,YTTRIUM_WORD_METAL_272,LUTETIUM_WORD_METAL_272],[BARBELL_PIC_GYM_62,NURSE_WORD_JOBS_42,ENGINEER_WORD_JOBS_42],[OSLO_WORD_CAPITALS_119,ROMANOV_WORD_DYNASTY_991],[RAINCOAT_PIC_RAIN_61,LORD_WORD_MEDIEVAL_228,KENNEDY_WORD_DYNASTY_991],[MADRID_WORD_CAPITALS_119,CAIRO_WORD_CAPITALS_119,PILOT_WORD_JOBS_42],[TREADMILL_PIC_GYM_62,RIYADH_WORD_CAPITALS_119,KNIGHT_WORD_MEDIEVAL_228],[CASTLE_WORD_MEDIEVAL_228,ACTOR_WORD_JOBS_42],[AIR_BIKE_PIC_GYM_62,THULIUM_WORD_METAL_272,LED_WORD_DISPLAY_486],[JOURNEY_WORD_MAPS_1022,AMOLED_WORD_DISPLAY_486],[DUMBBELL_PIC_GYM_62,JUICE_WORD_DRINKS_16],[RAIN_BOOTS_PIC_RAIN_61,OVERTURE_WORD_SYMPHONY_210],[IRIS_WORD_EYE_260,PRAGUE_WORD_CAPITALS_119,WELDER_WORD_JOBS_42],[EXCAVATE_WORD_SHOVEL_261,TUDOR_WORD_DYNASTY_991],[PUPIL_WORD_EYE_260,OTTAWA_WORD_CAPITALS_119,BOURBON_WORD_DYNASTY_991],[ATHENS_WORD_CAPITALS_119,DOCTOR_WORD_JOBS_42],[DIG_WORD_SHOVEL_261,MAILMAN_WORD_JOBS_42,PLUMBER_WORD_JOBS_42]]</t>
+  </si>
+  <si>
+    <t>[WORD_SHOVEL_261,WORD_EYE_260,PIC_GYM_62,PIC_RAIN_61,WORD_CAPITALS_119,WORD_MEDIEVAL_228,WORD_DYNASTY_991,WORD_JOBS_42]</t>
   </si>
   <si>
     <t>SORT_GAME_LEVE_39_BOARD_1</t>
   </si>
   <si>
-    <t>[2,5,7]</t>
-  </si>
-  <si>
-    <t>[[PLASMA_WORD_DISPLAY_486,MERCURY_WORD_PLANET_90,AURORA_WORD_SPACE_314],[LCD_WORD_DISPLAY_486,OPAL_WORD_GEMSTONE_186,JUPITER_WORD_PLANET_90],[DANISH_WORD_LANGUAGE_70,NOVA_WORD_SPACE_314,PULSAR_WORD_SPACE_314],[DATASET_WORD_AI_238,ERBIUM_WORD_METAL_272,EUROPIUM_WORD_METAL_272],[IRIDIUM_WORD_METAL_272,POLARIS_WORD_STARS_236,RIGEL_WORD_STARS_236],[GARNET_WORD_GEMSTONE_186,NEPTUNE_WORD_PLANET_90,VENUS_WORD_PLANET_90],[TENT_PIC_CAMPING_64,BUN_WORD_BURGER_8,MERCURY_WORD_PLANET_90],[AGENT_WORD_AI_238,EARTH_WORD_PLANET_90],[CAMPFIRE_PIC_CAMPING_64,URANUS_WORD_PLANET_90],[PARROT_WORD_PETS_2,HAMSTER_WORD_PETS_2,SAPPHIRE_WORD_GEMSTONE_186],[SATURN_WORD_PLANET_90,SIRIUS_WORD_STARS_236,VEGA_WORD_STARS_236],[FELON_WORD_PRISONER_312,NEURAL_WORD_AI_238,SAUCE_WORD_BURGER_8],[DETAINEE_WORD_PRISONER_312,SODA_WORD_DRINKS_16,STURDY_WORD_LOCK_321],[LETTER_PIC_MAIL_66,SECURE_WORD_LOCK_321,HINDI_WORD_LANGUAGE_70],[CAT_WORD_PETS_2,MADRID_WORD_CAPITALS_119,RAINCOAT_PIC_RAIN_61],[SOCKS_PIC_PAIRS_63,RAIN_BOOTS_PIC_RAIN_61,TUDOR_WORD_DYNASTY_991],[AMOLED_WORD_DISPLAY_486,DOG_WORD_PETS_2,TWINS_PIC_PAIRS_63],[CRT_WORD_DISPLAY_486,ASHIKO_WORD_DRUM_518,IRIS_WORD_EYE_260],[TRUSTY_WORD_LOCK_321,RETINA_WORD_EYE_260,EXCAVATE_WORD_SHOVEL_261],[MARS_WORD_PLANET_90,UNEARTH_WORD_SHOVEL_261],[OLED_WORD_DISPLAY_486,SKIS_PIC_PAIRS_63,CHEESE_WORD_BURGER_8],[LED_WORD_DISPLAY_486,BEEF_WORD_BURGER_8,TOPAZ_WORD_GEMSTONE_186],[INMATE_WORD_PRISONER_312,CHATBOT_WORD_AI_238,RUBY_WORD_GEMSTONE_186],[HAMMOCK_PIC_CAMPING_64,CORTEX_WORD_AI_238,ONYX_WORD_GEMSTONE_186],[MATRIX_WORD_AI_238,DIAMOND_WORD_GEMSTONE_186,AGATE_WORD_GEMSTONE_186]]</t>
-  </si>
-  <si>
-    <t>[WORD_PLANET_90,WORD_DISPLAY_486,WORD_PRISONER_312,WORD_AI_238,WORD_PETS_2,PIC_CAMPING_64,PIC_PAIRS_63,WORD_BURGER_8,WORD_GEMSTONE_186]</t>
+    <t>[3,4,5]</t>
+  </si>
+  <si>
+    <t>[[DATASET_WORD_AI_238,JOURNEY_WORD_MAPS_1022,LANDMARK_WORD_MAPS_1022],[METEOR_WORD_SPACE_314,ATLAS_WORD_MAPS_1022,ASTEROID_WORD_SPACE_314],[PUPIL_WORD_EYE_260,NEBULA_WORD_SPACE_314,ECLIPSE_WORD_SPACE_314],[DOCTOR_WORD_JOBS_42,LUTETIUM_WORD_METAL_272,THULIUM_WORD_METAL_272],[ACTOR_WORD_JOBS_42,PLASMA_WORD_DISPLAY_486,OLED_WORD_DISPLAY_486],[NOVA_WORD_SPACE_314,LCD_WORD_DISPLAY_486,TRUSTY_WORD_LOCK_321],[SODA_WORD_DRINKS_16,PILOT_WORD_JOBS_42,PLUMBER_WORD_JOBS_42],[CORTEX_WORD_AI_238,MADRID_WORD_CAPITALS_119,TUDOR_WORD_DYNASTY_991],[LED_WORD_DISPLAY_486,LORD_WORD_MEDIEVAL_228,IRIS_WORD_EYE_260],[STURDY_WORD_LOCK_321,DIG_WORD_SHOVEL_261],[INMATE_WORD_PRISONER_312,RIGEL_WORD_STARS_236,PARROT_WORD_PETS_2],[URANUS_WORD_PLANET_90,ALTAIR_WORD_STARS_236,CAT_WORD_PETS_2],[MERCURY_WORD_PLANET_90,SIRIUS_WORD_STARS_236],[ALKAID_WORD_STARS_236,CHATBOT_WORD_AI_238,CHEESE_WORD_BURGER_8],[POLARIS_WORD_STARS_236,HAMMOCK_PIC_CAMPING_64,DIAMOND_WORD_GEMSTONE_186],[SATURN_WORD_PLANET_90,MATRIX_WORD_AI_238,SAUCE_WORD_BURGER_8],[EARTH_WORD_PLANET_90,DOG_WORD_PETS_2,SKIS_PIC_PAIRS_63],[VENUS_WORD_PLANET_90,NEURAL_WORD_AI_238,BEEF_WORD_BURGER_8],[VEGA_WORD_STARS_236,BUN_WORD_BURGER_8],[FELON_WORD_PRISONER_312,TOPAZ_WORD_GEMSTONE_186,TENT_PIC_CAMPING_64],[DETAINEE_WORD_PRISONER_312,TWINS_PIC_PAIRS_63,ONYX_WORD_GEMSTONE_186],[JUPITER_WORD_PLANET_90,CAMPFIRE_PIC_CAMPING_64,AGATE_WORD_GEMSTONE_186],[AGENT_WORD_AI_238,GARNET_WORD_GEMSTONE_186,SAPPHIRE_WORD_GEMSTONE_186],[NEPTUNE_WORD_PLANET_90,HAMSTER_WORD_PETS_2,RUBY_WORD_GEMSTONE_186],[MARS_WORD_PLANET_90,SOCKS_PIC_PAIRS_63,OPAL_WORD_GEMSTONE_186]]</t>
+  </si>
+  <si>
+    <t>[WORD_PLANET_90,WORD_STARS_236,WORD_PRISONER_312,WORD_AI_238,WORD_PETS_2,PIC_CAMPING_64,PIC_PAIRS_63,WORD_BURGER_8,WORD_GEMSTONE_186]</t>
   </si>
   <si>
     <t>SORT_GAME_LEVE_40_BOARD_1</t>
   </si>
   <si>
-    <t>[2,4,13]</t>
-  </si>
-  <si>
-    <t>[[LEMONADE_WORD_DRINKS_16,ALKAID_WORD_STARS_236,PARCEL_PIC_MAIL_66],[INMATE_WORD_PRISONER_312,STELLITE_WORD_ALLOY_264,ONYX_WORD_GEMSTONE_186],[DIG_WORD_SHOVEL_261,GARNET_WORD_GEMSTONE_186,AGENT_WORD_AI_238],[NICHROME_WORD_ALLOY_264,MATRIX_WORD_AI_238,NEURAL_WORD_AI_238],[RIGEL_WORD_STARS_236,VEGA_WORD_STARS_236,CHRISTMAS_STOCKING_PIC_XMAS_65],[EUROPIUM_WORD_METAL_272,SANTA_PIC_XMAS_65,NEBULA_WORD_SPACE_314],[SODA_WORD_DRINKS_16,ASTEROID_WORD_SPACE_314,ALNICO_WORD_ALLOY_264],[ALTAIR_WORD_STARS_236,SECURE_WORD_LOCK_321,QUASAR_WORD_SPACE_314],[RHODIUM_WORD_METAL_272,NITINOL_WORD_ALLOY_264,BRASS_WORD_ALLOY_264],[TRUSTY_WORD_LOCK_321,THULIUM_WORD_METAL_272,LETTER_PIC_MAIL_66],[SKIS_PIC_PAIRS_63,LED_WORD_DISPLAY_486,DOG_WORD_PETS_2],[THIGH_WORD_LEGS_322,SAUCE_WORD_BURGER_8,POLISH_WORD_LANGUAGE_70],[DJEMBE_WORD_DRUM_518,JAPANESE_WORD_LANGUAGE_70,HEBREW_WORD_LANGUAGE_70],[BRONZE_WORD_ALLOY_264,RIYADH_WORD_CAPITALS_119,LIGHTNING_PIC_RAIN_61],[OTTAWA_WORD_CAPITALS_119,RAIN_BOOTS_PIC_RAIN_61,BARBELL_PIC_GYM_62],[CANDY_CANE_PIC_XMAS_65,STAMP_PIC_MAIL_66,METEOR_WORD_SPACE_314],[AURORA_WORD_SPACE_314,NOVA_WORD_SPACE_314,STELLITE_WORD_ALLOY_264],[POLARIS_WORD_STARS_236,CHRISTMAS_TREE_PIC_XMAS_65,PULSAR_WORD_SPACE_314],[JUICE_WORD_DRINKS_16,IRIDIUM_WORD_METAL_272,ERBIUM_WORD_METAL_272],[SIRIUS_WORD_STARS_236,ECLIPSE_WORD_SPACE_314,YTTRIUM_WORD_METAL_272],[ANKLE_WORD_LEGS_322,HOLMIUM_WORD_METAL_272,TUNGSTEN_WORD_ALLOY_264],[STURDY_WORD_LOCK_321,KETTLEBELL_PIC_GYM_62,BOURBON_WORD_DYNASTY_991],[KNEE_WORD_LEGS_322,ROMANOV_WORD_DYNASTY_991,BONGO_WORD_DRUM_518],[BEEF_WORD_BURGER_8,TABLA_WORD_DRUM_518,EXCAVATE_WORD_SHOVEL_261],[ESPRESSO_WORD_DRINKS_16,LUTETIUM_WORD_METAL_272,AMALGAM_WORD_ALLOY_264]]</t>
-  </si>
-  <si>
-    <t>[WORD_DRINKS_16,WORD_STARS_236,WORD_LEGS_322,PIC_XMAS_65,WORD_ALLOY_264,WORD_LOCK_321,WORD_METAL_272,PIC_MAIL_66,WORD_SPACE_314]</t>
+    <t>[1,9,12]</t>
+  </si>
+  <si>
+    <t>[[TERRAIN_WORD_MAPS_1022,AMOLED_WORD_DISPLAY_486,ECLIPSE_WORD_SPACE_314],[OLED_WORD_DISPLAY_486,PLASMA_WORD_DISPLAY_486,PULSAR_WORD_SPACE_314],[LED_WORD_DISPLAY_486,GLOBE_WORD_MAPS_1022,SANTA_PIC_XMAS_65],[STAMP_PIC_MAIL_66,CANDY_CANE_PIC_XMAS_65,YTTRIUM_WORD_METAL_272],[OVERTURE_WORD_SYMPHONY_210,ATLAS_WORD_MAPS_1022,ASTEROID_WORD_SPACE_314],[LANDMARK_WORD_MAPS_1022,SATURN_WORD_PLANET_90,EARTH_WORD_PLANET_90],[STURDY_WORD_LOCK_321,DIAMOND_WORD_GEMSTONE_186,AGENT_WORD_AI_238],[DOCTOR_WORD_JOBS_42,CHATBOT_WORD_AI_238,POLARIS_WORD_STARS_236],[LUTETIUM_WORD_METAL_272,SECURE_WORD_LOCK_321,HOLMIUM_WORD_METAL_272],[HARMONY_WORD_SYMPHONY_210,VEGA_WORD_STARS_236,RIGEL_WORD_STARS_236],[LEMONADE_WORD_DRINKS_16,CAT_WORD_PETS_2,DOG_WORD_PETS_2],[BORDER_WORD_MAPS_1022,CHEESE_WORD_BURGER_8,DETAINEE_WORD_PRISONER_312],[ERBIUM_WORD_METAL_272,LETTER_PIC_MAIL_66,NOVA_WORD_SPACE_314],[JUICE_WORD_DRINKS_16,JOURNEY_WORD_MAPS_1022,QUASAR_WORD_SPACE_314],[SCALE_WORD_MAPS_1022,MAILMAN_WORD_JOBS_42,PILOT_WORD_JOBS_42],[ESPRESSO_WORD_DRINKS_16,ENGINEER_WORD_JOBS_42,RIYADH_WORD_CAPITALS_119],[CHRISTMAS_TREE_PIC_XMAS_65,CHRISTMAS_STOCKING_PIC_XMAS_65,NEBULA_WORD_SPACE_314],[SODA_WORD_DRINKS_16,MADRID_WORD_CAPITALS_119,ROME_WORD_CAPITALS_119],[LCD_WORD_DISPLAY_486,CONTOUR_WORD_MAPS_1022,METEOR_WORD_SPACE_314],[THULIUM_WORD_METAL_272,PRAGUE_WORD_CAPITALS_119,CAIRO_WORD_CAPITALS_119],[MELODY_WORD_SYMPHONY_210,EUROPIUM_WORD_METAL_272,AURORA_WORD_SPACE_314],[TRUSTY_WORD_LOCK_321,OSLO_WORD_CAPITALS_119,ATHENS_WORD_CAPITALS_119],[CRT_WORD_DISPLAY_486,BOURBON_WORD_DYNASTY_991,ROMANOV_WORD_DYNASTY_991],[PARCEL_PIC_MAIL_66,IRIDIUM_WORD_METAL_272,RHODIUM_WORD_METAL_272],[WELDER_WORD_JOBS_42,KNIGHT_WORD_MEDIEVAL_228,EXCAVATE_WORD_SHOVEL_261]]</t>
+  </si>
+  <si>
+    <t>[WORD_DRINKS_16,WORD_DISPLAY_486,WORD_SYMPHONY_210,PIC_XMAS_65,WORD_MAPS_1022,WORD_LOCK_321,WORD_METAL_272,PIC_MAIL_66,WORD_SPACE_314]</t>
   </si>
 </sst>
 </file>
@@ -929,18 +917,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1129,7 +1111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1149,6 +1131,51 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1276,7 +1303,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,119 +1315,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,8 +1460,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1757,8 +1793,8 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J33" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="M38" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
@@ -2051,7 +2087,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>56</v>
@@ -2059,22 +2095,22 @@
       <c r="M6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="10" t="s">
         <v>60</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="7">
-        <v>100</v>
-      </c>
-      <c r="S6" s="7">
+      <c r="R6" s="12">
+        <v>105</v>
+      </c>
+      <c r="S6" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2102,7 +2138,7 @@
         <v>62</v>
       </c>
       <c r="K7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>63</v>
@@ -2110,22 +2146,22 @@
       <c r="M7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="7">
-        <v>100</v>
-      </c>
-      <c r="S7" s="7">
+      <c r="R7" s="12">
+        <v>125</v>
+      </c>
+      <c r="S7" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2153,7 +2189,7 @@
         <v>68</v>
       </c>
       <c r="K8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>69</v>
@@ -2161,22 +2197,22 @@
       <c r="M8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="11" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="7">
-        <v>95</v>
-      </c>
-      <c r="S8" s="7">
+      <c r="R8" s="12">
+        <v>130</v>
+      </c>
+      <c r="S8" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2212,22 +2248,22 @@
       <c r="M9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="11" t="s">
         <v>78</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="7">
-        <v>95</v>
-      </c>
-      <c r="S9" s="7">
+      <c r="R9" s="12">
+        <v>130</v>
+      </c>
+      <c r="S9" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2263,22 +2299,22 @@
       <c r="M10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="11" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="7">
-        <v>105</v>
-      </c>
-      <c r="S10" s="7">
+      <c r="R10" s="12">
+        <v>145</v>
+      </c>
+      <c r="S10" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2303,39 +2339,39 @@
         <v>1</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="7">
-        <v>2</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R11" s="7">
-        <v>105</v>
-      </c>
-      <c r="S11" s="7">
+        <v>88</v>
+      </c>
+      <c r="R11" s="12">
+        <v>135</v>
+      </c>
+      <c r="S11" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2354,39 +2390,39 @@
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="7">
-        <v>2</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="7">
-        <v>105</v>
-      </c>
-      <c r="S12" s="7">
+        <v>94</v>
+      </c>
+      <c r="R12" s="12">
+        <v>125</v>
+      </c>
+      <c r="S12" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2405,39 +2441,39 @@
         <v>2</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="7">
-        <v>2</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R13" s="7">
-        <v>120</v>
-      </c>
-      <c r="S13" s="7">
+        <v>100</v>
+      </c>
+      <c r="R13" s="12">
+        <v>140</v>
+      </c>
+      <c r="S13" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2456,39 +2492,39 @@
         <v>2</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="7">
-        <v>2</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" s="7">
-        <v>120</v>
-      </c>
-      <c r="S14" s="7">
+        <v>106</v>
+      </c>
+      <c r="R14" s="12">
+        <v>125</v>
+      </c>
+      <c r="S14" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2507,37 +2543,37 @@
         <v>2</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="7">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q15" s="6"/>
-      <c r="R15" s="7">
+      <c r="R15" s="12">
         <v>135</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2556,37 +2592,37 @@
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7">
         <v>2</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q16" s="6"/>
-      <c r="R16" s="7">
+      <c r="R16" s="12">
         <v>90</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A17" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2605,37 +2641,37 @@
         <v>2</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7">
-        <v>2</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q17" s="6"/>
-      <c r="R17" s="7">
+      <c r="R17" s="12">
         <v>100</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2654,37 +2690,37 @@
         <v>2</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="7">
-        <v>2</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q18" s="6"/>
-      <c r="R18" s="7">
+      <c r="R18" s="12">
         <v>115</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A19" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2703,37 +2739,37 @@
         <v>2</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7">
-        <v>2</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q19" s="6"/>
-      <c r="R19" s="7">
+      <c r="R19" s="12">
         <v>130</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2752,37 +2788,37 @@
         <v>2</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="7">
-        <v>2</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q20" s="6"/>
-      <c r="R20" s="7">
+      <c r="R20" s="12">
         <v>150</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A21" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2801,37 +2837,37 @@
         <v>1</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q21" s="6"/>
-      <c r="R21" s="7">
+      <c r="R21" s="12">
         <v>130</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A22" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2850,37 +2886,37 @@
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="7">
-        <v>2</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q22" s="6"/>
-      <c r="R22" s="7">
+      <c r="R22" s="12">
         <v>130</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A23" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2899,37 +2935,37 @@
         <v>2</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7">
         <v>2</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q23" s="6"/>
-      <c r="R23" s="7">
+      <c r="R23" s="12">
         <v>140</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A24" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2948,37 +2984,37 @@
         <v>2</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="K24" s="7">
         <v>2</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q24" s="6"/>
-      <c r="R24" s="7">
+      <c r="R24" s="12">
         <v>155</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A25" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2997,37 +3033,37 @@
         <v>3</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7">
         <v>2</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q25" s="6"/>
-      <c r="R25" s="7">
+      <c r="R25" s="12">
         <v>165</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A26" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3046,37 +3082,37 @@
         <v>2</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7">
         <v>2</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="N26" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P26" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q26" s="6"/>
-      <c r="R26" s="7">
+      <c r="R26" s="12">
         <v>140</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A27" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3095,37 +3131,37 @@
         <v>2</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K27" s="7">
         <v>2</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N27" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q27" s="6"/>
-      <c r="R27" s="7">
+      <c r="R27" s="12">
         <v>145</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A28" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3144,37 +3180,37 @@
         <v>2</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7">
         <v>2</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q28" s="6"/>
-      <c r="R28" s="7">
+      <c r="R28" s="12">
         <v>150</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3193,37 +3229,37 @@
         <v>3</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7">
         <v>2</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N29" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q29" s="6"/>
-      <c r="R29" s="7">
+      <c r="R29" s="12">
         <v>155</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A30" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3242,37 +3278,37 @@
         <v>3</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7">
         <v>2</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N30" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q30" s="6"/>
-      <c r="R30" s="7">
+      <c r="R30" s="12">
         <v>165</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A31" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3291,37 +3327,37 @@
         <v>2</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7">
         <v>2</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="N31" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q31" s="6"/>
-      <c r="R31" s="7">
+      <c r="R31" s="12">
         <v>150</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A32" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3340,37 +3376,37 @@
         <v>2</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7">
         <v>2</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N32" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P32" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="7">
+      <c r="R32" s="12">
         <v>135</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A33" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3389,37 +3425,37 @@
         <v>3</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K33" s="7">
         <v>2</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="N33" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="N33" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q33" s="6"/>
-      <c r="R33" s="7">
+      <c r="R33" s="12">
         <v>145</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A34" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3438,37 +3474,37 @@
         <v>3</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K34" s="7">
         <v>3</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N34" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N34" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q34" s="6"/>
-      <c r="R34" s="7">
+      <c r="R34" s="12">
         <v>160</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A35" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3487,37 +3523,37 @@
         <v>3</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K35" s="7">
         <v>3</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="N35" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="N35" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q35" s="6"/>
-      <c r="R35" s="7">
+      <c r="R35" s="12">
         <v>165</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A36" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3536,37 +3572,37 @@
         <v>2</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7">
         <v>2</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="N36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q36" s="6"/>
-      <c r="R36" s="7">
+      <c r="R36" s="12">
         <v>130</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A37" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3585,37 +3621,37 @@
         <v>3</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K37" s="7">
         <v>2</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="N37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N37" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P37" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q37" s="6"/>
-      <c r="R37" s="7">
+      <c r="R37" s="12">
         <v>135</v>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A38" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -3634,37 +3670,37 @@
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K38" s="7">
         <v>2</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="N38" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P38" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q38" s="6"/>
-      <c r="R38" s="7">
+      <c r="R38" s="12">
         <v>145</v>
       </c>
-      <c r="S38" s="7">
+      <c r="S38" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A39" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -3683,37 +3719,37 @@
         <v>3</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K39" s="7">
         <v>3</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q39" s="6"/>
-      <c r="R39" s="7">
+      <c r="R39" s="12">
         <v>135</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A40" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -3732,37 +3768,37 @@
         <v>3</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K40" s="7">
         <v>3</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="N40" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q40" s="6"/>
-      <c r="R40" s="7">
+      <c r="R40" s="12">
         <v>140</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A41" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -3781,37 +3817,37 @@
         <v>3</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K41" s="7">
         <v>2</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="N41" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q41" s="6"/>
-      <c r="R41" s="7">
+      <c r="R41" s="12">
         <v>110</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A42" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -3830,37 +3866,37 @@
         <v>3</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K42" s="7">
         <v>2</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="N42" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="N42" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q42" s="6"/>
-      <c r="R42" s="7">
+      <c r="R42" s="12">
         <v>115</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A43" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3879,37 +3915,37 @@
         <v>3</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K43" s="7">
         <v>2</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="N43" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q43" s="6"/>
-      <c r="R43" s="7">
+      <c r="R43" s="12">
         <v>125</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A44" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -3928,37 +3964,37 @@
         <v>3</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K44" s="7">
         <v>3</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="N44" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="N44" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P44" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q44" s="6"/>
-      <c r="R44" s="7">
+      <c r="R44" s="12">
         <v>135</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="50" customHeight="1" spans="1:19">
       <c r="A45" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3977,31 +4013,31 @@
         <v>3</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K45" s="7">
         <v>3</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="N45" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P45" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="Q45" s="6"/>
-      <c r="R45" s="7">
+      <c r="R45" s="12">
         <v>140</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="12">
         <v>5</v>
       </c>
     </row>

--- a/config/level_config.xlsx
+++ b/config/level_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12740"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,13 +567,13 @@
     <t>SORT_GAME_LEVE_28_BOARD_1</t>
   </si>
   <si>
-    <t>[7,10,11]</t>
-  </si>
-  <si>
-    <t>[[DECODE_WORD_CIPHER_208,TYRANNY_WORD_POLICIES_394,JULIET_WORD_WILLIAM_165],[MONARCHY_WORD_POLICIES_394,MACBETH_WORD_WILLIAM_165,PERICLES_WORD_WILLIAM_165],[ANGORA_WORD_BREEDS_940,SILICON_WORD_ELEMENTS_107,SULFUR_WORD_ELEMENTS_107],[SOLOIST_WORD_SINGING_1054,HYDROGEN_WORD_ELEMENTS_107,GOURMET_WORD_FOODIE_726],[ELECTRIC_CAR_PIC_CHARGER_41,ELECTRIC_TOOTHBRUSH_PIC_CHARGER_41,ACT_WORD_OPERA_760],[LAPTOP_PIC_CHARGER_41,DECAY_WORD_RADIATE_257,INSULIN_WORD_HORMONES_259],[DIGITAL_CAMERA_PIC_CHARGER_41,SHIELD_WORD_KNIGHT_34,CHIVALRY_WORD_KNIGHT_34],[SWAN_WORD_BIRDS_80,CAULDRON_WORD_ALCHEMY_445,HUMMING_WORD_SINGING_1054],[SPHYNX_WORD_BREEDS_940,MELODY_WORD_SINGING_1054,FINCH_WORD_BIRDS_80],[ENCODE_WORD_CIPHER_208,ROLE_WORD_OPERA_760,OTHELLO_WORD_WILLIAM_165],[TAXI_PIC_TRANSPORT_42,VULTURE_WORD_BIRDS_80,DOVE_WORD_BIRDS_80],[SIAMESE_WORD_BREEDS_940,ANARCHY_WORD_POLICIES_394],[DRONE_PIC_CHARGER_41,BLUETOOTH_HEADPHONES_PIC_CHARGER_41],[KEYWORD_WORD_CIPHER_208,ROBIN_WORD_BIRDS_80,TEXTURE_WORD_SKINCARE_984],[HELICOPTER_PIC_TRANSPORT_42,HAMLET_WORD_WILLIAM_165,TEMPEST_WORD_WILLIAM_165],[FALLOUT_WORD_RADIATE_257,RETINOL_WORD_SKINCARE_984,VASE_WORD_ARTIFACT_276],[POWER_BANK_PIC_CHARGER_41,ARMOR_WORD_KNIGHT_34,ROMEO_WORD_WILLIAM_165],[SONG_WORD_SINGING_1054,TOTEM_WORD_ARTIFACT_276,RELIC_WORD_ARTIFACT_276],[PASSWORD_WORD_CIPHER_208,WEAPON_WORD_KNIGHT_34],[PLANE_PIC_TRANSPORT_42,DESTRIER_WORD_KNIGHT_34],[GLUCAGON_WORD_HORMONES_259,TABLA_WORD_DRUM_518],[TRAIN_PIC_TRANSPORT_42,DIVA_WORD_OPERA_760],[SMARTWATCH_PIC_CHARGER_41,DJEMBE_WORD_DRUM_518],[BENGAL_WORD_BREEDS_940,DNA_WORD_GENETICS_1060],[BIRMAN_WORD_BREEDS_940,HELMET_WORD_KNIGHT_34,HENRY_V_WORD_WILLIAM_165]]</t>
-  </si>
-  <si>
-    <t>[PIC_TRANSPORT_42,WORD_BREEDS_940,WORD_POLICIES_394,WORD_CIPHER_208,PIC_CHARGER_41,WORD_WILLIAM_165,WORD_OPERA_760,WORD_KNIGHT_34]</t>
+    <t>[7,10,12]</t>
+  </si>
+  <si>
+    <t>[[ELECTRIC_TOOTHBRUSH_PIC_CHARGER_41,NITROGEN_WORD_ELEMENTS_107,TASTE_WORD_FOODIE_726],[SMARTWATCH_PIC_CHARGER_41,KAYAK_PIC_AQUATICS_78,ATM_WORD_SCREEN_1030],[PADDLEBOARD_PIC_AQUATICS_78,EPICURE_WORD_FOODIE_726,FALLOUT_WORD_RADIATE_257],[BIRMAN_WORD_BREEDS_940,CURIE_WORD_RADIATE_257,GLUCAGON_WORD_HORMONES_259],[BUZZER_WORD_ALARM_1031,SURFBOARD_PIC_AQUATICS_78,E_READER_WORD_SCREEN_1030],[LIFE_RING_PIC_AQUATICS_78,GASTRIN_WORD_HORMONES_259,CAULDRON_WORD_ALCHEMY_445],[PASSWORD_WORD_CIPHER_208,WETSUIT_PIC_AQUATICS_78,CHIVALRY_WORD_KNIGHT_34],[MELODY_WORD_SINGING_1054,POTION_WORD_ALCHEMY_445,HARMONY_WORD_YINYANG_721],[ANGORA_WORD_BREEDS_940,TV_WORD_SCREEN_1030,DESTRIER_WORD_KNIGHT_34],[SAILBOAT_PIC_AQUATICS_78,HELMET_WORD_KNIGHT_34,HAMLET_WORD_WILLIAM_165],[ELECTRIC_CAR_PIC_CHARGER_41,DOVE_WORD_BIRDS_80,HERON_WORD_BIRDS_80],[BLUETOOTH_HEADPHONES_PIC_CHARGER_41,POWER_BANK_PIC_CHARGER_41,ROMEO_WORD_WILLIAM_165],[SIAMESE_WORD_BREEDS_940,DIGITAL_CAMERA_PIC_CHARGER_41,PERICLES_WORD_WILLIAM_165],[LIFE_JACKET_PIC_AQUATICS_78,TONER_WORD_SKINCARE_984,CLEANSER_WORD_SKINCARE_984],[DECODE_WORD_CIPHER_208,TEMPEST_WORD_WILLIAM_165,JULIET_WORD_WILLIAM_165],[GOURMET_WORD_FOODIE_726,RELIC_WORD_ARTIFACT_276,AMULET_WORD_ARTIFACT_276],[DRONE_PIC_CHARGER_41,ARMOR_WORD_KNIGHT_34],[GENE_WORD_GENETICS_1060,TOTEM_WORD_ARTIFACT_276,DJEMBE_WORD_DRUM_518],[BENGAL_WORD_BREEDS_940,TABLA_WORD_DRUM_518,GENOME_WORD_GENETICS_1060],[KEYWORD_WORD_CIPHER_208,HENRY_V_WORD_WILLIAM_165,OTHELLO_WORD_WILLIAM_165],[RUSH_WORD_ALARM_1031,DIVING_MASK_PIC_AQUATICS_78],[BEEP_WORD_ALARM_1031,SHIELD_WORD_KNIGHT_34],[LAPTOP_PIC_CHARGER_41,DNA_WORD_GENETICS_1060,PALACE_WORD_HOUSE_40],[SPHYNX_WORD_BREEDS_940,MANSION_WORD_HOUSE_40],[ENCODE_WORD_CIPHER_208,WEAPON_WORD_KNIGHT_34,MACBETH_WORD_WILLIAM_165]]</t>
+  </si>
+  <si>
+    <t>[PIC_AQUATICS_78,WORD_BREEDS_940,WORD_ALARM_1031,WORD_CIPHER_208,PIC_CHARGER_41,WORD_WILLIAM_165,WORD_SCREEN_1030,WORD_KNIGHT_34]</t>
   </si>
   <si>
     <t>SORT_GAME_LEVE_29_BOARD_1</t>
@@ -1427,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,6 +1452,9 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1793,8 +1796,8 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M38" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:S45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
@@ -1957,7 +1960,7 @@
       <c r="M3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -2098,19 +2101,19 @@
       <c r="N6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="13">
         <v>105</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2149,19 +2152,19 @@
       <c r="N7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>66</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="13">
         <v>125</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2200,19 +2203,19 @@
       <c r="N8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="12" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="13">
         <v>130</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2251,19 +2254,19 @@
       <c r="N9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>78</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="13">
         <v>130</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2302,19 +2305,19 @@
       <c r="N10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="12" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="13">
         <v>145</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2353,19 +2356,19 @@
       <c r="N11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="12" t="s">
         <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="13">
         <v>135</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2404,19 +2407,19 @@
       <c r="N12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="13">
         <v>125</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2455,19 +2458,19 @@
       <c r="N13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="12" t="s">
         <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="13">
         <v>140</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2506,19 +2509,19 @@
       <c r="N14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="12" t="s">
         <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="13">
         <v>125</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2564,10 +2567,10 @@
         <v>113</v>
       </c>
       <c r="Q15" s="6"/>
-      <c r="R15" s="12">
+      <c r="R15" s="13">
         <v>135</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2613,10 +2616,10 @@
         <v>113</v>
       </c>
       <c r="Q16" s="6"/>
-      <c r="R16" s="12">
+      <c r="R16" s="13">
         <v>90</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2662,10 +2665,10 @@
         <v>113</v>
       </c>
       <c r="Q17" s="6"/>
-      <c r="R17" s="12">
+      <c r="R17" s="13">
         <v>100</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2711,10 +2714,10 @@
         <v>113</v>
       </c>
       <c r="Q18" s="6"/>
-      <c r="R18" s="12">
+      <c r="R18" s="13">
         <v>115</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2760,10 +2763,10 @@
         <v>113</v>
       </c>
       <c r="Q19" s="6"/>
-      <c r="R19" s="12">
+      <c r="R19" s="13">
         <v>130</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2809,10 +2812,10 @@
         <v>113</v>
       </c>
       <c r="Q20" s="6"/>
-      <c r="R20" s="12">
+      <c r="R20" s="13">
         <v>150</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2858,10 +2861,10 @@
         <v>113</v>
       </c>
       <c r="Q21" s="6"/>
-      <c r="R21" s="12">
+      <c r="R21" s="13">
         <v>130</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2907,10 +2910,10 @@
         <v>113</v>
       </c>
       <c r="Q22" s="6"/>
-      <c r="R22" s="12">
+      <c r="R22" s="13">
         <v>130</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2956,10 +2959,10 @@
         <v>113</v>
       </c>
       <c r="Q23" s="6"/>
-      <c r="R23" s="12">
+      <c r="R23" s="13">
         <v>140</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3005,10 +3008,10 @@
         <v>113</v>
       </c>
       <c r="Q24" s="6"/>
-      <c r="R24" s="12">
+      <c r="R24" s="13">
         <v>155</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3054,10 +3057,10 @@
         <v>113</v>
       </c>
       <c r="Q25" s="6"/>
-      <c r="R25" s="12">
+      <c r="R25" s="13">
         <v>165</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3103,10 +3106,10 @@
         <v>113</v>
       </c>
       <c r="Q26" s="6"/>
-      <c r="R26" s="12">
+      <c r="R26" s="13">
         <v>140</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3152,10 +3155,10 @@
         <v>113</v>
       </c>
       <c r="Q27" s="6"/>
-      <c r="R27" s="12">
+      <c r="R27" s="13">
         <v>145</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3201,10 +3204,10 @@
         <v>113</v>
       </c>
       <c r="Q28" s="6"/>
-      <c r="R28" s="12">
+      <c r="R28" s="13">
         <v>150</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3250,10 +3253,10 @@
         <v>113</v>
       </c>
       <c r="Q29" s="6"/>
-      <c r="R29" s="12">
+      <c r="R29" s="13">
         <v>155</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3299,10 +3302,10 @@
         <v>113</v>
       </c>
       <c r="Q30" s="6"/>
-      <c r="R30" s="12">
+      <c r="R30" s="13">
         <v>165</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3348,10 +3351,10 @@
         <v>113</v>
       </c>
       <c r="Q31" s="6"/>
-      <c r="R31" s="12">
+      <c r="R31" s="13">
         <v>150</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3397,10 +3400,10 @@
         <v>113</v>
       </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="12">
+      <c r="R32" s="13">
         <v>135</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3424,16 +3427,16 @@
       <c r="I33" s="7">
         <v>3</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="7">
-        <v>2</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="K33" s="8">
+        <v>2</v>
+      </c>
+      <c r="L33" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="8" t="s">
         <v>181</v>
       </c>
       <c r="N33" s="7" t="s">
@@ -3446,10 +3449,10 @@
         <v>113</v>
       </c>
       <c r="Q33" s="6"/>
-      <c r="R33" s="12">
+      <c r="R33" s="13">
         <v>145</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3495,10 +3498,10 @@
         <v>113</v>
       </c>
       <c r="Q34" s="6"/>
-      <c r="R34" s="12">
+      <c r="R34" s="13">
         <v>160</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3544,10 +3547,10 @@
         <v>113</v>
       </c>
       <c r="Q35" s="6"/>
-      <c r="R35" s="12">
+      <c r="R35" s="13">
         <v>165</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3593,10 +3596,10 @@
         <v>113</v>
       </c>
       <c r="Q36" s="6"/>
-      <c r="R36" s="12">
+      <c r="R36" s="13">
         <v>130</v>
       </c>
-      <c r="S36" s="12">
+      <c r="S36" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3642,10 +3645,10 @@
         <v>113</v>
       </c>
       <c r="Q37" s="6"/>
-      <c r="R37" s="12">
+      <c r="R37" s="13">
         <v>135</v>
       </c>
-      <c r="S37" s="12">
+      <c r="S37" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3691,10 +3694,10 @@
         <v>113</v>
       </c>
       <c r="Q38" s="6"/>
-      <c r="R38" s="12">
+      <c r="R38" s="13">
         <v>145</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3740,10 +3743,10 @@
         <v>113</v>
       </c>
       <c r="Q39" s="6"/>
-      <c r="R39" s="12">
+      <c r="R39" s="13">
         <v>135</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3789,10 +3792,10 @@
         <v>113</v>
       </c>
       <c r="Q40" s="6"/>
-      <c r="R40" s="12">
+      <c r="R40" s="13">
         <v>140</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3838,10 +3841,10 @@
         <v>113</v>
       </c>
       <c r="Q41" s="6"/>
-      <c r="R41" s="12">
+      <c r="R41" s="13">
         <v>110</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3887,10 +3890,10 @@
         <v>113</v>
       </c>
       <c r="Q42" s="6"/>
-      <c r="R42" s="12">
+      <c r="R42" s="13">
         <v>115</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3936,10 +3939,10 @@
         <v>113</v>
       </c>
       <c r="Q43" s="6"/>
-      <c r="R43" s="12">
+      <c r="R43" s="13">
         <v>125</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3985,10 +3988,10 @@
         <v>113</v>
       </c>
       <c r="Q44" s="6"/>
-      <c r="R44" s="12">
+      <c r="R44" s="13">
         <v>135</v>
       </c>
-      <c r="S44" s="12">
+      <c r="S44" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4034,10 +4037,10 @@
         <v>113</v>
       </c>
       <c r="Q45" s="6"/>
-      <c r="R45" s="12">
+      <c r="R45" s="13">
         <v>140</v>
       </c>
-      <c r="S45" s="12">
+      <c r="S45" s="13">
         <v>5</v>
       </c>
     </row>

--- a/config/level_config.xlsx
+++ b/config/level_config.xlsx
@@ -714,10 +714,10 @@
     <t>[1,9,12]</t>
   </si>
   <si>
-    <t>[[TERRAIN_WORD_MAPS_1022,AMOLED_WORD_DISPLAY_486,ECLIPSE_WORD_SPACE_314],[OLED_WORD_DISPLAY_486,PLASMA_WORD_DISPLAY_486,PULSAR_WORD_SPACE_314],[LED_WORD_DISPLAY_486,GLOBE_WORD_MAPS_1022,SANTA_PIC_XMAS_65],[STAMP_PIC_MAIL_66,CANDY_CANE_PIC_XMAS_65,YTTRIUM_WORD_METAL_272],[OVERTURE_WORD_SYMPHONY_210,ATLAS_WORD_MAPS_1022,ASTEROID_WORD_SPACE_314],[LANDMARK_WORD_MAPS_1022,SATURN_WORD_PLANET_90,EARTH_WORD_PLANET_90],[STURDY_WORD_LOCK_321,DIAMOND_WORD_GEMSTONE_186,AGENT_WORD_AI_238],[DOCTOR_WORD_JOBS_42,CHATBOT_WORD_AI_238,POLARIS_WORD_STARS_236],[LUTETIUM_WORD_METAL_272,SECURE_WORD_LOCK_321,HOLMIUM_WORD_METAL_272],[HARMONY_WORD_SYMPHONY_210,VEGA_WORD_STARS_236,RIGEL_WORD_STARS_236],[LEMONADE_WORD_DRINKS_16,CAT_WORD_PETS_2,DOG_WORD_PETS_2],[BORDER_WORD_MAPS_1022,CHEESE_WORD_BURGER_8,DETAINEE_WORD_PRISONER_312],[ERBIUM_WORD_METAL_272,LETTER_PIC_MAIL_66,NOVA_WORD_SPACE_314],[JUICE_WORD_DRINKS_16,JOURNEY_WORD_MAPS_1022,QUASAR_WORD_SPACE_314],[SCALE_WORD_MAPS_1022,MAILMAN_WORD_JOBS_42,PILOT_WORD_JOBS_42],[ESPRESSO_WORD_DRINKS_16,ENGINEER_WORD_JOBS_42,RIYADH_WORD_CAPITALS_119],[CHRISTMAS_TREE_PIC_XMAS_65,CHRISTMAS_STOCKING_PIC_XMAS_65,NEBULA_WORD_SPACE_314],[SODA_WORD_DRINKS_16,MADRID_WORD_CAPITALS_119,ROME_WORD_CAPITALS_119],[LCD_WORD_DISPLAY_486,CONTOUR_WORD_MAPS_1022,METEOR_WORD_SPACE_314],[THULIUM_WORD_METAL_272,PRAGUE_WORD_CAPITALS_119,CAIRO_WORD_CAPITALS_119],[MELODY_WORD_SYMPHONY_210,EUROPIUM_WORD_METAL_272,AURORA_WORD_SPACE_314],[TRUSTY_WORD_LOCK_321,OSLO_WORD_CAPITALS_119,ATHENS_WORD_CAPITALS_119],[CRT_WORD_DISPLAY_486,BOURBON_WORD_DYNASTY_991,ROMANOV_WORD_DYNASTY_991],[PARCEL_PIC_MAIL_66,IRIDIUM_WORD_METAL_272,RHODIUM_WORD_METAL_272],[WELDER_WORD_JOBS_42,KNIGHT_WORD_MEDIEVAL_228,EXCAVATE_WORD_SHOVEL_261]]</t>
-  </si>
-  <si>
-    <t>[WORD_DRINKS_16,WORD_DISPLAY_486,WORD_SYMPHONY_210,PIC_XMAS_65,WORD_MAPS_1022,WORD_LOCK_321,WORD_METAL_272,PIC_MAIL_66,WORD_SPACE_314]</t>
+    <t>[[TERRAIN_WORD_MAPS_1022,AMOLED_WORD_DISPLAY_486,ECLIPSE_WORD_SPACE_314],[OLED_WORD_DISPLAY_486,PLASMA_WORD_DISPLAY_486,WORD_MAPS_1022,PULSAR_WORD_SPACE_314],[LED_WORD_DISPLAY_486,GLOBE_WORD_MAPS_1022,SANTA_PIC_XMAS_65],[STAMP_PIC_MAIL_66,CANDY_CANE_PIC_XMAS_65,YTTRIUM_WORD_METAL_272],[OVERTURE_WORD_SYMPHONY_210,ATLAS_WORD_MAPS_1022,ASTEROID_WORD_SPACE_314],[PIC_MAIL_66,LANDMARK_WORD_MAPS_1022],[STURDY_WORD_LOCK_321,DIAMOND_WORD_GEMSTONE_186],[DOCTOR_WORD_JOBS_42,CHATBOT_WORD_AI_238,POLARIS_WORD_STARS_236],[LUTETIUM_WORD_METAL_272,SECURE_WORD_LOCK_321,HOLMIUM_WORD_METAL_272],[HARMONY_WORD_SYMPHONY_210,VEGA_WORD_STARS_236],[LEMONADE_WORD_DRINKS_16,CAT_WORD_PETS_2,DOG_WORD_PETS_2],[BORDER_WORD_MAPS_1022,CHEESE_WORD_BURGER_8,DETAINEE_WORD_PRISONER_312],[ERBIUM_WORD_METAL_272,LETTER_PIC_MAIL_66,NOVA_WORD_SPACE_314],[JUICE_WORD_DRINKS_16,JOURNEY_WORD_MAPS_1022,QUASAR_WORD_SPACE_314],[SCALE_WORD_MAPS_1022],[ESPRESSO_WORD_DRINKS_16,ENGINEER_WORD_JOBS_42,RIYADH_WORD_CAPITALS_119],[CHRISTMAS_TREE_PIC_XMAS_65,CHRISTMAS_STOCKING_PIC_XMAS_65,NEBULA_WORD_SPACE_314],[SODA_WORD_DRINKS_16,ROME_WORD_CAPITALS_119],[LCD_WORD_DISPLAY_486,CONTOUR_WORD_MAPS_1022,METEOR_WORD_SPACE_314],[THULIUM_WORD_METAL_272,PRAGUE_WORD_CAPITALS_119,CAIRO_WORD_CAPITALS_119],[MELODY_WORD_SYMPHONY_210,EUROPIUM_WORD_METAL_272,AURORA_WORD_SPACE_314],[TRUSTY_WORD_LOCK_321,OSLO_WORD_CAPITALS_119,ATHENS_WORD_CAPITALS_119],[CRT_WORD_DISPLAY_486,BOURBON_WORD_DYNASTY_991],[PARCEL_PIC_MAIL_66,IRIDIUM_WORD_METAL_272,RHODIUM_WORD_METAL_272],[WELDER_WORD_JOBS_42,KNIGHT_WORD_MEDIEVAL_228,EXCAVATE_WORD_SHOVEL_261]]</t>
+  </si>
+  <si>
+    <t>[WORD_DRINKS_16,WORD_DISPLAY_486,WORD_SYMPHONY_210,PIC_XMAS_65,WORD_LOCK_321,WORD_METAL_272,WORD_SPACE_314]</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1457,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1796,8 +1796,8 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
@@ -3427,16 +3427,16 @@
       <c r="I33" s="7">
         <v>3</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="8">
-        <v>2</v>
-      </c>
-      <c r="L33" s="8" t="s">
+      <c r="K33" s="7">
+        <v>2</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="7" t="s">
         <v>181</v>
       </c>
       <c r="N33" s="7" t="s">
@@ -4021,10 +4021,10 @@
       <c r="K45" s="7">
         <v>3</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="8" t="s">
         <v>229</v>
       </c>
       <c r="N45" s="7" t="s">
